--- a/mapeo de tablas .xlsx
+++ b/mapeo de tablas .xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REQ\41_140_Nucleo_BI\BS_41_nucleo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\req\BS_41_nucleo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D0C76C-02F6-4B2B-976B-628C58784861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="134">
   <si>
     <t>ODS_REF_REFERIDO</t>
   </si>
@@ -424,12 +424,15 @@
   </si>
   <si>
     <t>tipo dato</t>
+  </si>
+  <si>
+    <t>demo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -861,7 +864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -870,7 +873,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
@@ -885,24 +888,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -920,6 +910,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -977,10 +970,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1262,11 +1258,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,10 +1287,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1302,197 +1298,200 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="F3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="49"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="49"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="49"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="49"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="49"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="49"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="49"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="49"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="50"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="51" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -1500,50 +1499,50 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="52"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="52"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="53"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="54" t="s">
+      <c r="A37" s="31"/>
+      <c r="B37" s="48" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1551,99 +1550,99 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="55"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="55"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="55"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="55"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="55"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="55"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="55"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="55"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="55"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="55"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="55"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="55"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="56"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="57" t="s">
+      <c r="A51" s="31"/>
+      <c r="B51" s="51" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -1657,29 +1656,29 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="58"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="52"/>
       <c r="C52" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="58"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="38"/>
-      <c r="B54" s="58"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
-      <c r="B55" s="58"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="7" t="s">
         <v>46</v>
       </c>
@@ -1691,29 +1690,29 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
-      <c r="B56" s="58"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
-      <c r="B57" s="58"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
-      <c r="B58" s="58"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="52"/>
       <c r="C58" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
-      <c r="B59" s="59" t="s">
+      <c r="A59" s="31"/>
+      <c r="B59" s="53" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -1721,36 +1720,36 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
-      <c r="B60" s="59"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
-      <c r="B61" s="59"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
-      <c r="B62" s="59"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="53"/>
       <c r="C62" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
-      <c r="B63" s="59"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="53"/>
       <c r="C63" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
-      <c r="B64" s="60" t="s">
+      <c r="A64" s="31"/>
+      <c r="B64" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="5" t="s">
@@ -1758,52 +1757,52 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
-      <c r="B65" s="60"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
-      <c r="B66" s="60"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="54"/>
       <c r="C66" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
-      <c r="B67" s="60"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="54"/>
       <c r="C67" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
-      <c r="B68" s="60"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="54"/>
       <c r="C68" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="38"/>
-      <c r="B69" s="60"/>
+      <c r="A69" s="31"/>
+      <c r="B69" s="54"/>
       <c r="C69" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="38"/>
-      <c r="B70" s="60"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="45" t="s">
+      <c r="A71" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="9" t="s">
@@ -1811,162 +1810,162 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="46"/>
-      <c r="B72" s="34"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="27"/>
       <c r="C72" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="46"/>
-      <c r="B73" s="34"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="27"/>
       <c r="C73" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="46"/>
-      <c r="B74" s="34"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="27"/>
       <c r="C74" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="46"/>
-      <c r="B75" s="34"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="27"/>
       <c r="C75" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="46"/>
-      <c r="B76" s="34"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="27"/>
       <c r="C76" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="46"/>
-      <c r="B77" s="34"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="27"/>
       <c r="C77" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="46"/>
-      <c r="B78" s="34"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="27"/>
       <c r="C78" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="46"/>
-      <c r="B79" s="34"/>
+      <c r="A79" s="40"/>
+      <c r="B79" s="27"/>
       <c r="C79" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="46"/>
-      <c r="B80" s="34"/>
+      <c r="A80" s="40"/>
+      <c r="B80" s="27"/>
       <c r="C80" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="46"/>
-      <c r="B81" s="34"/>
+      <c r="A81" s="40"/>
+      <c r="B81" s="27"/>
       <c r="C81" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="46"/>
-      <c r="B82" s="34"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="27"/>
       <c r="C82" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="46"/>
-      <c r="B83" s="34"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="27"/>
       <c r="C83" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="46"/>
-      <c r="B84" s="34"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="27"/>
       <c r="C84" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="46"/>
-      <c r="B85" s="34"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="27"/>
       <c r="C85" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="46"/>
-      <c r="B86" s="34"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="27"/>
       <c r="C86" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="46"/>
-      <c r="B87" s="34"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="27"/>
       <c r="C87" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="46"/>
-      <c r="B88" s="34"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="27"/>
       <c r="C88" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="46"/>
-      <c r="B89" s="34"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="27"/>
       <c r="C89" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="46"/>
-      <c r="B90" s="34"/>
+      <c r="A90" s="40"/>
+      <c r="B90" s="27"/>
       <c r="C90" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="46"/>
-      <c r="B91" s="34"/>
+      <c r="A91" s="40"/>
+      <c r="B91" s="27"/>
       <c r="C91" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="46"/>
-      <c r="B92" s="34"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="27"/>
       <c r="C92" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="46"/>
-      <c r="B93" s="34"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="27"/>
       <c r="C93" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="46"/>
-      <c r="B94" s="39" t="s">
+      <c r="A94" s="40"/>
+      <c r="B94" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="14" t="s">
@@ -1974,210 +1973,210 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="46"/>
-      <c r="B95" s="39"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="32"/>
       <c r="C95" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="46"/>
-      <c r="B96" s="39"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="32"/>
       <c r="C96" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="46"/>
-      <c r="B97" s="39"/>
+      <c r="A97" s="40"/>
+      <c r="B97" s="32"/>
       <c r="C97" s="15" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="46"/>
-      <c r="B98" s="39"/>
+      <c r="A98" s="40"/>
+      <c r="B98" s="32"/>
       <c r="C98" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="46"/>
-      <c r="B99" s="39"/>
+      <c r="A99" s="40"/>
+      <c r="B99" s="32"/>
       <c r="C99" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="46"/>
-      <c r="B100" s="39"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="32"/>
       <c r="C100" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="46"/>
-      <c r="B101" s="39"/>
+      <c r="A101" s="40"/>
+      <c r="B101" s="32"/>
       <c r="C101" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="46"/>
-      <c r="B102" s="39"/>
+      <c r="A102" s="40"/>
+      <c r="B102" s="32"/>
       <c r="C102" s="15" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="46"/>
-      <c r="B103" s="39"/>
+      <c r="A103" s="40"/>
+      <c r="B103" s="32"/>
       <c r="C103" s="15" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="46"/>
-      <c r="B104" s="39"/>
+      <c r="A104" s="40"/>
+      <c r="B104" s="32"/>
       <c r="C104" s="15" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="46"/>
-      <c r="B105" s="39"/>
+      <c r="A105" s="40"/>
+      <c r="B105" s="32"/>
       <c r="C105" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="46"/>
-      <c r="B106" s="39"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="32"/>
       <c r="C106" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="46"/>
-      <c r="B107" s="39"/>
+      <c r="A107" s="40"/>
+      <c r="B107" s="32"/>
       <c r="C107" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="46"/>
-      <c r="B108" s="39"/>
+      <c r="A108" s="40"/>
+      <c r="B108" s="32"/>
       <c r="C108" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="46"/>
-      <c r="B109" s="39"/>
+      <c r="A109" s="40"/>
+      <c r="B109" s="32"/>
       <c r="C109" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="46"/>
-      <c r="B110" s="39"/>
+      <c r="A110" s="40"/>
+      <c r="B110" s="32"/>
       <c r="C110" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="46"/>
-      <c r="B111" s="39"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="32"/>
       <c r="C111" s="15" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="46"/>
-      <c r="B112" s="39"/>
+      <c r="A112" s="40"/>
+      <c r="B112" s="32"/>
       <c r="C112" s="15" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="46"/>
-      <c r="B113" s="39"/>
+      <c r="A113" s="40"/>
+      <c r="B113" s="32"/>
       <c r="C113" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="46"/>
-      <c r="B114" s="39"/>
+      <c r="A114" s="40"/>
+      <c r="B114" s="32"/>
       <c r="C114" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="46"/>
-      <c r="B115" s="39"/>
+      <c r="A115" s="40"/>
+      <c r="B115" s="32"/>
       <c r="C115" s="15" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="46"/>
-      <c r="B116" s="39"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="32"/>
       <c r="C116" s="15" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="46"/>
-      <c r="B117" s="39"/>
+      <c r="A117" s="40"/>
+      <c r="B117" s="32"/>
       <c r="C117" s="15" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="46"/>
-      <c r="B118" s="39"/>
+      <c r="A118" s="40"/>
+      <c r="B118" s="32"/>
       <c r="C118" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="46"/>
-      <c r="B119" s="39"/>
+      <c r="A119" s="40"/>
+      <c r="B119" s="32"/>
       <c r="C119" s="15" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="46"/>
-      <c r="B120" s="39"/>
+      <c r="A120" s="40"/>
+      <c r="B120" s="32"/>
       <c r="C120" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="46"/>
-      <c r="B121" s="39"/>
+      <c r="A121" s="40"/>
+      <c r="B121" s="32"/>
       <c r="C121" s="15" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="46"/>
-      <c r="B122" s="39"/>
+      <c r="A122" s="40"/>
+      <c r="B122" s="32"/>
       <c r="C122" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="46"/>
-      <c r="B123" s="39"/>
+      <c r="A123" s="40"/>
+      <c r="B123" s="32"/>
       <c r="C123" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="46"/>
+      <c r="A124" s="40"/>
       <c r="B124" s="33" t="s">
         <v>8</v>
       </c>
@@ -2186,36 +2185,36 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="46"/>
+      <c r="A125" s="40"/>
       <c r="B125" s="33"/>
       <c r="C125" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="46"/>
+      <c r="A126" s="40"/>
       <c r="B126" s="33"/>
       <c r="C126" s="17" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="46"/>
+      <c r="A127" s="40"/>
       <c r="B127" s="33"/>
       <c r="C127" s="17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="46"/>
-      <c r="B128" s="40"/>
+      <c r="A128" s="40"/>
+      <c r="B128" s="34"/>
       <c r="C128" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="46"/>
-      <c r="B129" s="41" t="s">
+      <c r="A129" s="40"/>
+      <c r="B129" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C129" s="15" t="s">
@@ -2223,36 +2222,36 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="46"/>
-      <c r="B130" s="42"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="36"/>
       <c r="C130" s="15" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="46"/>
-      <c r="B131" s="42"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="36"/>
       <c r="C131" s="15" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="46"/>
-      <c r="B132" s="42"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="36"/>
       <c r="C132" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="46"/>
-      <c r="B133" s="43"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="37"/>
       <c r="C133" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="46"/>
-      <c r="B134" s="44" t="s">
+      <c r="A134" s="40"/>
+      <c r="B134" s="38" t="s">
         <v>10</v>
       </c>
       <c r="C134" s="19" t="s">
@@ -2260,36 +2259,36 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="46"/>
+      <c r="A135" s="40"/>
       <c r="B135" s="33"/>
       <c r="C135" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="46"/>
+      <c r="A136" s="40"/>
       <c r="B136" s="33"/>
       <c r="C136" s="19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="46"/>
+      <c r="A137" s="40"/>
       <c r="B137" s="33"/>
       <c r="C137" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="46"/>
+      <c r="A138" s="40"/>
       <c r="B138" s="33"/>
       <c r="C138" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="46"/>
-      <c r="B139" s="31" t="s">
+      <c r="A139" s="40"/>
+      <c r="B139" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C139" s="15" t="s">
@@ -2297,165 +2296,165 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="46"/>
-      <c r="B140" s="31"/>
+      <c r="A140" s="40"/>
+      <c r="B140" s="55"/>
       <c r="C140" s="15" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="46"/>
-      <c r="B141" s="31"/>
+      <c r="A141" s="40"/>
+      <c r="B141" s="55"/>
       <c r="C141" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="46"/>
-      <c r="B142" s="31"/>
+      <c r="A142" s="40"/>
+      <c r="B142" s="55"/>
       <c r="C142" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="46"/>
-      <c r="B143" s="31"/>
+      <c r="A143" s="40"/>
+      <c r="B143" s="55"/>
       <c r="C143" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="46"/>
-      <c r="B144" s="31"/>
+      <c r="A144" s="40"/>
+      <c r="B144" s="55"/>
       <c r="C144" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="46"/>
-      <c r="B145" s="31"/>
+      <c r="A145" s="40"/>
+      <c r="B145" s="55"/>
       <c r="C145" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="46"/>
-      <c r="B146" s="31"/>
+      <c r="A146" s="40"/>
+      <c r="B146" s="55"/>
       <c r="C146" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="46"/>
-      <c r="B147" s="31"/>
+      <c r="A147" s="40"/>
+      <c r="B147" s="55"/>
       <c r="C147" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="46"/>
-      <c r="B148" s="32" t="s">
+      <c r="A148" s="40"/>
+      <c r="B148" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C148" s="23" t="s">
+      <c r="C148" s="19" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="46"/>
-      <c r="B149" s="32"/>
-      <c r="C149" s="23" t="s">
+      <c r="A149" s="40"/>
+      <c r="B149" s="27"/>
+      <c r="C149" s="19" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="46"/>
-      <c r="B150" s="32"/>
-      <c r="C150" s="24" t="s">
+      <c r="A150" s="40"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="46"/>
-      <c r="B151" s="32"/>
-      <c r="C151" s="24" t="s">
+      <c r="A151" s="40"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="46"/>
-      <c r="B152" s="32"/>
-      <c r="C152" s="23" t="s">
+      <c r="A152" s="40"/>
+      <c r="B152" s="27"/>
+      <c r="C152" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="46"/>
-      <c r="B153" s="32"/>
-      <c r="C153" s="25" t="s">
+      <c r="A153" s="40"/>
+      <c r="B153" s="27"/>
+      <c r="C153" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="46"/>
-      <c r="B154" s="32"/>
-      <c r="C154" s="26" t="s">
+      <c r="A154" s="40"/>
+      <c r="B154" s="27"/>
+      <c r="C154" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="46"/>
-      <c r="B155" s="31" t="s">
+      <c r="A155" s="40"/>
+      <c r="B155" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C155" s="28" t="s">
+      <c r="C155" s="24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="46"/>
-      <c r="B156" s="31"/>
-      <c r="C156" s="29" t="s">
+      <c r="A156" s="40"/>
+      <c r="B156" s="55"/>
+      <c r="C156" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="46"/>
-      <c r="B157" s="31"/>
-      <c r="C157" s="29" t="s">
+      <c r="A157" s="40"/>
+      <c r="B157" s="55"/>
+      <c r="C157" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="46"/>
-      <c r="B158" s="31"/>
-      <c r="C158" s="29" t="s">
+      <c r="A158" s="40"/>
+      <c r="B158" s="55"/>
+      <c r="C158" s="25" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="46"/>
-      <c r="B159" s="31"/>
+      <c r="A159" s="40"/>
+      <c r="B159" s="55"/>
       <c r="C159" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="46"/>
-      <c r="B160" s="31"/>
+      <c r="A160" s="40"/>
+      <c r="B160" s="55"/>
       <c r="C160" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="46"/>
-      <c r="B161" s="31"/>
+      <c r="A161" s="40"/>
+      <c r="B161" s="55"/>
       <c r="C161" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="46"/>
+      <c r="A162" s="40"/>
       <c r="B162" s="33" t="s">
         <v>14</v>
       </c>
@@ -2464,29 +2463,29 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="46"/>
+      <c r="A163" s="40"/>
       <c r="B163" s="33"/>
       <c r="C163" s="17" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="46"/>
+      <c r="A164" s="40"/>
       <c r="B164" s="33"/>
       <c r="C164" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="46"/>
+      <c r="A165" s="40"/>
       <c r="B165" s="33"/>
       <c r="C165" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="46"/>
-      <c r="B166" s="31" t="s">
+      <c r="A166" s="40"/>
+      <c r="B166" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C166" s="14" t="s">
@@ -2494,86 +2493,89 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="46"/>
-      <c r="B167" s="31"/>
+      <c r="A167" s="40"/>
+      <c r="B167" s="55"/>
       <c r="C167" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="46"/>
-      <c r="B168" s="31"/>
+      <c r="A168" s="40"/>
+      <c r="B168" s="55"/>
       <c r="C168" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="46"/>
-      <c r="B169" s="31"/>
+      <c r="A169" s="40"/>
+      <c r="B169" s="55"/>
       <c r="C169" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="46"/>
-      <c r="B170" s="31"/>
+      <c r="A170" s="40"/>
+      <c r="B170" s="55"/>
       <c r="C170" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="46"/>
-      <c r="B171" s="31"/>
+      <c r="A171" s="40"/>
+      <c r="B171" s="55"/>
       <c r="C171" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="46"/>
-      <c r="B172" s="34" t="s">
+      <c r="A172" s="40"/>
+      <c r="B172" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C172" s="27" t="s">
+      <c r="C172" s="23" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="46"/>
-      <c r="B173" s="34"/>
+      <c r="A173" s="40"/>
+      <c r="B173" s="27"/>
       <c r="C173" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="46"/>
-      <c r="B174" s="34"/>
+      <c r="A174" s="40"/>
+      <c r="B174" s="27"/>
       <c r="C174" s="19" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="46"/>
-      <c r="B175" s="34"/>
+      <c r="A175" s="40"/>
+      <c r="B175" s="27"/>
       <c r="C175" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="46"/>
-      <c r="B176" s="34"/>
+      <c r="A176" s="40"/>
+      <c r="B176" s="27"/>
       <c r="C176" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="47"/>
-      <c r="B177" s="35"/>
-      <c r="C177" s="30" t="s">
+      <c r="A177" s="41"/>
+      <c r="B177" s="28"/>
+      <c r="C177" s="26" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B155:B161"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="B166:B171"/>
     <mergeCell ref="B172:B177"/>
     <mergeCell ref="B71:B93"/>
     <mergeCell ref="A2:A70"/>
@@ -2590,9 +2592,6 @@
     <mergeCell ref="B64:B70"/>
     <mergeCell ref="B139:B147"/>
     <mergeCell ref="B148:B154"/>
-    <mergeCell ref="B155:B161"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="B166:B171"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mapeo de tablas .xlsx
+++ b/mapeo de tablas .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\req\BS_41_nucleo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BS_Jairo\req\BS_41_nucleo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0C245F-923A-482B-89C5-8DBF25DBC93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EDE136-78D6-4786-BFDF-A6FCAD745135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-6795" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="228">
   <si>
     <t>ODS_REF_REFERIDO</t>
   </si>
@@ -670,6 +670,45 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CCRGSTRO</t>
+  </si>
+  <si>
+    <t>A.CCRGSTRO</t>
+  </si>
+  <si>
+    <t>cod_cia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anio_mes_operacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.CSLCTD </t>
+  </si>
+  <si>
+    <t>A.CPRCSO</t>
+  </si>
+  <si>
+    <t>CORGSTRO</t>
+  </si>
+  <si>
+    <t>ARGSTRO</t>
+  </si>
+  <si>
+    <t>A.FRCPCN</t>
+  </si>
+  <si>
+    <t>A.CTVRCLMO</t>
+  </si>
+  <si>
+    <t>TRCLMO</t>
+  </si>
+  <si>
+    <t>X.NVRCLMO</t>
+  </si>
+  <si>
+    <t>VRCLMO</t>
   </si>
 </sst>
 </file>
@@ -703,7 +742,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,8 +797,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1196,21 +1241,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="9"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1322,11 +1352,76 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1343,59 +1438,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1405,56 +1483,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1737,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,7 +1779,7 @@
     <col min="4" max="4" width="2.5703125" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1764,7 +1794,7 @@
       <c r="G1" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="24" t="s">
         <v>144</v>
       </c>
       <c r="K1" t="s">
@@ -1772,10 +1802,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1784,20 +1814,20 @@
       <c r="F2" t="s">
         <v>178</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="24" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="31"/>
+      <c r="J3" s="24"/>
       <c r="K3" t="s">
         <v>213</v>
       </c>
@@ -1806,21 +1836,21 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>142</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="24" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1830,490 +1860,448 @@
       <c r="F5" t="s">
         <v>129</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="24" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>137</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="24" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>138</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="24" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>161</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="24" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F9" t="s">
         <v>158</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="24" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
         <v>166</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="24" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>173</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="24" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F12" t="s">
         <v>175</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="24" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F13" t="s">
         <v>180</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="24" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F14" t="s">
         <v>183</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="24" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
         <v>185</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="24" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F16" t="s">
         <v>187</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="24" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F17" t="s">
         <v>189</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="24" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F18" t="s">
         <v>192</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="24" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F19" t="s">
         <v>191</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="24" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F20" t="s">
         <v>196</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="24" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F21" t="s">
         <v>199</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="24" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F22" t="s">
         <v>200</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="24" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F23" t="s">
         <v>202</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="24" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F24" t="s">
         <v>205</v>
       </c>
-      <c r="J24" s="31" t="s">
+      <c r="J24" s="24" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F25" t="s">
         <v>207</v>
       </c>
-      <c r="J25" s="31" t="s">
+      <c r="J25" s="24" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F26" t="s">
         <v>208</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="24" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F27" t="s">
         <v>210</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="31"/>
+      <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="29"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="3"/>
-      <c r="J29" s="32"/>
+      <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="33" t="s">
+      <c r="A30" s="50"/>
+      <c r="B30" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="36"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="37"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="39"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="37"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38" t="s">
+      <c r="E32" t="s">
         <v>170</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" t="s">
         <v>168</v>
       </c>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="39" t="s">
+      <c r="J32" s="29" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="37"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="39"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="37"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="39"/>
+      <c r="J34" s="29"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="37"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="39"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="43"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="44" t="s">
+      <c r="A37" s="50"/>
+      <c r="B37" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35" t="s">
+      <c r="D37" s="27"/>
+      <c r="E37" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="36"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="28"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="46"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="69"/>
       <c r="C38" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38" t="s">
+      <c r="E38" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="38" t="s">
+      <c r="F38" t="s">
         <v>130</v>
       </c>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="39" t="s">
+      <c r="J38" s="29" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="46"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38" t="s">
+      <c r="F39" t="s">
         <v>134</v>
       </c>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39" t="s">
+      <c r="J39" s="29" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="46"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="69"/>
       <c r="C40" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38" t="s">
+      <c r="F40" t="s">
         <v>135</v>
       </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="39" t="s">
+      <c r="J40" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="K40" s="38" t="s">
+      <c r="K40" t="s">
         <v>135</v>
       </c>
       <c r="L40" t="s">
@@ -2327,1977 +2315,1371 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="46"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="69"/>
       <c r="C41" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38" t="s">
+      <c r="F41" t="s">
         <v>136</v>
       </c>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39" t="s">
+      <c r="J41" s="29" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="46"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="69"/>
       <c r="C42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="39"/>
+      <c r="J42" s="29"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="46"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="69"/>
       <c r="C43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38" t="s">
+      <c r="F43" t="s">
         <v>139</v>
       </c>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="39" t="s">
+      <c r="J43" s="29" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="46"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38" t="s">
+      <c r="F44" t="s">
         <v>140</v>
       </c>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="39" t="s">
+      <c r="J44" s="29" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="69"/>
       <c r="C45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="39"/>
+      <c r="J45" s="29"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="46"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38" t="s">
+      <c r="F46" t="s">
         <v>195</v>
       </c>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="39" t="s">
+      <c r="J46" s="29" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="46"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="69"/>
       <c r="C47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="39"/>
+      <c r="J47" s="29"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="46"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="69"/>
       <c r="C48" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="39"/>
+      <c r="J48" s="29"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="46"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="39"/>
+      <c r="J49" s="29"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="48" t="s">
+      <c r="A50" s="50"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42" t="s">
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="43" t="s">
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="32" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="49" t="s">
+      <c r="A51" s="50"/>
+      <c r="B51" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="36"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="28"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="51"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="39"/>
+      <c r="J52" s="29"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="51"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="72"/>
       <c r="C53" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="39"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
-      <c r="B54" s="51"/>
+      <c r="A54" s="50"/>
+      <c r="B54" s="72"/>
       <c r="C54" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="39"/>
+      <c r="J54" s="29"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="51"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="72"/>
       <c r="C55" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38" t="s">
+      <c r="E55" t="s">
         <v>169</v>
       </c>
-      <c r="F55" s="38" t="s">
+      <c r="F55" t="s">
         <v>143</v>
       </c>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="39" t="s">
+      <c r="J55" s="29" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="B56" s="51"/>
+      <c r="A56" s="50"/>
+      <c r="B56" s="72"/>
       <c r="C56" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="39"/>
+      <c r="J56" s="29"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
-      <c r="B57" s="51"/>
+      <c r="A57" s="50"/>
+      <c r="B57" s="72"/>
       <c r="C57" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="39"/>
+      <c r="J57" s="29"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="53" t="s">
+      <c r="A58" s="50"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="43"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="32"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
-      <c r="B59" s="54" t="s">
+      <c r="A59" s="50"/>
+      <c r="B59" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="55" t="s">
+      <c r="C59" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="36"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="28"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
-      <c r="B60" s="56"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="75"/>
       <c r="C60" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38" t="s">
+      <c r="E60" t="s">
         <v>160</v>
       </c>
-      <c r="F60" s="38" t="s">
+      <c r="F60" t="s">
         <v>159</v>
       </c>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="39"/>
+      <c r="J60" s="29"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
-      <c r="B61" s="56"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="75"/>
       <c r="C61" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="39"/>
+      <c r="J61" s="29"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
-      <c r="B62" s="56"/>
+      <c r="A62" s="50"/>
+      <c r="B62" s="75"/>
       <c r="C62" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="39"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="58" t="s">
+      <c r="A63" s="50"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="43"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="32"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
-      <c r="B64" s="59" t="s">
+      <c r="A64" s="50"/>
+      <c r="B64" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="45" t="s">
+      <c r="C64" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="36"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="24"/>
-      <c r="B65" s="60"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="28"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="50"/>
+      <c r="B65" s="78"/>
       <c r="C65" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="39"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
-      <c r="B66" s="60"/>
+      <c r="J65" s="29"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="50"/>
+      <c r="B66" s="78"/>
       <c r="C66" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38" t="s">
+      <c r="E66" t="s">
         <v>163</v>
       </c>
-      <c r="F66" s="38" t="s">
+      <c r="F66" t="s">
         <v>164</v>
       </c>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="39" t="s">
+      <c r="J66" s="29" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="24"/>
-      <c r="B67" s="60"/>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="50"/>
+      <c r="B67" s="78"/>
       <c r="C67" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="39"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
-      <c r="B68" s="60"/>
+      <c r="J67" s="29"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="50"/>
+      <c r="B68" s="78"/>
       <c r="C68" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="39"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
-      <c r="B69" s="60"/>
+      <c r="J68" s="29"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="50"/>
+      <c r="B69" s="78"/>
       <c r="C69" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="39"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="24"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="48" t="s">
+      <c r="J69" s="29"/>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="50"/>
+      <c r="B70" s="79"/>
+      <c r="C70" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="43"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="25" t="s">
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="63" t="s">
-        <v>214</v>
-      </c>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="36"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="64"/>
+      <c r="C71" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="K71" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="61"/>
+      <c r="B72" s="46"/>
       <c r="C72" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="39"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="64"/>
+      <c r="F72" t="s">
+        <v>219</v>
+      </c>
+      <c r="J72" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="K72" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="61"/>
+      <c r="B73" s="46"/>
       <c r="C73" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="39"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-      <c r="B74" s="64"/>
+      <c r="F73" t="s">
+        <v>223</v>
+      </c>
+      <c r="J73" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="K73" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="61"/>
+      <c r="B74" s="46"/>
       <c r="C74" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="39"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
-      <c r="B75" s="64"/>
+      <c r="F74" t="s">
+        <v>224</v>
+      </c>
+      <c r="J74" s="29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="61"/>
+      <c r="B75" s="46"/>
       <c r="C75" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="39"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
-      <c r="B76" s="64"/>
+      <c r="J75" s="29"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="61"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="39"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="64"/>
+      <c r="J76" s="29"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="61"/>
+      <c r="B77" s="46"/>
       <c r="C77" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="39"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="64"/>
+      <c r="J77" s="29"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="61"/>
+      <c r="B78" s="46"/>
       <c r="C78" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="39"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
-      <c r="B79" s="64"/>
+      <c r="F78" t="s">
+        <v>220</v>
+      </c>
+      <c r="J78" s="29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="61"/>
+      <c r="B79" s="46"/>
       <c r="C79" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="39"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
-      <c r="B80" s="64"/>
+      <c r="J79" s="29"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="61"/>
+      <c r="B80" s="46"/>
       <c r="C80" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="39"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="64"/>
+      <c r="A81" s="61"/>
+      <c r="B81" s="46"/>
       <c r="C81" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="39"/>
+      <c r="J81" s="29"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
-      <c r="B82" s="64"/>
+      <c r="A82" s="61"/>
+      <c r="B82" s="46"/>
       <c r="C82" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="39"/>
+      <c r="J82" s="29"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
-      <c r="B83" s="64"/>
+      <c r="A83" s="61"/>
+      <c r="B83" s="46"/>
       <c r="C83" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="38"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="39"/>
+      <c r="J83" s="29"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="26"/>
-      <c r="B84" s="64"/>
+      <c r="A84" s="61"/>
+      <c r="B84" s="46"/>
       <c r="C84" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="39"/>
+      <c r="J84" s="29"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
-      <c r="B85" s="64"/>
+      <c r="A85" s="61"/>
+      <c r="B85" s="46"/>
       <c r="C85" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="39"/>
+      <c r="J85" s="29"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
-      <c r="B86" s="64"/>
+      <c r="A86" s="61"/>
+      <c r="B86" s="46"/>
       <c r="C86" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="39"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
-      <c r="B87" s="64"/>
+      <c r="A87" s="61"/>
+      <c r="B87" s="46"/>
       <c r="C87" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D87" s="38"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="39"/>
+      <c r="J87" s="29"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
-      <c r="B88" s="64"/>
+      <c r="A88" s="61"/>
+      <c r="B88" s="46"/>
       <c r="C88" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="38"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="39"/>
+      <c r="J88" s="29"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
-      <c r="B89" s="64"/>
+      <c r="A89" s="61"/>
+      <c r="B89" s="46"/>
       <c r="C89" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="39"/>
+      <c r="J89" s="29"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
-      <c r="B90" s="64"/>
+      <c r="A90" s="61"/>
+      <c r="B90" s="46"/>
       <c r="C90" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="39"/>
+      <c r="J90" s="29"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
-      <c r="B91" s="64"/>
+      <c r="A91" s="61"/>
+      <c r="B91" s="46"/>
       <c r="C91" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D91" s="38"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="39"/>
+      <c r="J91" s="29"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
-      <c r="B92" s="64"/>
+      <c r="A92" s="61"/>
+      <c r="B92" s="46"/>
       <c r="C92" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D92" s="38"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="39"/>
+      <c r="J92" s="29"/>
     </row>
     <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="26"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="42"/>
-      <c r="H93" s="42"/>
-      <c r="I93" s="42"/>
-      <c r="J93" s="43"/>
+      <c r="A93" s="61"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="32"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
-      <c r="B94" s="67" t="s">
+      <c r="A94" s="61"/>
+      <c r="B94" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="36"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="81"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="28"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
-      <c r="B95" s="68"/>
+      <c r="A95" s="61"/>
+      <c r="B95" s="52"/>
       <c r="C95" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D95" s="38"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="39"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
-      <c r="B96" s="68"/>
+      <c r="A96" s="61"/>
+      <c r="B96" s="52"/>
       <c r="C96" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D96" s="38"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="38"/>
-      <c r="J96" s="39"/>
+      <c r="J96" s="29"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
-      <c r="B97" s="68"/>
+      <c r="A97" s="61"/>
+      <c r="B97" s="52"/>
       <c r="C97" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D97" s="38"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="38"/>
-      <c r="J97" s="39"/>
+      <c r="J97" s="29"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="26"/>
-      <c r="B98" s="68"/>
+      <c r="A98" s="61"/>
+      <c r="B98" s="52"/>
       <c r="C98" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D98" s="38"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="38"/>
-      <c r="G98" s="38"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="38"/>
-      <c r="J98" s="39"/>
+      <c r="J98" s="29"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="26"/>
-      <c r="B99" s="68"/>
+      <c r="A99" s="61"/>
+      <c r="B99" s="52"/>
       <c r="C99" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D99" s="38"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="38"/>
-      <c r="G99" s="38"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="38"/>
-      <c r="J99" s="39"/>
+      <c r="J99" s="29"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="26"/>
-      <c r="B100" s="68"/>
+      <c r="A100" s="61"/>
+      <c r="B100" s="52"/>
       <c r="C100" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D100" s="38"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="38"/>
-      <c r="G100" s="38"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="38"/>
-      <c r="J100" s="39"/>
+      <c r="J100" s="29"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="26"/>
-      <c r="B101" s="68"/>
+      <c r="A101" s="61"/>
+      <c r="B101" s="52"/>
       <c r="C101" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D101" s="38"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="38"/>
-      <c r="G101" s="38"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="38"/>
-      <c r="J101" s="39"/>
+      <c r="J101" s="29"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="26"/>
-      <c r="B102" s="68"/>
+      <c r="A102" s="61"/>
+      <c r="B102" s="52"/>
       <c r="C102" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D102" s="38"/>
-      <c r="E102" s="38"/>
-      <c r="F102" s="38"/>
-      <c r="G102" s="38"/>
-      <c r="H102" s="38"/>
-      <c r="I102" s="38"/>
-      <c r="J102" s="39"/>
+      <c r="J102" s="29"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="26"/>
-      <c r="B103" s="68"/>
+      <c r="A103" s="61"/>
+      <c r="B103" s="52"/>
       <c r="C103" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D103" s="38"/>
-      <c r="E103" s="38"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="38"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="39"/>
+      <c r="J103" s="29"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="26"/>
-      <c r="B104" s="68"/>
+      <c r="A104" s="61"/>
+      <c r="B104" s="52"/>
       <c r="C104" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D104" s="38"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="38"/>
-      <c r="G104" s="38"/>
-      <c r="H104" s="38"/>
-      <c r="I104" s="38"/>
-      <c r="J104" s="39"/>
+      <c r="J104" s="29"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="26"/>
-      <c r="B105" s="68"/>
+      <c r="A105" s="61"/>
+      <c r="B105" s="52"/>
       <c r="C105" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D105" s="38"/>
-      <c r="E105" s="38"/>
-      <c r="F105" s="38"/>
-      <c r="G105" s="38"/>
-      <c r="H105" s="38"/>
-      <c r="I105" s="38"/>
-      <c r="J105" s="39"/>
+      <c r="J105" s="29"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="26"/>
-      <c r="B106" s="68"/>
+      <c r="A106" s="61"/>
+      <c r="B106" s="52"/>
       <c r="C106" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D106" s="38"/>
-      <c r="E106" s="38"/>
-      <c r="F106" s="38"/>
-      <c r="G106" s="38"/>
-      <c r="H106" s="38"/>
-      <c r="I106" s="38"/>
-      <c r="J106" s="39"/>
+      <c r="J106" s="29"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="26"/>
-      <c r="B107" s="68"/>
+      <c r="A107" s="61"/>
+      <c r="B107" s="52"/>
       <c r="C107" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D107" s="38"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="38"/>
-      <c r="G107" s="38"/>
-      <c r="H107" s="38"/>
-      <c r="I107" s="38"/>
-      <c r="J107" s="39"/>
+      <c r="J107" s="29"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="26"/>
-      <c r="B108" s="68"/>
+      <c r="A108" s="61"/>
+      <c r="B108" s="52"/>
       <c r="C108" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D108" s="38"/>
-      <c r="E108" s="38"/>
-      <c r="F108" s="38"/>
-      <c r="G108" s="38"/>
-      <c r="H108" s="38"/>
-      <c r="I108" s="38"/>
-      <c r="J108" s="39"/>
+      <c r="J108" s="29"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="26"/>
-      <c r="B109" s="68"/>
+      <c r="A109" s="61"/>
+      <c r="B109" s="52"/>
       <c r="C109" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D109" s="38"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="38"/>
-      <c r="H109" s="38"/>
-      <c r="I109" s="38"/>
-      <c r="J109" s="39"/>
+      <c r="J109" s="29"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="26"/>
-      <c r="B110" s="68"/>
+      <c r="A110" s="61"/>
+      <c r="B110" s="52"/>
       <c r="C110" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D110" s="38"/>
-      <c r="E110" s="38"/>
-      <c r="F110" s="38"/>
-      <c r="G110" s="38"/>
-      <c r="H110" s="38"/>
-      <c r="I110" s="38"/>
-      <c r="J110" s="39"/>
+      <c r="J110" s="29"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="26"/>
-      <c r="B111" s="68"/>
+      <c r="A111" s="61"/>
+      <c r="B111" s="52"/>
       <c r="C111" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D111" s="38"/>
-      <c r="E111" s="38"/>
-      <c r="F111" s="38"/>
-      <c r="G111" s="38"/>
-      <c r="H111" s="38"/>
-      <c r="I111" s="38"/>
-      <c r="J111" s="39"/>
+      <c r="J111" s="29"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="26"/>
-      <c r="B112" s="68"/>
+      <c r="A112" s="61"/>
+      <c r="B112" s="52"/>
       <c r="C112" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D112" s="38"/>
-      <c r="E112" s="38"/>
-      <c r="F112" s="38"/>
-      <c r="G112" s="38"/>
-      <c r="H112" s="38"/>
-      <c r="I112" s="38"/>
-      <c r="J112" s="39"/>
+      <c r="J112" s="29"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="26"/>
-      <c r="B113" s="68"/>
+      <c r="A113" s="61"/>
+      <c r="B113" s="52"/>
       <c r="C113" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D113" s="38"/>
-      <c r="E113" s="38"/>
-      <c r="F113" s="38"/>
-      <c r="G113" s="38"/>
-      <c r="H113" s="38"/>
-      <c r="I113" s="38"/>
-      <c r="J113" s="39"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="26"/>
-      <c r="B114" s="68"/>
+      <c r="A114" s="61"/>
+      <c r="B114" s="52"/>
       <c r="C114" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D114" s="38"/>
-      <c r="E114" s="38"/>
-      <c r="F114" s="38"/>
-      <c r="G114" s="38"/>
-      <c r="H114" s="38"/>
-      <c r="I114" s="38"/>
-      <c r="J114" s="39"/>
+      <c r="J114" s="29"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="26"/>
-      <c r="B115" s="68"/>
+      <c r="A115" s="61"/>
+      <c r="B115" s="52"/>
       <c r="C115" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D115" s="38"/>
-      <c r="E115" s="38"/>
-      <c r="F115" s="38"/>
-      <c r="G115" s="38"/>
-      <c r="H115" s="38"/>
-      <c r="I115" s="38"/>
-      <c r="J115" s="39"/>
+      <c r="J115" s="29"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="26"/>
-      <c r="B116" s="68"/>
+      <c r="A116" s="61"/>
+      <c r="B116" s="52"/>
       <c r="C116" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D116" s="38"/>
-      <c r="E116" s="38"/>
-      <c r="F116" s="38"/>
-      <c r="G116" s="38"/>
-      <c r="H116" s="38"/>
-      <c r="I116" s="38"/>
-      <c r="J116" s="39"/>
+      <c r="J116" s="29"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="26"/>
-      <c r="B117" s="68"/>
+      <c r="A117" s="61"/>
+      <c r="B117" s="52"/>
       <c r="C117" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D117" s="38"/>
-      <c r="E117" s="38"/>
-      <c r="F117" s="38"/>
-      <c r="G117" s="38"/>
-      <c r="H117" s="38"/>
-      <c r="I117" s="38"/>
-      <c r="J117" s="39"/>
+      <c r="J117" s="29"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="26"/>
-      <c r="B118" s="68"/>
+      <c r="A118" s="61"/>
+      <c r="B118" s="52"/>
       <c r="C118" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D118" s="38"/>
-      <c r="E118" s="38"/>
-      <c r="F118" s="38"/>
-      <c r="G118" s="38"/>
-      <c r="H118" s="38"/>
-      <c r="I118" s="38"/>
-      <c r="J118" s="39"/>
+      <c r="J118" s="29"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="26"/>
-      <c r="B119" s="68"/>
+      <c r="A119" s="61"/>
+      <c r="B119" s="52"/>
       <c r="C119" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D119" s="38"/>
-      <c r="E119" s="38"/>
-      <c r="F119" s="38"/>
-      <c r="G119" s="38"/>
-      <c r="H119" s="38"/>
-      <c r="I119" s="38"/>
-      <c r="J119" s="39"/>
+      <c r="J119" s="29"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="26"/>
-      <c r="B120" s="68"/>
+      <c r="A120" s="61"/>
+      <c r="B120" s="52"/>
       <c r="C120" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D120" s="38"/>
-      <c r="E120" s="38"/>
-      <c r="F120" s="38"/>
-      <c r="G120" s="38"/>
-      <c r="H120" s="38"/>
-      <c r="I120" s="38"/>
-      <c r="J120" s="39"/>
+      <c r="J120" s="29"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="26"/>
-      <c r="B121" s="68"/>
+      <c r="A121" s="61"/>
+      <c r="B121" s="52"/>
       <c r="C121" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D121" s="38"/>
-      <c r="E121" s="38"/>
-      <c r="F121" s="38"/>
-      <c r="G121" s="38"/>
-      <c r="H121" s="38"/>
-      <c r="I121" s="38"/>
-      <c r="J121" s="39"/>
+      <c r="J121" s="29"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="26"/>
-      <c r="B122" s="68"/>
+      <c r="A122" s="61"/>
+      <c r="B122" s="52"/>
       <c r="C122" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D122" s="38"/>
-      <c r="E122" s="38"/>
-      <c r="F122" s="38"/>
-      <c r="G122" s="38"/>
-      <c r="H122" s="38"/>
-      <c r="I122" s="38"/>
-      <c r="J122" s="39"/>
+      <c r="J122" s="29"/>
     </row>
     <row r="123" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="26"/>
-      <c r="B123" s="69"/>
+      <c r="A123" s="61"/>
+      <c r="B123" s="53"/>
       <c r="C123" s="19"/>
-      <c r="D123" s="42"/>
-      <c r="E123" s="42"/>
-      <c r="F123" s="42"/>
-      <c r="G123" s="42"/>
-      <c r="H123" s="42"/>
-      <c r="I123" s="42"/>
-      <c r="J123" s="43"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="31"/>
+      <c r="I123" s="31"/>
+      <c r="J123" s="32"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="26"/>
-      <c r="B124" s="71" t="s">
+      <c r="A124" s="61"/>
+      <c r="B124" s="54" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D124" s="35"/>
-      <c r="E124" s="35"/>
-      <c r="F124" s="35"/>
-      <c r="G124" s="35"/>
-      <c r="H124" s="35"/>
-      <c r="I124" s="35"/>
-      <c r="J124" s="36"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="27"/>
+      <c r="I124" s="27"/>
+      <c r="J124" s="28"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="26"/>
-      <c r="B125" s="72"/>
+      <c r="A125" s="61"/>
+      <c r="B125" s="55"/>
       <c r="C125" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D125" s="38"/>
-      <c r="E125" s="38"/>
-      <c r="F125" s="38"/>
-      <c r="G125" s="38"/>
-      <c r="H125" s="38"/>
-      <c r="I125" s="38"/>
-      <c r="J125" s="39"/>
+      <c r="J125" s="29"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="26"/>
-      <c r="B126" s="72"/>
+      <c r="A126" s="61"/>
+      <c r="B126" s="55"/>
       <c r="C126" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D126" s="38"/>
-      <c r="E126" s="38"/>
-      <c r="F126" s="38"/>
-      <c r="G126" s="38"/>
-      <c r="H126" s="38"/>
-      <c r="I126" s="38"/>
-      <c r="J126" s="39"/>
+      <c r="J126" s="29"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="26"/>
-      <c r="B127" s="72"/>
+      <c r="A127" s="61"/>
+      <c r="B127" s="55"/>
       <c r="C127" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D127" s="38"/>
-      <c r="E127" s="38"/>
-      <c r="F127" s="38"/>
-      <c r="G127" s="38"/>
-      <c r="H127" s="38"/>
-      <c r="I127" s="38"/>
-      <c r="J127" s="39"/>
+      <c r="J127" s="29"/>
     </row>
     <row r="128" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="26"/>
-      <c r="B128" s="78"/>
+      <c r="A128" s="61"/>
+      <c r="B128" s="56"/>
       <c r="C128" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D128" s="42"/>
-      <c r="E128" s="42"/>
-      <c r="F128" s="42"/>
-      <c r="G128" s="42"/>
-      <c r="H128" s="42"/>
-      <c r="I128" s="42"/>
-      <c r="J128" s="43"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="31"/>
+      <c r="G128" s="31"/>
+      <c r="H128" s="31"/>
+      <c r="I128" s="31"/>
+      <c r="J128" s="32"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="26"/>
-      <c r="B129" s="79" t="s">
+      <c r="A129" s="61"/>
+      <c r="B129" s="57" t="s">
         <v>9</v>
       </c>
       <c r="C129" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D129" s="35"/>
-      <c r="E129" s="35"/>
-      <c r="F129" s="35"/>
-      <c r="G129" s="35"/>
-      <c r="H129" s="35"/>
-      <c r="I129" s="35"/>
-      <c r="J129" s="36"/>
+      <c r="D129" s="27"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="28"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="26"/>
-      <c r="B130" s="73"/>
+      <c r="A130" s="61"/>
+      <c r="B130" s="58"/>
       <c r="C130" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D130" s="38"/>
-      <c r="E130" s="38"/>
-      <c r="F130" s="38"/>
-      <c r="G130" s="38"/>
-      <c r="H130" s="38"/>
-      <c r="I130" s="38"/>
-      <c r="J130" s="39"/>
+      <c r="E130" t="s">
+        <v>214</v>
+      </c>
+      <c r="F130" t="s">
+        <v>226</v>
+      </c>
+      <c r="J130" s="29" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="26"/>
-      <c r="B131" s="73"/>
+      <c r="A131" s="61"/>
+      <c r="B131" s="58"/>
       <c r="C131" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D131" s="38"/>
-      <c r="E131" s="38"/>
-      <c r="F131" s="38"/>
-      <c r="G131" s="38"/>
-      <c r="H131" s="38"/>
-      <c r="I131" s="38"/>
-      <c r="J131" s="39"/>
+      <c r="J131" s="29"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="26"/>
-      <c r="B132" s="73"/>
+      <c r="A132" s="61"/>
+      <c r="B132" s="58"/>
       <c r="C132" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D132" s="38"/>
-      <c r="E132" s="38"/>
-      <c r="F132" s="38"/>
-      <c r="G132" s="38"/>
-      <c r="H132" s="38"/>
-      <c r="I132" s="38"/>
-      <c r="J132" s="39"/>
+      <c r="J132" s="29"/>
     </row>
     <row r="133" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="26"/>
-      <c r="B133" s="80"/>
+      <c r="A133" s="61"/>
+      <c r="B133" s="59"/>
       <c r="C133" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D133" s="42"/>
-      <c r="E133" s="42"/>
-      <c r="F133" s="42"/>
-      <c r="G133" s="42"/>
-      <c r="H133" s="42"/>
-      <c r="I133" s="42"/>
-      <c r="J133" s="43"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="31"/>
+      <c r="G133" s="31"/>
+      <c r="H133" s="31"/>
+      <c r="I133" s="31"/>
+      <c r="J133" s="32"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="26"/>
-      <c r="B134" s="71" t="s">
+      <c r="A134" s="61"/>
+      <c r="B134" s="54" t="s">
         <v>10</v>
       </c>
       <c r="C134" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D134" s="35"/>
-      <c r="E134" s="35"/>
-      <c r="F134" s="35"/>
-      <c r="G134" s="35"/>
-      <c r="H134" s="35"/>
-      <c r="I134" s="35"/>
-      <c r="J134" s="36"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="27"/>
+      <c r="J134" s="28"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="26"/>
-      <c r="B135" s="72"/>
+      <c r="A135" s="61"/>
+      <c r="B135" s="55"/>
       <c r="C135" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D135" s="38"/>
-      <c r="E135" s="38"/>
-      <c r="F135" s="38"/>
-      <c r="G135" s="38"/>
-      <c r="H135" s="38"/>
-      <c r="I135" s="38"/>
-      <c r="J135" s="39"/>
+      <c r="J135" s="29"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="26"/>
-      <c r="B136" s="72"/>
+      <c r="A136" s="61"/>
+      <c r="B136" s="55"/>
       <c r="C136" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D136" s="38"/>
-      <c r="E136" s="38"/>
-      <c r="F136" s="38"/>
-      <c r="G136" s="38"/>
-      <c r="H136" s="38"/>
-      <c r="I136" s="38"/>
-      <c r="J136" s="39"/>
+      <c r="J136" s="29"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="26"/>
-      <c r="B137" s="72"/>
+      <c r="A137" s="61"/>
+      <c r="B137" s="55"/>
       <c r="C137" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D137" s="38"/>
-      <c r="E137" s="38"/>
-      <c r="F137" s="38"/>
-      <c r="G137" s="38"/>
-      <c r="H137" s="38"/>
-      <c r="I137" s="38"/>
-      <c r="J137" s="39"/>
+      <c r="J137" s="29"/>
     </row>
     <row r="138" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="26"/>
-      <c r="B138" s="78"/>
+      <c r="A138" s="61"/>
+      <c r="B138" s="56"/>
       <c r="C138" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D138" s="42"/>
-      <c r="E138" s="42"/>
-      <c r="F138" s="42"/>
-      <c r="G138" s="42"/>
-      <c r="H138" s="42"/>
-      <c r="I138" s="42"/>
-      <c r="J138" s="43"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="31"/>
+      <c r="G138" s="31"/>
+      <c r="H138" s="31"/>
+      <c r="I138" s="31"/>
+      <c r="J138" s="32"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="26"/>
-      <c r="B139" s="74" t="s">
+      <c r="A139" s="61"/>
+      <c r="B139" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C139" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D139" s="38"/>
-      <c r="E139" s="38"/>
-      <c r="F139" s="38"/>
-      <c r="G139" s="38"/>
-      <c r="H139" s="38"/>
-      <c r="I139" s="38"/>
-      <c r="J139" s="77"/>
+      <c r="J139" s="42"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="26"/>
-      <c r="B140" s="74"/>
+      <c r="A140" s="61"/>
+      <c r="B140" s="44"/>
       <c r="C140" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D140" s="38"/>
-      <c r="E140" s="38"/>
-      <c r="F140" s="38"/>
-      <c r="G140" s="38"/>
-      <c r="H140" s="38"/>
-      <c r="I140" s="38"/>
-      <c r="J140" s="39"/>
+      <c r="J140" s="29"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="26"/>
-      <c r="B141" s="74"/>
+      <c r="A141" s="61"/>
+      <c r="B141" s="44"/>
       <c r="C141" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D141" s="38"/>
-      <c r="E141" s="38"/>
-      <c r="F141" s="38"/>
-      <c r="G141" s="38"/>
-      <c r="H141" s="38"/>
-      <c r="I141" s="38"/>
-      <c r="J141" s="39"/>
+      <c r="J141" s="29"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="26"/>
-      <c r="B142" s="74"/>
+      <c r="A142" s="61"/>
+      <c r="B142" s="44"/>
       <c r="C142" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D142" s="38"/>
-      <c r="E142" s="38"/>
-      <c r="F142" s="38"/>
-      <c r="G142" s="38"/>
-      <c r="H142" s="38"/>
-      <c r="I142" s="38"/>
-      <c r="J142" s="39"/>
+      <c r="J142" s="29"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="26"/>
-      <c r="B143" s="74"/>
+      <c r="A143" s="61"/>
+      <c r="B143" s="44"/>
       <c r="C143" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D143" s="38"/>
-      <c r="E143" s="38"/>
-      <c r="F143" s="38"/>
-      <c r="G143" s="38"/>
-      <c r="H143" s="38"/>
-      <c r="I143" s="38"/>
-      <c r="J143" s="39"/>
+      <c r="J143" s="29"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="26"/>
-      <c r="B144" s="74"/>
+      <c r="A144" s="61"/>
+      <c r="B144" s="44"/>
       <c r="C144" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D144" s="38"/>
-      <c r="E144" s="38"/>
-      <c r="F144" s="38"/>
-      <c r="G144" s="38"/>
-      <c r="H144" s="38"/>
-      <c r="I144" s="38"/>
-      <c r="J144" s="39"/>
+      <c r="J144" s="29"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="26"/>
-      <c r="B145" s="74"/>
+      <c r="A145" s="61"/>
+      <c r="B145" s="44"/>
       <c r="C145" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D145" s="38"/>
-      <c r="E145" s="38"/>
-      <c r="F145" s="38"/>
-      <c r="G145" s="38"/>
-      <c r="H145" s="38"/>
-      <c r="I145" s="38"/>
-      <c r="J145" s="39"/>
+      <c r="J145" s="29"/>
     </row>
     <row r="146" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="26"/>
-      <c r="B146" s="74"/>
+      <c r="A146" s="61"/>
+      <c r="B146" s="44"/>
       <c r="C146" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D146" s="38"/>
-      <c r="E146" s="38"/>
-      <c r="F146" s="38"/>
-      <c r="G146" s="38"/>
-      <c r="H146" s="38"/>
-      <c r="I146" s="38"/>
-      <c r="J146" s="39"/>
+      <c r="J146" s="29"/>
     </row>
     <row r="147" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="26"/>
-      <c r="B147" s="75"/>
-      <c r="C147" s="76"/>
-      <c r="D147" s="42"/>
-      <c r="E147" s="42"/>
-      <c r="F147" s="42"/>
-      <c r="G147" s="42"/>
-      <c r="H147" s="42"/>
-      <c r="I147" s="42"/>
-      <c r="J147" s="43"/>
+      <c r="A147" s="61"/>
+      <c r="B147" s="45"/>
+      <c r="C147" s="41"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="31"/>
+      <c r="G147" s="31"/>
+      <c r="H147" s="31"/>
+      <c r="I147" s="31"/>
+      <c r="J147" s="32"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="26"/>
-      <c r="B148" s="62" t="s">
+      <c r="A148" s="61"/>
+      <c r="B148" s="48" t="s">
         <v>12</v>
       </c>
       <c r="C148" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D148" s="35"/>
-      <c r="E148" s="35"/>
-      <c r="F148" s="35"/>
-      <c r="G148" s="35"/>
-      <c r="H148" s="35"/>
-      <c r="I148" s="35"/>
-      <c r="J148" s="36"/>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="27"/>
+      <c r="H148" s="27"/>
+      <c r="I148" s="27"/>
+      <c r="J148" s="28"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="26"/>
-      <c r="B149" s="64"/>
+      <c r="A149" s="61"/>
+      <c r="B149" s="46"/>
       <c r="C149" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D149" s="38"/>
-      <c r="E149" s="38"/>
-      <c r="F149" s="38"/>
-      <c r="G149" s="38"/>
-      <c r="H149" s="38"/>
-      <c r="I149" s="38"/>
-      <c r="J149" s="39"/>
+      <c r="J149" s="29"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="26"/>
-      <c r="B150" s="64"/>
+      <c r="A150" s="61"/>
+      <c r="B150" s="46"/>
       <c r="C150" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D150" s="38"/>
-      <c r="E150" s="38"/>
-      <c r="F150" s="38"/>
-      <c r="G150" s="38"/>
-      <c r="H150" s="38"/>
-      <c r="I150" s="38"/>
-      <c r="J150" s="39"/>
+      <c r="J150" s="29"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="26"/>
-      <c r="B151" s="64"/>
+      <c r="A151" s="61"/>
+      <c r="B151" s="46"/>
       <c r="C151" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D151" s="38"/>
-      <c r="E151" s="38"/>
-      <c r="F151" s="38"/>
-      <c r="G151" s="38"/>
-      <c r="H151" s="38"/>
-      <c r="I151" s="38"/>
-      <c r="J151" s="39"/>
+      <c r="J151" s="29"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="26"/>
-      <c r="B152" s="64"/>
+      <c r="A152" s="61"/>
+      <c r="B152" s="46"/>
       <c r="C152" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D152" s="38"/>
-      <c r="E152" s="38"/>
-      <c r="F152" s="38"/>
-      <c r="G152" s="38"/>
-      <c r="H152" s="38"/>
-      <c r="I152" s="38"/>
-      <c r="J152" s="39"/>
+      <c r="J152" s="29"/>
     </row>
     <row r="153" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="26"/>
-      <c r="B153" s="64"/>
+      <c r="A153" s="61"/>
+      <c r="B153" s="46"/>
       <c r="C153" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D153" s="38"/>
-      <c r="E153" s="38"/>
-      <c r="F153" s="38"/>
-      <c r="G153" s="38"/>
-      <c r="H153" s="38"/>
-      <c r="I153" s="38"/>
-      <c r="J153" s="39"/>
+      <c r="J153" s="29"/>
     </row>
     <row r="154" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="26"/>
-      <c r="B154" s="65"/>
-      <c r="C154" s="66"/>
-      <c r="D154" s="42"/>
-      <c r="E154" s="42"/>
-      <c r="F154" s="42"/>
-      <c r="G154" s="42"/>
-      <c r="H154" s="42"/>
-      <c r="I154" s="42"/>
-      <c r="J154" s="43"/>
+      <c r="A154" s="61"/>
+      <c r="B154" s="47"/>
+      <c r="C154" s="39"/>
+      <c r="D154" s="31"/>
+      <c r="E154" s="31"/>
+      <c r="F154" s="31"/>
+      <c r="G154" s="31"/>
+      <c r="H154" s="31"/>
+      <c r="I154" s="31"/>
+      <c r="J154" s="32"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="26"/>
-      <c r="B155" s="81" t="s">
+      <c r="A155" s="61"/>
+      <c r="B155" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D155" s="35"/>
-      <c r="E155" s="35"/>
-      <c r="F155" s="35"/>
-      <c r="G155" s="35"/>
-      <c r="H155" s="35"/>
-      <c r="I155" s="35"/>
-      <c r="J155" s="36"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="27"/>
+      <c r="J155" s="28"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="26"/>
-      <c r="B156" s="74"/>
+      <c r="A156" s="61"/>
+      <c r="B156" s="44"/>
       <c r="C156" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D156" s="38"/>
-      <c r="E156" s="38"/>
-      <c r="F156" s="38"/>
-      <c r="G156" s="38"/>
-      <c r="H156" s="38"/>
-      <c r="I156" s="38"/>
-      <c r="J156" s="39"/>
+      <c r="J156" s="29"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="26"/>
-      <c r="B157" s="74"/>
+      <c r="A157" s="61"/>
+      <c r="B157" s="44"/>
       <c r="C157" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D157" s="38"/>
-      <c r="E157" s="38"/>
-      <c r="F157" s="38"/>
-      <c r="G157" s="38"/>
-      <c r="H157" s="38"/>
-      <c r="I157" s="38"/>
-      <c r="J157" s="39"/>
+      <c r="J157" s="29"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="26"/>
-      <c r="B158" s="74"/>
+      <c r="A158" s="61"/>
+      <c r="B158" s="44"/>
       <c r="C158" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D158" s="38"/>
-      <c r="E158" s="38"/>
-      <c r="F158" s="38"/>
-      <c r="G158" s="38"/>
-      <c r="H158" s="38"/>
-      <c r="I158" s="38"/>
-      <c r="J158" s="39"/>
+      <c r="J158" s="29"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="26"/>
-      <c r="B159" s="74"/>
+      <c r="A159" s="61"/>
+      <c r="B159" s="44"/>
       <c r="C159" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D159" s="38"/>
-      <c r="E159" s="38"/>
-      <c r="F159" s="38"/>
-      <c r="G159" s="38"/>
-      <c r="H159" s="38"/>
-      <c r="I159" s="38"/>
-      <c r="J159" s="39"/>
+      <c r="J159" s="29"/>
     </row>
     <row r="160" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="26"/>
-      <c r="B160" s="74"/>
+      <c r="A160" s="61"/>
+      <c r="B160" s="44"/>
       <c r="C160" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D160" s="38"/>
-      <c r="E160" s="38"/>
-      <c r="F160" s="38"/>
-      <c r="G160" s="38"/>
-      <c r="H160" s="38"/>
-      <c r="I160" s="38"/>
-      <c r="J160" s="39"/>
+      <c r="J160" s="29"/>
     </row>
     <row r="161" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="26"/>
-      <c r="B161" s="75"/>
-      <c r="C161" s="76"/>
-      <c r="D161" s="42"/>
-      <c r="E161" s="42"/>
-      <c r="F161" s="42"/>
-      <c r="G161" s="42"/>
-      <c r="H161" s="42"/>
-      <c r="I161" s="42"/>
-      <c r="J161" s="43"/>
+      <c r="A161" s="61"/>
+      <c r="B161" s="45"/>
+      <c r="C161" s="41"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="31"/>
+      <c r="H161" s="31"/>
+      <c r="I161" s="31"/>
+      <c r="J161" s="32"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="26"/>
-      <c r="B162" s="71" t="s">
+      <c r="A162" s="61"/>
+      <c r="B162" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C162" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D162" s="35"/>
-      <c r="E162" s="35"/>
-      <c r="F162" s="35"/>
-      <c r="G162" s="35"/>
-      <c r="H162" s="35"/>
-      <c r="I162" s="35"/>
-      <c r="J162" s="36"/>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="27"/>
+      <c r="G162" s="27"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="27"/>
+      <c r="J162" s="28"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="26"/>
-      <c r="B163" s="72"/>
+      <c r="A163" s="61"/>
+      <c r="B163" s="55"/>
       <c r="C163" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D163" s="38"/>
-      <c r="E163" s="38"/>
-      <c r="F163" s="38"/>
-      <c r="G163" s="38"/>
-      <c r="H163" s="38"/>
-      <c r="I163" s="38"/>
-      <c r="J163" s="39"/>
+      <c r="J163" s="29"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="26"/>
-      <c r="B164" s="72"/>
+      <c r="A164" s="61"/>
+      <c r="B164" s="55"/>
       <c r="C164" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D164" s="38"/>
-      <c r="E164" s="38"/>
-      <c r="F164" s="38"/>
-      <c r="G164" s="38"/>
-      <c r="H164" s="38"/>
-      <c r="I164" s="38"/>
-      <c r="J164" s="39"/>
+      <c r="J164" s="29"/>
     </row>
     <row r="165" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="26"/>
-      <c r="B165" s="78"/>
+      <c r="A165" s="61"/>
+      <c r="B165" s="56"/>
       <c r="C165" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D165" s="42"/>
-      <c r="E165" s="42"/>
-      <c r="F165" s="42"/>
-      <c r="G165" s="42"/>
-      <c r="H165" s="42"/>
-      <c r="I165" s="42"/>
-      <c r="J165" s="43"/>
+      <c r="D165" s="31"/>
+      <c r="E165" s="31"/>
+      <c r="F165" s="31"/>
+      <c r="G165" s="31"/>
+      <c r="H165" s="31"/>
+      <c r="I165" s="31"/>
+      <c r="J165" s="32"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="26"/>
-      <c r="B166" s="81" t="s">
+      <c r="A166" s="61"/>
+      <c r="B166" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C166" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D166" s="35"/>
-      <c r="E166" s="35"/>
-      <c r="F166" s="35"/>
-      <c r="G166" s="35"/>
-      <c r="H166" s="35"/>
-      <c r="I166" s="35"/>
-      <c r="J166" s="36"/>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="27"/>
+      <c r="G166" s="27"/>
+      <c r="H166" s="27"/>
+      <c r="I166" s="27"/>
+      <c r="J166" s="28"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="26"/>
-      <c r="B167" s="74"/>
+      <c r="A167" s="61"/>
+      <c r="B167" s="44"/>
       <c r="C167" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D167" s="38"/>
-      <c r="E167" s="38"/>
-      <c r="F167" s="38"/>
-      <c r="G167" s="38"/>
-      <c r="H167" s="38"/>
-      <c r="I167" s="38"/>
-      <c r="J167" s="39"/>
+      <c r="J167" s="29"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="26"/>
-      <c r="B168" s="74"/>
+      <c r="A168" s="61"/>
+      <c r="B168" s="44"/>
       <c r="C168" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D168" s="38"/>
-      <c r="E168" s="38"/>
-      <c r="F168" s="38"/>
-      <c r="G168" s="38"/>
-      <c r="H168" s="38"/>
-      <c r="I168" s="38"/>
-      <c r="J168" s="39"/>
+      <c r="J168" s="29"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="26"/>
-      <c r="B169" s="74"/>
+      <c r="A169" s="61"/>
+      <c r="B169" s="44"/>
       <c r="C169" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D169" s="38"/>
-      <c r="E169" s="38"/>
-      <c r="F169" s="38"/>
-      <c r="G169" s="38"/>
-      <c r="H169" s="38"/>
-      <c r="I169" s="38"/>
-      <c r="J169" s="39"/>
+      <c r="J169" s="29"/>
     </row>
     <row r="170" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="26"/>
-      <c r="B170" s="74"/>
+      <c r="A170" s="61"/>
+      <c r="B170" s="44"/>
       <c r="C170" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D170" s="38"/>
-      <c r="E170" s="38"/>
-      <c r="F170" s="38"/>
-      <c r="G170" s="38"/>
-      <c r="H170" s="38"/>
-      <c r="I170" s="38"/>
-      <c r="J170" s="39"/>
+      <c r="J170" s="29"/>
     </row>
     <row r="171" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="26"/>
-      <c r="B171" s="75"/>
-      <c r="C171" s="76"/>
-      <c r="D171" s="42"/>
-      <c r="E171" s="42"/>
-      <c r="F171" s="42"/>
-      <c r="G171" s="42"/>
-      <c r="H171" s="42"/>
-      <c r="I171" s="42"/>
-      <c r="J171" s="43"/>
+      <c r="A171" s="61"/>
+      <c r="B171" s="45"/>
+      <c r="C171" s="41"/>
+      <c r="D171" s="31"/>
+      <c r="E171" s="31"/>
+      <c r="F171" s="31"/>
+      <c r="G171" s="31"/>
+      <c r="H171" s="31"/>
+      <c r="I171" s="31"/>
+      <c r="J171" s="32"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="26"/>
-      <c r="B172" s="64" t="s">
+      <c r="A172" s="61"/>
+      <c r="B172" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C172" s="70" t="s">
+      <c r="C172" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="D172" s="38"/>
-      <c r="E172" s="38"/>
-      <c r="F172" s="38"/>
-      <c r="G172" s="38"/>
-      <c r="H172" s="38"/>
-      <c r="I172" s="38"/>
-      <c r="J172" s="77"/>
+      <c r="J172" s="42"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="26"/>
-      <c r="B173" s="64"/>
+      <c r="A173" s="61"/>
+      <c r="B173" s="46"/>
       <c r="C173" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D173" s="38"/>
-      <c r="E173" s="38"/>
-      <c r="F173" s="38"/>
-      <c r="G173" s="38"/>
-      <c r="H173" s="38"/>
-      <c r="I173" s="38"/>
-      <c r="J173" s="39"/>
+      <c r="J173" s="29"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="26"/>
-      <c r="B174" s="64"/>
+      <c r="A174" s="61"/>
+      <c r="B174" s="46"/>
       <c r="C174" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D174" s="38"/>
-      <c r="E174" s="38"/>
-      <c r="F174" s="38"/>
-      <c r="G174" s="38"/>
-      <c r="H174" s="38"/>
-      <c r="I174" s="38"/>
-      <c r="J174" s="39"/>
+      <c r="J174" s="29"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="26"/>
-      <c r="B175" s="64"/>
+      <c r="A175" s="61"/>
+      <c r="B175" s="46"/>
       <c r="C175" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D175" s="38"/>
-      <c r="E175" s="38"/>
-      <c r="F175" s="38"/>
-      <c r="G175" s="38"/>
-      <c r="H175" s="38"/>
-      <c r="I175" s="38"/>
-      <c r="J175" s="39"/>
+      <c r="J175" s="29"/>
     </row>
     <row r="176" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="26"/>
-      <c r="B176" s="64"/>
+      <c r="A176" s="61"/>
+      <c r="B176" s="46"/>
       <c r="C176" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D176" s="38"/>
-      <c r="E176" s="38"/>
-      <c r="F176" s="38"/>
-      <c r="G176" s="38"/>
-      <c r="H176" s="38"/>
-      <c r="I176" s="38"/>
-      <c r="J176" s="39"/>
+      <c r="J176" s="29"/>
     </row>
     <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="27"/>
-      <c r="B177" s="65"/>
-      <c r="C177" s="66"/>
-      <c r="D177" s="42"/>
-      <c r="E177" s="42"/>
-      <c r="F177" s="42"/>
-      <c r="G177" s="42"/>
-      <c r="H177" s="42"/>
-      <c r="I177" s="42"/>
-      <c r="J177" s="43"/>
+      <c r="A177" s="62"/>
+      <c r="B177" s="47"/>
+      <c r="C177" s="39"/>
+      <c r="D177" s="31"/>
+      <c r="E177" s="31"/>
+      <c r="F177" s="31"/>
+      <c r="G177" s="31"/>
+      <c r="H177" s="31"/>
+      <c r="I177" s="31"/>
+      <c r="J177" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B148:B154"/>
+    <mergeCell ref="B155:B161"/>
+    <mergeCell ref="B162:B165"/>
     <mergeCell ref="B166:B171"/>
     <mergeCell ref="B172:B177"/>
     <mergeCell ref="B71:B93"/>
@@ -4314,9 +3696,6 @@
     <mergeCell ref="B59:B63"/>
     <mergeCell ref="B64:B70"/>
     <mergeCell ref="B139:B147"/>
-    <mergeCell ref="B148:B154"/>
-    <mergeCell ref="B155:B161"/>
-    <mergeCell ref="B162:B165"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/mapeo de tablas .xlsx
+++ b/mapeo de tablas .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BS_Jairo\req\BS_41_nucleo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EDE136-78D6-4786-BFDF-A6FCAD745135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69732DB6-3519-477C-A20A-38DF78DC1568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-6795" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="232">
   <si>
     <t>ODS_REF_REFERIDO</t>
   </si>
@@ -690,12 +690,6 @@
     <t>A.CPRCSO</t>
   </si>
   <si>
-    <t>CORGSTRO</t>
-  </si>
-  <si>
-    <t>ARGSTRO</t>
-  </si>
-  <si>
     <t>A.FRCPCN</t>
   </si>
   <si>
@@ -709,13 +703,31 @@
   </si>
   <si>
     <t>VRCLMO</t>
+  </si>
+  <si>
+    <t>TVRCLMO</t>
+  </si>
+  <si>
+    <t>A.CORGSTRO</t>
+  </si>
+  <si>
+    <t>A.ARGSTRO</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>A.CVRCLMO</t>
+  </si>
+  <si>
+    <t>X.NPRCSO -----SASMT04 X   X.CPRCSO = A.CPRCSO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,6 +749,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2C363A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1328,7 +1347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1372,6 +1391,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1381,13 +1411,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1405,15 +1435,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1483,8 +1504,23 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1765,10 +1801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N177"/>
+  <dimension ref="A1:O177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J130" sqref="J130"/>
+    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,15 +1813,19 @@
     <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="85" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" t="s">
+    <row r="1" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="85" t="s">
         <v>124</v>
       </c>
       <c r="F1" t="s">
@@ -1797,15 +1837,15 @@
       <c r="J1" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="84" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1818,9 +1858,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="64"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="55"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1831,13 +1871,13 @@
       <c r="K3" t="s">
         <v>213</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="64"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="55"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1848,13 +1888,13 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="64"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="55"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="85" t="s">
         <v>132</v>
       </c>
       <c r="F5" t="s">
@@ -1864,9 +1904,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="64"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="55"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1877,9 +1917,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="64"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="55"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1890,9 +1930,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="64"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="55"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
@@ -1903,9 +1943,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="64"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="55"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1916,9 +1956,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="64"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="55"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1929,9 +1969,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="64"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="55"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1942,9 +1982,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="64"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="55"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1955,9 +1995,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="64"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="55"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1968,9 +2008,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="64"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="55"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1981,9 +2021,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="64"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="55"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1994,9 +2034,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="64"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="55"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2008,8 +2048,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2021,8 +2061,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="64"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
@@ -2034,8 +2074,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="64"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
@@ -2047,8 +2087,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="64"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="2" t="s">
         <v>35</v>
       </c>
@@ -2060,8 +2100,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="2" t="s">
         <v>36</v>
       </c>
@@ -2073,8 +2113,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="64"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
@@ -2086,8 +2126,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="64"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
@@ -2099,8 +2139,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="64"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="2" t="s">
         <v>39</v>
       </c>
@@ -2112,8 +2152,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="64"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
@@ -2125,8 +2165,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="64"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
@@ -2138,8 +2178,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="64"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
@@ -2151,29 +2191,29 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="64"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="3"/>
       <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="65" t="s">
+      <c r="A30" s="55"/>
+      <c r="B30" s="67" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+      <c r="E30" s="86"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
@@ -2181,20 +2221,20 @@
       <c r="J30" s="28"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="66"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="4" t="s">
         <v>44</v>
       </c>
       <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="66"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="85" t="s">
         <v>170</v>
       </c>
       <c r="F32" t="s">
@@ -2204,52 +2244,52 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="66"/>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="55"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J33" s="29"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="66"/>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="55"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
       <c r="J34" s="29"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="66"/>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="55"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="4" t="s">
         <v>43</v>
       </c>
       <c r="J35" s="29"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="50"/>
-      <c r="B36" s="67"/>
+    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="55"/>
+      <c r="B36" s="69"/>
       <c r="C36" s="30"/>
       <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="E36" s="87"/>
       <c r="F36" s="31"/>
       <c r="G36" s="31"/>
       <c r="H36" s="31"/>
       <c r="I36" s="31"/>
       <c r="J36" s="32"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="68" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="55"/>
+      <c r="B37" s="70" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="33" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="27"/>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="86" t="s">
         <v>131</v>
       </c>
       <c r="F37" s="27" t="s">
@@ -2260,13 +2300,13 @@
       <c r="I37" s="27"/>
       <c r="J37" s="28"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="69"/>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="55"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="85" t="s">
         <v>131</v>
       </c>
       <c r="F38" t="s">
@@ -2276,9 +2316,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="69"/>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="55"/>
+      <c r="B39" s="71"/>
       <c r="C39" s="5" t="s">
         <v>48</v>
       </c>
@@ -2289,9 +2329,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="69"/>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="55"/>
+      <c r="B40" s="71"/>
       <c r="C40" s="5" t="s">
         <v>45</v>
       </c>
@@ -2304,19 +2344,19 @@
       <c r="K40" t="s">
         <v>135</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>145</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>135</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="69"/>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="55"/>
+      <c r="B41" s="71"/>
       <c r="C41" s="5" t="s">
         <v>49</v>
       </c>
@@ -2327,17 +2367,17 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="B42" s="69"/>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="55"/>
+      <c r="B42" s="71"/>
       <c r="C42" s="5" t="s">
         <v>50</v>
       </c>
       <c r="J42" s="29"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="69"/>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="55"/>
+      <c r="B43" s="71"/>
       <c r="C43" s="5" t="s">
         <v>51</v>
       </c>
@@ -2348,9 +2388,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="69"/>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="55"/>
+      <c r="B44" s="71"/>
       <c r="C44" s="5" t="s">
         <v>52</v>
       </c>
@@ -2361,17 +2401,17 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="69"/>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="55"/>
+      <c r="B45" s="71"/>
       <c r="C45" s="5" t="s">
         <v>53</v>
       </c>
       <c r="J45" s="29"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="69"/>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="55"/>
+      <c r="B46" s="71"/>
       <c r="C46" s="5" t="s">
         <v>54</v>
       </c>
@@ -2382,38 +2422,38 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="69"/>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="55"/>
+      <c r="B47" s="71"/>
       <c r="C47" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J47" s="29"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="69"/>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="55"/>
+      <c r="B48" s="71"/>
       <c r="C48" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J48" s="29"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
-      <c r="B49" s="69"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="71"/>
       <c r="C49" s="5" t="s">
         <v>43</v>
       </c>
       <c r="J49" s="29"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="50"/>
-      <c r="B50" s="70"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="34" t="s">
         <v>55</v>
       </c>
       <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
+      <c r="E50" s="87"/>
       <c r="F50" s="31" t="s">
         <v>141</v>
       </c>
@@ -2425,15 +2465,15 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
-      <c r="B51" s="71" t="s">
+      <c r="A51" s="55"/>
+      <c r="B51" s="73" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
+      <c r="E51" s="86"/>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
@@ -2441,36 +2481,36 @@
       <c r="J51" s="28"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
-      <c r="B52" s="72"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="74"/>
       <c r="C52" s="7" t="s">
         <v>56</v>
       </c>
       <c r="J52" s="29"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
-      <c r="B53" s="72"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="74"/>
       <c r="C53" s="7" t="s">
         <v>57</v>
       </c>
       <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="50"/>
-      <c r="B54" s="72"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="74"/>
       <c r="C54" s="7" t="s">
         <v>58</v>
       </c>
       <c r="J54" s="29"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
-      <c r="B55" s="72"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="74"/>
       <c r="C55" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="85" t="s">
         <v>169</v>
       </c>
       <c r="F55" t="s">
@@ -2481,29 +2521,29 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
-      <c r="B56" s="72"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="74"/>
       <c r="C56" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J56" s="29"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
-      <c r="B57" s="72"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="74"/>
       <c r="C57" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J57" s="29"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="50"/>
-      <c r="B58" s="73"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="75"/>
       <c r="C58" s="36" t="s">
         <v>43</v>
       </c>
       <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
+      <c r="E58" s="87"/>
       <c r="F58" s="31"/>
       <c r="G58" s="31"/>
       <c r="H58" s="31"/>
@@ -2511,15 +2551,15 @@
       <c r="J58" s="32"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
-      <c r="B59" s="74" t="s">
+      <c r="A59" s="55"/>
+      <c r="B59" s="76" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="37" t="s">
         <v>24</v>
       </c>
       <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
+      <c r="E59" s="86"/>
       <c r="F59" s="27"/>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
@@ -2527,12 +2567,12 @@
       <c r="J59" s="28"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
-      <c r="B60" s="75"/>
+      <c r="A60" s="55"/>
+      <c r="B60" s="77"/>
       <c r="C60" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="85" t="s">
         <v>160</v>
       </c>
       <c r="F60" t="s">
@@ -2541,29 +2581,29 @@
       <c r="J60" s="29"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
-      <c r="B61" s="75"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="77"/>
       <c r="C61" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J61" s="29"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
-      <c r="B62" s="75"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="77"/>
       <c r="C62" s="8" t="s">
         <v>46</v>
       </c>
       <c r="J62" s="29"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="50"/>
-      <c r="B63" s="76"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="78"/>
       <c r="C63" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
+      <c r="E63" s="87"/>
       <c r="F63" s="31"/>
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
@@ -2571,36 +2611,36 @@
       <c r="J63" s="32"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="50"/>
-      <c r="B64" s="77" t="s">
+      <c r="A64" s="55"/>
+      <c r="B64" s="79" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
+      <c r="E64" s="86"/>
       <c r="F64" s="27"/>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
       <c r="J64" s="28"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
-      <c r="B65" s="78"/>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="55"/>
+      <c r="B65" s="80"/>
       <c r="C65" s="5" t="s">
         <v>59</v>
       </c>
       <c r="J65" s="29"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
-      <c r="B66" s="78"/>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="55"/>
+      <c r="B66" s="80"/>
       <c r="C66" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="85" t="s">
         <v>163</v>
       </c>
       <c r="F66" t="s">
@@ -2610,56 +2650,56 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
-      <c r="B67" s="78"/>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="55"/>
+      <c r="B67" s="80"/>
       <c r="C67" s="5" t="s">
         <v>60</v>
       </c>
       <c r="J67" s="29"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="50"/>
-      <c r="B68" s="78"/>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="55"/>
+      <c r="B68" s="80"/>
       <c r="C68" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J68" s="29"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
-      <c r="B69" s="78"/>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="55"/>
+      <c r="B69" s="80"/>
       <c r="C69" s="5" t="s">
         <v>46</v>
       </c>
       <c r="J69" s="29"/>
     </row>
-    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="50"/>
-      <c r="B70" s="79"/>
+    <row r="70" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="55"/>
+      <c r="B70" s="81"/>
       <c r="C70" s="34" t="s">
         <v>43</v>
       </c>
       <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
+      <c r="E70" s="87"/>
       <c r="F70" s="31"/>
       <c r="G70" s="31"/>
       <c r="H70" s="31"/>
       <c r="I70" s="31"/>
       <c r="J70" s="32"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="60" t="s">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="B71" s="48" t="s">
+      <c r="B71" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="80" t="s">
+      <c r="C71" s="43" t="s">
         <v>215</v>
       </c>
       <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
+      <c r="E71" s="86"/>
       <c r="F71" s="27" t="s">
         <v>216</v>
       </c>
@@ -2669,12 +2709,15 @@
       <c r="J71" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="M71" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="63"/>
       <c r="B72" s="46"/>
       <c r="C72" s="9" t="s">
         <v>61</v>
@@ -2685,65 +2728,82 @@
       <c r="J72" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="K72" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="M72" s="82" t="s">
+        <v>227</v>
+      </c>
+      <c r="N72" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="O72" s="82"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="63"/>
       <c r="B73" s="46"/>
       <c r="C73" s="9" t="s">
         <v>62</v>
       </c>
       <c r="F73" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J73" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="K73" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
+      <c r="K73">
+        <v>5</v>
+      </c>
+      <c r="M73" s="82" t="s">
+        <v>228</v>
+      </c>
+      <c r="N73" s="83"/>
+      <c r="O73" s="82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="63"/>
       <c r="B74" s="46"/>
       <c r="C74" s="9" t="s">
         <v>63</v>
       </c>
       <c r="F74" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J74" s="29" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
+        <v>223</v>
+      </c>
+      <c r="K74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="63"/>
       <c r="B75" s="46"/>
       <c r="C75" s="9" t="s">
         <v>64</v>
       </c>
       <c r="J75" s="29"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="63"/>
       <c r="B76" s="46"/>
       <c r="C76" s="9" t="s">
         <v>65</v>
       </c>
       <c r="J76" s="29"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="63"/>
       <c r="B77" s="46"/>
       <c r="C77" s="9" t="s">
         <v>66</v>
       </c>
       <c r="J77" s="29"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="63"/>
       <c r="B78" s="46"/>
       <c r="C78" s="9" t="s">
         <v>67</v>
@@ -2754,17 +2814,21 @@
       <c r="J78" s="29" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
+      <c r="K78" s="82">
+        <v>4</v>
+      </c>
+      <c r="L78" s="82"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="63"/>
       <c r="B79" s="46"/>
       <c r="C79" s="9" t="s">
         <v>68</v>
       </c>
       <c r="J79" s="29"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="63"/>
       <c r="B80" s="46"/>
       <c r="C80" s="9" t="s">
         <v>69</v>
@@ -2772,7 +2836,7 @@
       <c r="J80" s="29"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
+      <c r="A81" s="63"/>
       <c r="B81" s="46"/>
       <c r="C81" s="9" t="s">
         <v>70</v>
@@ -2780,7 +2844,7 @@
       <c r="J81" s="29"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="61"/>
+      <c r="A82" s="63"/>
       <c r="B82" s="46"/>
       <c r="C82" s="9" t="s">
         <v>71</v>
@@ -2788,7 +2852,7 @@
       <c r="J82" s="29"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
+      <c r="A83" s="63"/>
       <c r="B83" s="46"/>
       <c r="C83" s="9" t="s">
         <v>72</v>
@@ -2796,7 +2860,7 @@
       <c r="J83" s="29"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
+      <c r="A84" s="63"/>
       <c r="B84" s="46"/>
       <c r="C84" s="9" t="s">
         <v>73</v>
@@ -2804,7 +2868,7 @@
       <c r="J84" s="29"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
+      <c r="A85" s="63"/>
       <c r="B85" s="46"/>
       <c r="C85" s="9" t="s">
         <v>74</v>
@@ -2812,7 +2876,7 @@
       <c r="J85" s="29"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
+      <c r="A86" s="63"/>
       <c r="B86" s="46"/>
       <c r="C86" s="9" t="s">
         <v>75</v>
@@ -2820,7 +2884,7 @@
       <c r="J86" s="29"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
+      <c r="A87" s="63"/>
       <c r="B87" s="46"/>
       <c r="C87" s="9" t="s">
         <v>76</v>
@@ -2828,7 +2892,7 @@
       <c r="J87" s="29"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
+      <c r="A88" s="63"/>
       <c r="B88" s="46"/>
       <c r="C88" s="9" t="s">
         <v>77</v>
@@ -2836,7 +2900,7 @@
       <c r="J88" s="29"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
+      <c r="A89" s="63"/>
       <c r="B89" s="46"/>
       <c r="C89" s="9" t="s">
         <v>78</v>
@@ -2844,7 +2908,7 @@
       <c r="J89" s="29"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="61"/>
+      <c r="A90" s="63"/>
       <c r="B90" s="46"/>
       <c r="C90" s="9" t="s">
         <v>79</v>
@@ -2852,7 +2916,7 @@
       <c r="J90" s="29"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="61"/>
+      <c r="A91" s="63"/>
       <c r="B91" s="46"/>
       <c r="C91" s="10" t="s">
         <v>43</v>
@@ -2860,7 +2924,7 @@
       <c r="J91" s="29"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
+      <c r="A92" s="63"/>
       <c r="B92" s="46"/>
       <c r="C92" s="11" t="s">
         <v>80</v>
@@ -2868,11 +2932,11 @@
       <c r="J92" s="29"/>
     </row>
     <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="61"/>
+      <c r="A93" s="63"/>
       <c r="B93" s="47"/>
       <c r="C93" s="39"/>
       <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
+      <c r="E93" s="87"/>
       <c r="F93" s="31"/>
       <c r="G93" s="31"/>
       <c r="H93" s="31"/>
@@ -2880,251 +2944,251 @@
       <c r="J93" s="32"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
-      <c r="B94" s="51" t="s">
+      <c r="A94" s="63"/>
+      <c r="B94" s="56" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="81"/>
+      <c r="E94" s="86"/>
+      <c r="F94" s="44"/>
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
       <c r="J94" s="28"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
-      <c r="B95" s="52"/>
+      <c r="A95" s="63"/>
+      <c r="B95" s="57"/>
       <c r="C95" s="13" t="s">
         <v>67</v>
       </c>
       <c r="J95" s="29"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="61"/>
-      <c r="B96" s="52"/>
+      <c r="A96" s="63"/>
+      <c r="B96" s="57"/>
       <c r="C96" s="13" t="s">
         <v>65</v>
       </c>
       <c r="J96" s="29"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
-      <c r="B97" s="52"/>
+      <c r="A97" s="63"/>
+      <c r="B97" s="57"/>
       <c r="C97" s="13" t="s">
         <v>81</v>
       </c>
       <c r="J97" s="29"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="61"/>
-      <c r="B98" s="52"/>
+      <c r="A98" s="63"/>
+      <c r="B98" s="57"/>
       <c r="C98" s="13" t="s">
         <v>82</v>
       </c>
       <c r="J98" s="29"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
-      <c r="B99" s="52"/>
+      <c r="A99" s="63"/>
+      <c r="B99" s="57"/>
       <c r="C99" s="13" t="s">
         <v>83</v>
       </c>
       <c r="J99" s="29"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
-      <c r="B100" s="52"/>
+      <c r="A100" s="63"/>
+      <c r="B100" s="57"/>
       <c r="C100" s="13" t="s">
         <v>84</v>
       </c>
       <c r="J100" s="29"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
-      <c r="B101" s="52"/>
+      <c r="A101" s="63"/>
+      <c r="B101" s="57"/>
       <c r="C101" s="13" t="s">
         <v>85</v>
       </c>
       <c r="J101" s="29"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
-      <c r="B102" s="52"/>
+      <c r="A102" s="63"/>
+      <c r="B102" s="57"/>
       <c r="C102" s="13" t="s">
         <v>86</v>
       </c>
       <c r="J102" s="29"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="61"/>
-      <c r="B103" s="52"/>
+      <c r="A103" s="63"/>
+      <c r="B103" s="57"/>
       <c r="C103" s="13" t="s">
         <v>87</v>
       </c>
       <c r="J103" s="29"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="61"/>
-      <c r="B104" s="52"/>
+      <c r="A104" s="63"/>
+      <c r="B104" s="57"/>
       <c r="C104" s="13" t="s">
         <v>88</v>
       </c>
       <c r="J104" s="29"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="61"/>
-      <c r="B105" s="52"/>
+      <c r="A105" s="63"/>
+      <c r="B105" s="57"/>
       <c r="C105" s="13" t="s">
         <v>89</v>
       </c>
       <c r="J105" s="29"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="61"/>
-      <c r="B106" s="52"/>
+      <c r="A106" s="63"/>
+      <c r="B106" s="57"/>
       <c r="C106" s="13" t="s">
         <v>90</v>
       </c>
       <c r="J106" s="29"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="61"/>
-      <c r="B107" s="52"/>
+      <c r="A107" s="63"/>
+      <c r="B107" s="57"/>
       <c r="C107" s="13" t="s">
         <v>91</v>
       </c>
       <c r="J107" s="29"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="61"/>
-      <c r="B108" s="52"/>
+      <c r="A108" s="63"/>
+      <c r="B108" s="57"/>
       <c r="C108" s="13" t="s">
         <v>92</v>
       </c>
       <c r="J108" s="29"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="61"/>
-      <c r="B109" s="52"/>
+      <c r="A109" s="63"/>
+      <c r="B109" s="57"/>
       <c r="C109" s="13" t="s">
         <v>93</v>
       </c>
       <c r="J109" s="29"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="61"/>
-      <c r="B110" s="52"/>
+      <c r="A110" s="63"/>
+      <c r="B110" s="57"/>
       <c r="C110" s="13" t="s">
         <v>94</v>
       </c>
       <c r="J110" s="29"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="61"/>
-      <c r="B111" s="52"/>
+      <c r="A111" s="63"/>
+      <c r="B111" s="57"/>
       <c r="C111" s="13" t="s">
         <v>95</v>
       </c>
       <c r="J111" s="29"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="61"/>
-      <c r="B112" s="52"/>
+      <c r="A112" s="63"/>
+      <c r="B112" s="57"/>
       <c r="C112" s="13" t="s">
         <v>96</v>
       </c>
       <c r="J112" s="29"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="61"/>
-      <c r="B113" s="52"/>
+      <c r="A113" s="63"/>
+      <c r="B113" s="57"/>
       <c r="C113" s="13" t="s">
         <v>97</v>
       </c>
       <c r="J113" s="29"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="61"/>
-      <c r="B114" s="52"/>
+      <c r="A114" s="63"/>
+      <c r="B114" s="57"/>
       <c r="C114" s="13" t="s">
         <v>98</v>
       </c>
       <c r="J114" s="29"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="61"/>
-      <c r="B115" s="52"/>
+      <c r="A115" s="63"/>
+      <c r="B115" s="57"/>
       <c r="C115" s="13" t="s">
         <v>99</v>
       </c>
       <c r="J115" s="29"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="61"/>
-      <c r="B116" s="52"/>
+      <c r="A116" s="63"/>
+      <c r="B116" s="57"/>
       <c r="C116" s="13" t="s">
         <v>100</v>
       </c>
       <c r="J116" s="29"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="61"/>
-      <c r="B117" s="52"/>
+      <c r="A117" s="63"/>
+      <c r="B117" s="57"/>
       <c r="C117" s="13" t="s">
         <v>101</v>
       </c>
       <c r="J117" s="29"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="61"/>
-      <c r="B118" s="52"/>
-      <c r="C118" s="13" t="s">
-        <v>90</v>
+      <c r="A118" s="63"/>
+      <c r="B118" s="57"/>
+      <c r="C118" s="88" t="s">
+        <v>110</v>
       </c>
       <c r="J118" s="29"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="61"/>
-      <c r="B119" s="52"/>
+      <c r="A119" s="63"/>
+      <c r="B119" s="57"/>
       <c r="C119" s="13" t="s">
         <v>102</v>
       </c>
       <c r="J119" s="29"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="61"/>
-      <c r="B120" s="52"/>
+      <c r="A120" s="63"/>
+      <c r="B120" s="57"/>
       <c r="C120" s="13" t="s">
         <v>103</v>
       </c>
       <c r="J120" s="29"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="61"/>
-      <c r="B121" s="52"/>
+      <c r="A121" s="63"/>
+      <c r="B121" s="57"/>
       <c r="C121" s="13" t="s">
         <v>104</v>
       </c>
       <c r="J121" s="29"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="61"/>
-      <c r="B122" s="52"/>
+      <c r="A122" s="63"/>
+      <c r="B122" s="57"/>
       <c r="C122" s="13" t="s">
         <v>43</v>
       </c>
       <c r="J122" s="29"/>
     </row>
     <row r="123" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="61"/>
-      <c r="B123" s="53"/>
+      <c r="A123" s="63"/>
+      <c r="B123" s="58"/>
       <c r="C123" s="19"/>
       <c r="D123" s="31"/>
-      <c r="E123" s="31"/>
+      <c r="E123" s="87"/>
       <c r="F123" s="31"/>
       <c r="G123" s="31"/>
       <c r="H123" s="31"/>
@@ -3132,15 +3196,15 @@
       <c r="J123" s="32"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="61"/>
-      <c r="B124" s="54" t="s">
+      <c r="A124" s="63"/>
+      <c r="B124" s="51" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
+      <c r="E124" s="86"/>
       <c r="F124" s="27"/>
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
@@ -3148,162 +3212,180 @@
       <c r="J124" s="28"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="61"/>
-      <c r="B125" s="55"/>
+      <c r="A125" s="63"/>
+      <c r="B125" s="52"/>
       <c r="C125" s="15" t="s">
         <v>105</v>
       </c>
       <c r="J125" s="29"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="61"/>
-      <c r="B126" s="55"/>
+      <c r="A126" s="63"/>
+      <c r="B126" s="52"/>
       <c r="C126" s="15" t="s">
         <v>102</v>
       </c>
       <c r="J126" s="29"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="61"/>
-      <c r="B127" s="55"/>
+      <c r="A127" s="63"/>
+      <c r="B127" s="52"/>
       <c r="C127" s="15" t="s">
         <v>103</v>
       </c>
       <c r="J127" s="29"/>
     </row>
     <row r="128" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="61"/>
-      <c r="B128" s="56"/>
+      <c r="A128" s="63"/>
+      <c r="B128" s="53"/>
       <c r="C128" s="16" t="s">
         <v>43</v>
       </c>
       <c r="D128" s="31"/>
-      <c r="E128" s="31"/>
+      <c r="E128" s="87"/>
       <c r="F128" s="31"/>
       <c r="G128" s="31"/>
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
       <c r="J128" s="32"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="61"/>
-      <c r="B129" s="57" t="s">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129" s="63"/>
+      <c r="B129" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C129" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D129" s="27"/>
-      <c r="E129" s="27"/>
+      <c r="E129" s="86"/>
       <c r="F129" s="27"/>
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
       <c r="J129" s="28"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="61"/>
-      <c r="B130" s="58"/>
+      <c r="M129" t="s">
+        <v>231</v>
+      </c>
+      <c r="N129" t="s">
+        <v>226</v>
+      </c>
+      <c r="O129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130" s="63"/>
+      <c r="B130" s="60"/>
       <c r="C130" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="85" t="s">
         <v>214</v>
       </c>
       <c r="F130" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="G130" t="s">
+        <v>229</v>
+      </c>
+      <c r="H130" t="s">
+        <v>230</v>
       </c>
       <c r="J130" s="29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="61"/>
-      <c r="B131" s="58"/>
+        <v>225</v>
+      </c>
+      <c r="K130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131" s="63"/>
+      <c r="B131" s="60"/>
       <c r="C131" s="13" t="s">
         <v>102</v>
       </c>
       <c r="J131" s="29"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="61"/>
-      <c r="B132" s="58"/>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132" s="63"/>
+      <c r="B132" s="60"/>
       <c r="C132" s="13" t="s">
         <v>103</v>
       </c>
       <c r="J132" s="29"/>
     </row>
-    <row r="133" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="61"/>
-      <c r="B133" s="59"/>
+    <row r="133" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="63"/>
+      <c r="B133" s="61"/>
       <c r="C133" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D133" s="31"/>
-      <c r="E133" s="31"/>
+      <c r="E133" s="87"/>
       <c r="F133" s="31"/>
       <c r="G133" s="31"/>
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
       <c r="J133" s="32"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="61"/>
-      <c r="B134" s="54" t="s">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" s="63"/>
+      <c r="B134" s="51" t="s">
         <v>10</v>
       </c>
       <c r="C134" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
+      <c r="E134" s="86"/>
       <c r="F134" s="27"/>
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
       <c r="J134" s="28"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="61"/>
-      <c r="B135" s="55"/>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A135" s="63"/>
+      <c r="B135" s="52"/>
       <c r="C135" s="17" t="s">
         <v>107</v>
       </c>
       <c r="J135" s="29"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="61"/>
-      <c r="B136" s="55"/>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A136" s="63"/>
+      <c r="B136" s="52"/>
       <c r="C136" s="17" t="s">
         <v>108</v>
       </c>
       <c r="J136" s="29"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="61"/>
-      <c r="B137" s="55"/>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A137" s="63"/>
+      <c r="B137" s="52"/>
       <c r="C137" s="17" t="s">
         <v>103</v>
       </c>
       <c r="J137" s="29"/>
     </row>
-    <row r="138" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="61"/>
-      <c r="B138" s="56"/>
+    <row r="138" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="63"/>
+      <c r="B138" s="53"/>
       <c r="C138" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D138" s="31"/>
-      <c r="E138" s="31"/>
+      <c r="E138" s="87"/>
       <c r="F138" s="31"/>
       <c r="G138" s="31"/>
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
       <c r="J138" s="32"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="61"/>
-      <c r="B139" s="44" t="s">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A139" s="63"/>
+      <c r="B139" s="49" t="s">
         <v>11</v>
       </c>
       <c r="C139" s="21" t="s">
@@ -3311,68 +3393,68 @@
       </c>
       <c r="J139" s="42"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="61"/>
-      <c r="B140" s="44"/>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A140" s="63"/>
+      <c r="B140" s="49"/>
       <c r="C140" s="13" t="s">
         <v>110</v>
       </c>
       <c r="J140" s="29"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="61"/>
-      <c r="B141" s="44"/>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A141" s="63"/>
+      <c r="B141" s="49"/>
       <c r="C141" s="13" t="s">
         <v>74</v>
       </c>
       <c r="J141" s="29"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="61"/>
-      <c r="B142" s="44"/>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142" s="63"/>
+      <c r="B142" s="49"/>
       <c r="C142" s="13" t="s">
         <v>111</v>
       </c>
       <c r="J142" s="29"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="61"/>
-      <c r="B143" s="44"/>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A143" s="63"/>
+      <c r="B143" s="49"/>
       <c r="C143" s="13" t="s">
         <v>112</v>
       </c>
       <c r="J143" s="29"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="61"/>
-      <c r="B144" s="44"/>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A144" s="63"/>
+      <c r="B144" s="49"/>
       <c r="C144" s="13" t="s">
         <v>113</v>
       </c>
       <c r="J144" s="29"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="61"/>
-      <c r="B145" s="44"/>
+      <c r="A145" s="63"/>
+      <c r="B145" s="49"/>
       <c r="C145" s="13" t="s">
         <v>103</v>
       </c>
       <c r="J145" s="29"/>
     </row>
     <row r="146" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="61"/>
-      <c r="B146" s="44"/>
+      <c r="A146" s="63"/>
+      <c r="B146" s="49"/>
       <c r="C146" s="19" t="s">
         <v>43</v>
       </c>
       <c r="J146" s="29"/>
     </row>
     <row r="147" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="61"/>
-      <c r="B147" s="45"/>
+      <c r="A147" s="63"/>
+      <c r="B147" s="50"/>
       <c r="C147" s="41"/>
       <c r="D147" s="31"/>
-      <c r="E147" s="31"/>
+      <c r="E147" s="87"/>
       <c r="F147" s="31"/>
       <c r="G147" s="31"/>
       <c r="H147" s="31"/>
@@ -3380,15 +3462,15 @@
       <c r="J147" s="32"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="61"/>
-      <c r="B148" s="48" t="s">
+      <c r="A148" s="63"/>
+      <c r="B148" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C148" s="20" t="s">
         <v>109</v>
       </c>
       <c r="D148" s="27"/>
-      <c r="E148" s="27"/>
+      <c r="E148" s="86"/>
       <c r="F148" s="27"/>
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
@@ -3396,7 +3478,7 @@
       <c r="J148" s="28"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="61"/>
+      <c r="A149" s="63"/>
       <c r="B149" s="46"/>
       <c r="C149" s="17" t="s">
         <v>110</v>
@@ -3404,7 +3486,7 @@
       <c r="J149" s="29"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="61"/>
+      <c r="A150" s="63"/>
       <c r="B150" s="46"/>
       <c r="C150" s="15" t="s">
         <v>72</v>
@@ -3412,7 +3494,7 @@
       <c r="J150" s="29"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="61"/>
+      <c r="A151" s="63"/>
       <c r="B151" s="46"/>
       <c r="C151" s="15" t="s">
         <v>114</v>
@@ -3420,7 +3502,7 @@
       <c r="J151" s="29"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="61"/>
+      <c r="A152" s="63"/>
       <c r="B152" s="46"/>
       <c r="C152" s="17" t="s">
         <v>103</v>
@@ -3428,7 +3510,7 @@
       <c r="J152" s="29"/>
     </row>
     <row r="153" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="61"/>
+      <c r="A153" s="63"/>
       <c r="B153" s="46"/>
       <c r="C153" s="18" t="s">
         <v>43</v>
@@ -3436,11 +3518,11 @@
       <c r="J153" s="29"/>
     </row>
     <row r="154" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="61"/>
+      <c r="A154" s="63"/>
       <c r="B154" s="47"/>
       <c r="C154" s="39"/>
       <c r="D154" s="31"/>
-      <c r="E154" s="31"/>
+      <c r="E154" s="87"/>
       <c r="F154" s="31"/>
       <c r="G154" s="31"/>
       <c r="H154" s="31"/>
@@ -3448,15 +3530,15 @@
       <c r="J154" s="32"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="61"/>
-      <c r="B155" s="43" t="s">
+      <c r="A155" s="63"/>
+      <c r="B155" s="48" t="s">
         <v>13</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>109</v>
       </c>
       <c r="D155" s="27"/>
-      <c r="E155" s="27"/>
+      <c r="E155" s="86"/>
       <c r="F155" s="27"/>
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
@@ -3464,51 +3546,51 @@
       <c r="J155" s="28"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="61"/>
-      <c r="B156" s="44"/>
+      <c r="A156" s="63"/>
+      <c r="B156" s="49"/>
       <c r="C156" s="22" t="s">
         <v>70</v>
       </c>
       <c r="J156" s="29"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="61"/>
-      <c r="B157" s="44"/>
+      <c r="A157" s="63"/>
+      <c r="B157" s="49"/>
       <c r="C157" s="22" t="s">
         <v>115</v>
       </c>
       <c r="J157" s="29"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="61"/>
-      <c r="B158" s="44"/>
+      <c r="A158" s="63"/>
+      <c r="B158" s="49"/>
       <c r="C158" s="22" t="s">
         <v>116</v>
       </c>
       <c r="J158" s="29"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="61"/>
-      <c r="B159" s="44"/>
+      <c r="A159" s="63"/>
+      <c r="B159" s="49"/>
       <c r="C159" s="13" t="s">
         <v>103</v>
       </c>
       <c r="J159" s="29"/>
     </row>
     <row r="160" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="61"/>
-      <c r="B160" s="44"/>
+      <c r="A160" s="63"/>
+      <c r="B160" s="49"/>
       <c r="C160" s="19" t="s">
         <v>43</v>
       </c>
       <c r="J160" s="29"/>
     </row>
     <row r="161" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="61"/>
-      <c r="B161" s="45"/>
+      <c r="A161" s="63"/>
+      <c r="B161" s="50"/>
       <c r="C161" s="41"/>
       <c r="D161" s="31"/>
-      <c r="E161" s="31"/>
+      <c r="E161" s="87"/>
       <c r="F161" s="31"/>
       <c r="G161" s="31"/>
       <c r="H161" s="31"/>
@@ -3516,15 +3598,15 @@
       <c r="J161" s="32"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="61"/>
-      <c r="B162" s="54" t="s">
+      <c r="A162" s="63"/>
+      <c r="B162" s="51" t="s">
         <v>14</v>
       </c>
       <c r="C162" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D162" s="27"/>
-      <c r="E162" s="27"/>
+      <c r="E162" s="86"/>
       <c r="F162" s="27"/>
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
@@ -3532,29 +3614,29 @@
       <c r="J162" s="28"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="61"/>
-      <c r="B163" s="55"/>
+      <c r="A163" s="63"/>
+      <c r="B163" s="52"/>
       <c r="C163" s="15" t="s">
         <v>117</v>
       </c>
       <c r="J163" s="29"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="61"/>
-      <c r="B164" s="55"/>
+      <c r="A164" s="63"/>
+      <c r="B164" s="52"/>
       <c r="C164" s="17" t="s">
         <v>103</v>
       </c>
       <c r="J164" s="29"/>
     </row>
     <row r="165" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="61"/>
-      <c r="B165" s="56"/>
+      <c r="A165" s="63"/>
+      <c r="B165" s="53"/>
       <c r="C165" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D165" s="31"/>
-      <c r="E165" s="31"/>
+      <c r="E165" s="87"/>
       <c r="F165" s="31"/>
       <c r="G165" s="31"/>
       <c r="H165" s="31"/>
@@ -3562,15 +3644,15 @@
       <c r="J165" s="32"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="61"/>
-      <c r="B166" s="43" t="s">
+      <c r="A166" s="63"/>
+      <c r="B166" s="48" t="s">
         <v>15</v>
       </c>
       <c r="C166" s="12" t="s">
         <v>110</v>
       </c>
       <c r="D166" s="27"/>
-      <c r="E166" s="27"/>
+      <c r="E166" s="86"/>
       <c r="F166" s="27"/>
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
@@ -3578,43 +3660,43 @@
       <c r="J166" s="28"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="61"/>
-      <c r="B167" s="44"/>
+      <c r="A167" s="63"/>
+      <c r="B167" s="49"/>
       <c r="C167" s="13" t="s">
         <v>90</v>
       </c>
       <c r="J167" s="29"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="61"/>
-      <c r="B168" s="44"/>
+      <c r="A168" s="63"/>
+      <c r="B168" s="49"/>
       <c r="C168" s="13" t="s">
         <v>118</v>
       </c>
       <c r="J168" s="29"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="61"/>
-      <c r="B169" s="44"/>
+      <c r="A169" s="63"/>
+      <c r="B169" s="49"/>
       <c r="C169" s="13" t="s">
         <v>103</v>
       </c>
       <c r="J169" s="29"/>
     </row>
     <row r="170" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="61"/>
-      <c r="B170" s="44"/>
+      <c r="A170" s="63"/>
+      <c r="B170" s="49"/>
       <c r="C170" s="19" t="s">
         <v>43</v>
       </c>
       <c r="J170" s="29"/>
     </row>
     <row r="171" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="61"/>
-      <c r="B171" s="45"/>
+      <c r="A171" s="63"/>
+      <c r="B171" s="50"/>
       <c r="C171" s="41"/>
       <c r="D171" s="31"/>
-      <c r="E171" s="31"/>
+      <c r="E171" s="87"/>
       <c r="F171" s="31"/>
       <c r="G171" s="31"/>
       <c r="H171" s="31"/>
@@ -3622,7 +3704,7 @@
       <c r="J171" s="32"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="61"/>
+      <c r="A172" s="63"/>
       <c r="B172" s="46" t="s">
         <v>16</v>
       </c>
@@ -3632,7 +3714,7 @@
       <c r="J172" s="42"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="61"/>
+      <c r="A173" s="63"/>
       <c r="B173" s="46"/>
       <c r="C173" s="17" t="s">
         <v>120</v>
@@ -3640,7 +3722,7 @@
       <c r="J173" s="29"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="61"/>
+      <c r="A174" s="63"/>
       <c r="B174" s="46"/>
       <c r="C174" s="17" t="s">
         <v>121</v>
@@ -3648,7 +3730,7 @@
       <c r="J174" s="29"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="61"/>
+      <c r="A175" s="63"/>
       <c r="B175" s="46"/>
       <c r="C175" s="17" t="s">
         <v>103</v>
@@ -3656,7 +3738,7 @@
       <c r="J175" s="29"/>
     </row>
     <row r="176" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="61"/>
+      <c r="A176" s="63"/>
       <c r="B176" s="46"/>
       <c r="C176" s="18" t="s">
         <v>43</v>
@@ -3664,11 +3746,11 @@
       <c r="J176" s="29"/>
     </row>
     <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="62"/>
+      <c r="A177" s="64"/>
       <c r="B177" s="47"/>
       <c r="C177" s="39"/>
       <c r="D177" s="31"/>
-      <c r="E177" s="31"/>
+      <c r="E177" s="87"/>
       <c r="F177" s="31"/>
       <c r="G177" s="31"/>
       <c r="H177" s="31"/>
@@ -3676,17 +3758,8 @@
       <c r="J177" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B148:B154"/>
-    <mergeCell ref="B155:B161"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="B166:B171"/>
-    <mergeCell ref="B172:B177"/>
-    <mergeCell ref="B71:B93"/>
-    <mergeCell ref="A2:A70"/>
-    <mergeCell ref="B94:B123"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="B129:B133"/>
+  <mergeCells count="20">
+    <mergeCell ref="N72:N73"/>
     <mergeCell ref="B134:B138"/>
     <mergeCell ref="A71:A177"/>
     <mergeCell ref="B2:B29"/>
@@ -3696,6 +3769,16 @@
     <mergeCell ref="B59:B63"/>
     <mergeCell ref="B64:B70"/>
     <mergeCell ref="B139:B147"/>
+    <mergeCell ref="B71:B93"/>
+    <mergeCell ref="A2:A70"/>
+    <mergeCell ref="B94:B123"/>
+    <mergeCell ref="B124:B128"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="B148:B154"/>
+    <mergeCell ref="B155:B161"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="B166:B171"/>
+    <mergeCell ref="B172:B177"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/mapeo de tablas .xlsx
+++ b/mapeo de tablas .xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BS_Jairo\req\BS_41_nucleo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69732DB6-3519-477C-A20A-38DF78DC1568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83918992-7447-4EFF-B452-33C35278B12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-6795" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="317">
   <si>
     <t>ODS_REF_REFERIDO</t>
   </si>
@@ -669,9 +677,6 @@
     <t xml:space="preserve">'202204' </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>CCRGSTRO</t>
   </si>
   <si>
@@ -720,14 +725,315 @@
     <t>A.CVRCLMO</t>
   </si>
   <si>
-    <t>X.NPRCSO -----SASMT04 X   X.CPRCSO = A.CPRCSO</t>
+    <t>C.TDCMNTO</t>
+  </si>
+  <si>
+    <t>WEBRECLAMOS.SASSL03 C</t>
+  </si>
+  <si>
+    <t>TDCMNTOCNTTE</t>
+  </si>
+  <si>
+    <t>C.NDCMNTO</t>
+  </si>
+  <si>
+    <t>NDCMNTOCNTTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT RG.TXT_RANGO_SEG
+                               FROM TRON2000.MP_SEG_COM_RANGOS RG
+                              WHERE RG.COD_RANGO_SEG = C.SCMRCL)
+                                </t>
+  </si>
+  <si>
+    <t>SCCMRCL</t>
+  </si>
+  <si>
+    <t>C.NPLZA</t>
+  </si>
+  <si>
+    <t>C.NSNSTRO</t>
+  </si>
+  <si>
+    <t>X.NREMPRSA</t>
+  </si>
+  <si>
+    <t>WEBRECLAMOS.SASMT22 X</t>
+  </si>
+  <si>
+    <t>REMPRSA</t>
+  </si>
+  <si>
+    <t>X.NTUSRO</t>
+  </si>
+  <si>
+    <t>WEBRECLAMOS.SASMT24 X</t>
+  </si>
+  <si>
+    <t>TUSRO</t>
+  </si>
+  <si>
+    <t>TDCMNTORMNTE</t>
+  </si>
+  <si>
+    <t>B.TDCMNTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.NDCMNTO </t>
+  </si>
+  <si>
+    <t>NDCMNTORMNTE</t>
+  </si>
+  <si>
+    <t>B.RSCL</t>
+  </si>
+  <si>
+    <t>NMBRERMTE</t>
+  </si>
+  <si>
+    <t>B.PNMBRE</t>
+  </si>
+  <si>
+    <t>B.APTRNO</t>
+  </si>
+  <si>
+    <t>B.AMTRNO</t>
+  </si>
+  <si>
+    <t>B.CPRNTSCO</t>
+  </si>
+  <si>
+    <t>PRNTSCORMNTE</t>
+  </si>
+  <si>
+    <t>B.DPRNTSCO</t>
+  </si>
+  <si>
+    <t>WEBRECLAMOS.sasmt30</t>
+  </si>
+  <si>
+    <t>B.DRCCN</t>
+  </si>
+  <si>
+    <t>SELECT X.NOM_ESTADO
+                               FROM TRON2000.A1000104 X
+                              WHERE X.COD_PAIS = 'PE'
+                                    AND X.COD_ESTADO = B.CDPRTMNTO</t>
+  </si>
+  <si>
+    <t>DPRTMNTO</t>
+  </si>
+  <si>
+    <t>SELECT X.NOM_prov
+                               FROM TRON2000.A1000100 X
+                              WHERE     X.COD_PAIS = 'PE'
+                                    AND X.COD_ESTADO = B.CDPRTMNTO
+                                    AND x.cod_prov = B.CPRVNCA</t>
+  </si>
+  <si>
+    <t>PRVNCA</t>
+  </si>
+  <si>
+    <t>(SELECT x.NOM_LOCALIDAD
+                               FROM TRON2000.A1000102 x
+                              WHERE     x.COD_PAIS = 'PE'
+                                    AND x.COD_PROV = B.CPRVNCA
+                                    AND x.COD_LOCALIDAD = B.CDSTRTO)</t>
+  </si>
+  <si>
+    <t>DSTRTO</t>
+  </si>
+  <si>
+    <t>B.TLFNO</t>
+  </si>
+  <si>
+    <t>TLFNORMNTE</t>
+  </si>
+  <si>
+    <t>B.CLLR</t>
+  </si>
+  <si>
+    <t>CLLRRMNTE</t>
+  </si>
+  <si>
+    <t>B.CELCTRNCO</t>
+  </si>
+  <si>
+    <t>CELCTRNCORMNTE</t>
+  </si>
+  <si>
+    <t>SELECT SUBSTR (X.NOFCNA, 1, 100)
+                               FROM WEBRECLAMOS.SASMT10 X
+                              WHERE X.COFCNA = A.CORGNRDRA)</t>
+  </si>
+  <si>
+    <t>ORGNRDRA</t>
+  </si>
+  <si>
+    <t>(SELECT SUBSTR (X.NARA, 1, 50)
+                               FROM WEBRECLAMOS.SASMT09 X
+                              WHERE     X.CCMPNA = A.CCRGNRDRA
+                                    AND X.CPRCSO = A.CPRCSO
+                                    AND X.CARA = A.CARA
+                                    AND X.COFCNA = A.CORGNRDRA)</t>
+  </si>
+  <si>
+    <t>ARGNRDRA</t>
+  </si>
+  <si>
+    <t>A.CPRDCTO</t>
+  </si>
+  <si>
+    <t>A.DPRDCTO</t>
+  </si>
+  <si>
+    <t>PRDCTO</t>
+  </si>
+  <si>
+    <t>WEBRECLAMOS.SASMT16 P</t>
+  </si>
+  <si>
+    <t>WEBRECLAMOS.SASMT15 X</t>
+  </si>
+  <si>
+    <t>WEBRECLAMOS.SASMT14 X</t>
+  </si>
+  <si>
+    <t>WEBRECLAMOS.SASMT09 X</t>
+  </si>
+  <si>
+    <t>WEBRECLAMOS.SASMT07 X</t>
+  </si>
+  <si>
+    <t>WEBRECLAMOS.SASMT04 X</t>
+  </si>
+  <si>
+    <t>P.CPRDCTO</t>
+  </si>
+  <si>
+    <t>(SELECT SUBSTR (NPRDCTO, 1, 100)
+                                     FROM WEBRECLAMOS.SASMT16 P
+                                    WHERE A.CPRDCTO = P.CPRDCTO
+                                          AND ROWNUM = 1)</t>
+  </si>
+  <si>
+    <t>A.CSRVCO</t>
+  </si>
+  <si>
+    <t>A.DSRVCO</t>
+  </si>
+  <si>
+    <t>SRVCO</t>
+  </si>
+  <si>
+    <t>X.CSRVCO</t>
+  </si>
+  <si>
+    <t>SELECT SUBSTR (X.NSRVCO, 1, 100)
+                                     FROM WEBRECLAMOS.SASMT15 X
+                                    WHERE A.CSRVCO = X.CSRVCO AND ROWNUM = 1</t>
+  </si>
+  <si>
+    <t>X.NMTVO</t>
+  </si>
+  <si>
+    <t>(SELECT X.NMTVO
+                               FROM WEBRECLAMOS.SASMT14 X
+                              WHERE     X.CMTVO = A.CMTVO
+                                    AND X.CCMPNA = A.CCRGNRDRA
+                                    AND ROWNUM = 1)</t>
+  </si>
+  <si>
+    <t>MTVO</t>
+  </si>
+  <si>
+    <t>A.CMTVO</t>
+  </si>
+  <si>
+    <t>DECODE (A.CMTVO,
+                                    999, WEBRECLAMOS.
+                                         f_DescripcionMotivo (A.CMTVO,
+                                                              A.DMTVO,
+                                                              A.CCRGNRDRA,
+                                                              B.CREMPRSA,
+                                                              'TXT'),
+                                    '')</t>
+  </si>
+  <si>
+    <t>A.ROCRRNCA</t>
+  </si>
+  <si>
+    <t>DBMS_LOB.SUBSTR(REGEXP_REPLACE(A.ROCRRNCA, '[^0-9A-Za-z ,.Â°:()/-]', ' '),3900,1)  AS</t>
+  </si>
+  <si>
+    <t>A.CESLCTD</t>
+  </si>
+  <si>
+    <t>ESLCTD</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT UPPER (SUBSTR (X.VDTVRA, 1, 50))
+                               FROM WEBRECLAMOS.SASMT30 X
+                                    AND X.CDTVRA = A.CESLCTD
+                                    AND ROWNUM = 1)
+                              WHERE     X.CTVRA = 8</t>
+  </si>
+  <si>
+    <t>X.VDTVRA</t>
+  </si>
+  <si>
+    <t>WEBRECLAMOS.SASMT30 X</t>
+  </si>
+  <si>
+    <t>A.FRSPSTA</t>
+  </si>
+  <si>
+    <t>A.SRSLTDO</t>
+  </si>
+  <si>
+    <t>ORGSTRO</t>
+  </si>
+  <si>
+    <t>(SELECT SUBSTR (X.NOFCNA, 1, 100)
+                               FROM WEBRECLAMOS.SASMT10 X
+                              WHERE X.COFCNA = A.CORGSTRO)</t>
+  </si>
+  <si>
+    <t>A.RGSTN</t>
+  </si>
+  <si>
+    <t>NEJCTVO</t>
+  </si>
+  <si>
+    <t>A.CSPRCSO</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>A.CGSTN</t>
+  </si>
+  <si>
+    <t>B.CTCNSMDR</t>
+  </si>
+  <si>
+    <t>sasmt30</t>
+  </si>
+  <si>
+    <t>SASMT30</t>
+  </si>
+  <si>
+    <t>WEBRECLAMOS.SASSL00   A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,8 +1066,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -822,8 +1136,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1343,11 +1663,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1393,23 +1735,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1418,30 +1759,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1504,23 +1821,55 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1801,10 +2150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O177"/>
+  <dimension ref="A1:P188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,7 +2162,7 @@
     <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="85" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" style="47" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="1.85546875" customWidth="1"/>
@@ -1822,10 +2171,11 @@
     <col min="12" max="12" width="3.7109375" customWidth="1"/>
     <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="47" t="s">
         <v>124</v>
       </c>
       <c r="F1" t="s">
@@ -1837,15 +2187,15 @@
       <c r="J1" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="46" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1859,8 +2209,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="66"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1876,8 +2226,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="66"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1889,12 +2239,12 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="66"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="47" t="s">
         <v>132</v>
       </c>
       <c r="F5" t="s">
@@ -1905,8 +2255,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1918,8 +2268,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1931,8 +2281,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
@@ -1944,8 +2294,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1957,8 +2307,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1970,8 +2320,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1983,8 +2333,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1996,8 +2346,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
@@ -2009,8 +2359,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
@@ -2022,8 +2372,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
@@ -2035,8 +2385,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2048,8 +2398,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2061,8 +2411,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="66"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
@@ -2074,8 +2424,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="66"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
@@ -2087,8 +2437,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="66"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="2" t="s">
         <v>35</v>
       </c>
@@ -2100,8 +2450,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="66"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="2" t="s">
         <v>36</v>
       </c>
@@ -2113,8 +2463,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
-      <c r="B22" s="66"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
@@ -2126,8 +2476,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="66"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
@@ -2139,8 +2489,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="66"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="2" t="s">
         <v>39</v>
       </c>
@@ -2152,8 +2502,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="66"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
@@ -2165,8 +2515,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="66"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
@@ -2178,8 +2528,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="66"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
@@ -2191,29 +2541,29 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="66"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
-      <c r="B29" s="66"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="3"/>
       <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
-      <c r="B30" s="67" t="s">
+      <c r="A30" s="81"/>
+      <c r="B30" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="27"/>
-      <c r="E30" s="86"/>
+      <c r="E30" s="48"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
@@ -2221,20 +2571,20 @@
       <c r="J30" s="28"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="68"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="61"/>
       <c r="C31" s="4" t="s">
         <v>44</v>
       </c>
       <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
-      <c r="B32" s="68"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="85" t="s">
+      <c r="E32" s="47" t="s">
         <v>170</v>
       </c>
       <c r="F32" t="s">
@@ -2245,35 +2595,35 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
-      <c r="B33" s="68"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="61"/>
       <c r="C33" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="68"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
       <c r="J34" s="29"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="68"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="61"/>
       <c r="C35" s="4" t="s">
         <v>43</v>
       </c>
       <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="55"/>
-      <c r="B36" s="69"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="30"/>
       <c r="D36" s="31"/>
-      <c r="E36" s="87"/>
+      <c r="E36" s="49"/>
       <c r="F36" s="31"/>
       <c r="G36" s="31"/>
       <c r="H36" s="31"/>
@@ -2281,15 +2631,15 @@
       <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="70" t="s">
+      <c r="A37" s="81"/>
+      <c r="B37" s="63" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="33" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="27"/>
-      <c r="E37" s="86" t="s">
+      <c r="E37" s="48" t="s">
         <v>131</v>
       </c>
       <c r="F37" s="27" t="s">
@@ -2301,12 +2651,12 @@
       <c r="J37" s="28"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="71"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="85" t="s">
+      <c r="E38" s="47" t="s">
         <v>131</v>
       </c>
       <c r="F38" t="s">
@@ -2317,8 +2667,8 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
-      <c r="B39" s="71"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="5" t="s">
         <v>48</v>
       </c>
@@ -2330,8 +2680,8 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="71"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="5" t="s">
         <v>45</v>
       </c>
@@ -2355,8 +2705,8 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="B41" s="71"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="5" t="s">
         <v>49</v>
       </c>
@@ -2368,16 +2718,16 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
-      <c r="B42" s="71"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="5" t="s">
         <v>50</v>
       </c>
       <c r="J42" s="29"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
-      <c r="B43" s="71"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="5" t="s">
         <v>51</v>
       </c>
@@ -2389,8 +2739,8 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="71"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="5" t="s">
         <v>52</v>
       </c>
@@ -2402,16 +2752,16 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
-      <c r="B45" s="71"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="5" t="s">
         <v>53</v>
       </c>
       <c r="J45" s="29"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
-      <c r="B46" s="71"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="64"/>
       <c r="C46" s="5" t="s">
         <v>54</v>
       </c>
@@ -2423,37 +2773,37 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
-      <c r="B47" s="71"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J47" s="29"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
-      <c r="B48" s="71"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="64"/>
       <c r="C48" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J48" s="29"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
-      <c r="B49" s="71"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="64"/>
       <c r="C49" s="5" t="s">
         <v>43</v>
       </c>
       <c r="J49" s="29"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="55"/>
-      <c r="B50" s="72"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="34" t="s">
         <v>55</v>
       </c>
       <c r="D50" s="31"/>
-      <c r="E50" s="87"/>
+      <c r="E50" s="49"/>
       <c r="F50" s="31" t="s">
         <v>141</v>
       </c>
@@ -2465,15 +2815,15 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-      <c r="B51" s="73" t="s">
+      <c r="A51" s="81"/>
+      <c r="B51" s="66" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="27"/>
-      <c r="E51" s="86"/>
+      <c r="E51" s="48"/>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
@@ -2481,36 +2831,36 @@
       <c r="J51" s="28"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="74"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="67"/>
       <c r="C52" s="7" t="s">
         <v>56</v>
       </c>
       <c r="J52" s="29"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="B53" s="74"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="67"/>
       <c r="C53" s="7" t="s">
         <v>57</v>
       </c>
       <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="74"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="67"/>
       <c r="C54" s="7" t="s">
         <v>58</v>
       </c>
       <c r="J54" s="29"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="74"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="67"/>
       <c r="C55" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E55" s="85" t="s">
+      <c r="E55" s="47" t="s">
         <v>169</v>
       </c>
       <c r="F55" t="s">
@@ -2521,29 +2871,29 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="74"/>
+      <c r="A56" s="81"/>
+      <c r="B56" s="67"/>
       <c r="C56" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J56" s="29"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-      <c r="B57" s="74"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="67"/>
       <c r="C57" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J57" s="29"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="55"/>
-      <c r="B58" s="75"/>
+      <c r="A58" s="81"/>
+      <c r="B58" s="68"/>
       <c r="C58" s="36" t="s">
         <v>43</v>
       </c>
       <c r="D58" s="31"/>
-      <c r="E58" s="87"/>
+      <c r="E58" s="49"/>
       <c r="F58" s="31"/>
       <c r="G58" s="31"/>
       <c r="H58" s="31"/>
@@ -2551,28 +2901,28 @@
       <c r="J58" s="32"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
-      <c r="B59" s="76" t="s">
+      <c r="A59" s="81"/>
+      <c r="B59" s="69" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="37" t="s">
         <v>24</v>
       </c>
       <c r="D59" s="27"/>
-      <c r="E59" s="86"/>
+      <c r="E59" s="48"/>
       <c r="F59" s="27"/>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
       <c r="J59" s="28"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
-      <c r="B60" s="77"/>
+    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="81"/>
+      <c r="B60" s="70"/>
       <c r="C60" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E60" s="85" t="s">
+      <c r="E60" s="47" t="s">
         <v>160</v>
       </c>
       <c r="F60" t="s">
@@ -2581,29 +2931,29 @@
       <c r="J60" s="29"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
-      <c r="B61" s="77"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="70"/>
       <c r="C61" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J61" s="29"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
-      <c r="B62" s="77"/>
+      <c r="A62" s="81"/>
+      <c r="B62" s="70"/>
       <c r="C62" s="8" t="s">
         <v>46</v>
       </c>
       <c r="J62" s="29"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="55"/>
-      <c r="B63" s="78"/>
+      <c r="A63" s="81"/>
+      <c r="B63" s="71"/>
       <c r="C63" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D63" s="31"/>
-      <c r="E63" s="87"/>
+      <c r="E63" s="49"/>
       <c r="F63" s="31"/>
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
@@ -2611,15 +2961,15 @@
       <c r="J63" s="32"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
-      <c r="B64" s="79" t="s">
+      <c r="A64" s="81"/>
+      <c r="B64" s="72" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="27"/>
-      <c r="E64" s="86"/>
+      <c r="E64" s="48"/>
       <c r="F64" s="27"/>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
@@ -2627,20 +2977,20 @@
       <c r="J64" s="28"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
-      <c r="B65" s="80"/>
+      <c r="A65" s="81"/>
+      <c r="B65" s="73"/>
       <c r="C65" s="5" t="s">
         <v>59</v>
       </c>
       <c r="J65" s="29"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
-      <c r="B66" s="80"/>
+      <c r="A66" s="81"/>
+      <c r="B66" s="73"/>
       <c r="C66" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E66" s="85" t="s">
+      <c r="E66" s="47" t="s">
         <v>163</v>
       </c>
       <c r="F66" t="s">
@@ -2651,37 +3001,37 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
-      <c r="B67" s="80"/>
+      <c r="A67" s="81"/>
+      <c r="B67" s="73"/>
       <c r="C67" s="5" t="s">
         <v>60</v>
       </c>
       <c r="J67" s="29"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
-      <c r="B68" s="80"/>
+      <c r="A68" s="81"/>
+      <c r="B68" s="73"/>
       <c r="C68" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J68" s="29"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
-      <c r="B69" s="80"/>
+      <c r="A69" s="81"/>
+      <c r="B69" s="73"/>
       <c r="C69" s="5" t="s">
         <v>46</v>
       </c>
       <c r="J69" s="29"/>
     </row>
     <row r="70" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="55"/>
-      <c r="B70" s="81"/>
+      <c r="A70" s="81"/>
+      <c r="B70" s="74"/>
       <c r="C70" s="34" t="s">
         <v>43</v>
       </c>
       <c r="D70" s="31"/>
-      <c r="E70" s="87"/>
+      <c r="E70" s="49"/>
       <c r="F70" s="31"/>
       <c r="G70" s="31"/>
       <c r="H70" s="31"/>
@@ -2689,41 +3039,41 @@
       <c r="J70" s="32"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="62" t="s">
+      <c r="A71" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="77" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" s="27"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="27" t="s">
         <v>215</v>
-      </c>
-      <c r="D71" s="27"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="27" t="s">
-        <v>216</v>
       </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
       <c r="J71" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K71">
         <v>2</v>
       </c>
       <c r="M71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="63"/>
-      <c r="B72" s="46"/>
+      <c r="A72" s="56"/>
+      <c r="B72" s="78"/>
       <c r="C72" s="9" t="s">
         <v>61</v>
       </c>
       <c r="F72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J72" s="29" t="s">
         <v>61</v>
@@ -2731,22 +3081,22 @@
       <c r="K72">
         <v>3</v>
       </c>
-      <c r="M72" s="82" t="s">
-        <v>227</v>
-      </c>
-      <c r="N72" s="83" t="s">
-        <v>215</v>
-      </c>
-      <c r="O72" s="82"/>
+      <c r="M72" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="N72" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="O72" s="45"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="63"/>
-      <c r="B73" s="46"/>
+      <c r="A73" s="56"/>
+      <c r="B73" s="78"/>
       <c r="C73" s="9" t="s">
         <v>62</v>
       </c>
       <c r="F73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J73" s="29" t="s">
         <v>62</v>
@@ -2754,1031 +3104,1495 @@
       <c r="K73">
         <v>5</v>
       </c>
-      <c r="M73" s="82" t="s">
-        <v>228</v>
-      </c>
-      <c r="N73" s="83"/>
-      <c r="O73" s="82">
+      <c r="M73" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="N73" s="51"/>
+      <c r="O73" s="45">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="63"/>
-      <c r="B74" s="46"/>
+      <c r="A74" s="56"/>
+      <c r="B74" s="78"/>
       <c r="C74" s="9" t="s">
         <v>63</v>
       </c>
       <c r="F74" t="s">
+        <v>221</v>
+      </c>
+      <c r="J74" s="29" t="s">
         <v>222</v>
-      </c>
-      <c r="J74" s="29" t="s">
-        <v>223</v>
       </c>
       <c r="K74">
         <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="63"/>
-      <c r="B75" s="46"/>
+      <c r="A75" s="56"/>
+      <c r="B75" s="78"/>
       <c r="C75" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J75" s="29"/>
+      <c r="F75" t="s">
+        <v>229</v>
+      </c>
+      <c r="J75" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="M75" t="s">
+        <v>307</v>
+      </c>
+      <c r="N75" t="s">
+        <v>308</v>
+      </c>
+      <c r="O75">
+        <v>38</v>
+      </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="63"/>
-      <c r="B76" s="46"/>
+      <c r="A76" s="56"/>
+      <c r="B76" s="78"/>
       <c r="C76" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J76" s="29"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="63"/>
-      <c r="B77" s="46"/>
+      <c r="F76" t="s">
+        <v>309</v>
+      </c>
+      <c r="J76" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="K76" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A77" s="56"/>
+      <c r="B77" s="78"/>
       <c r="C77" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J77" s="29"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="63"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="9" t="s">
+      <c r="E77" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="F77" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="J77" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="K77">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="255" x14ac:dyDescent="0.25">
+      <c r="A78" s="56"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="9"/>
+      <c r="F78" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="J78" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="K78">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="56"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F78" t="s">
-        <v>220</v>
-      </c>
-      <c r="J78" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="K78" s="82">
+      <c r="F79" t="s">
+        <v>219</v>
+      </c>
+      <c r="J79" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="K79" s="45">
         <v>4</v>
       </c>
-      <c r="L78" s="82"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="63"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="9" t="s">
+      <c r="L79" s="45"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="56"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J79" s="29"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="63"/>
-      <c r="B80" s="46"/>
-      <c r="C80" s="9" t="s">
+      <c r="J80" s="29"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="56"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J80" s="29"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="63"/>
-      <c r="B81" s="46"/>
-      <c r="C81" s="9" t="s">
+      <c r="J81" s="29"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="56"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="J81" s="29"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="63"/>
-      <c r="B82" s="46"/>
-      <c r="C82" s="9" t="s">
+      <c r="F82" t="s">
+        <v>275</v>
+      </c>
+      <c r="J82" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="K82">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="56"/>
+      <c r="B83" s="78"/>
+      <c r="C83" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J82" s="29"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="63"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="9" t="s">
+      <c r="F83" t="s">
+        <v>276</v>
+      </c>
+      <c r="J83" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="K83">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="56"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J83" s="29"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="63"/>
-      <c r="B84" s="46"/>
-      <c r="C84" s="9" t="s">
+      <c r="F84" t="s">
+        <v>286</v>
+      </c>
+      <c r="J84" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="K84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="56"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J84" s="29"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="63"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="9" t="s">
+      <c r="F85" t="s">
+        <v>287</v>
+      </c>
+      <c r="J85" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="K85">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+      <c r="A86" s="56"/>
+      <c r="B86" s="78"/>
+      <c r="C86" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J85" s="29"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="63"/>
-      <c r="B86" s="46"/>
-      <c r="C86" s="9" t="s">
+      <c r="F86" t="s">
+        <v>294</v>
+      </c>
+      <c r="J86" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="J86" s="29"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="63"/>
-      <c r="B87" s="46"/>
+      <c r="K86">
+        <v>32</v>
+      </c>
+      <c r="M86" s="47" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="56"/>
+      <c r="B87" s="78"/>
       <c r="C87" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J87" s="29"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="56"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="J87" s="29"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="63"/>
-      <c r="B88" s="46"/>
-      <c r="C88" s="9" t="s">
+      <c r="F88" t="s">
+        <v>296</v>
+      </c>
+      <c r="J88" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="K88">
+        <v>33</v>
+      </c>
+      <c r="M88" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="56"/>
+      <c r="B89" s="78"/>
+      <c r="C89" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J88" s="29"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="63"/>
-      <c r="B89" s="46"/>
-      <c r="C89" s="9" t="s">
+      <c r="F89" t="s">
+        <v>298</v>
+      </c>
+      <c r="J89" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K89">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="56"/>
+      <c r="B90" s="78"/>
+      <c r="C90" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J89" s="29"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="63"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="9" t="s">
+      <c r="F90" t="s">
+        <v>303</v>
+      </c>
+      <c r="J90" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="K90">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="56"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J90" s="29"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="63"/>
-      <c r="B91" s="46"/>
-      <c r="C91" s="10" t="s">
+      <c r="F91" t="s">
+        <v>304</v>
+      </c>
+      <c r="J91" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="K91">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="56"/>
+      <c r="B92" s="78"/>
+      <c r="C92" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J91" s="29"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="63"/>
-      <c r="B92" s="46"/>
-      <c r="C92" s="11" t="s">
+      <c r="J92" s="29"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="56"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="J92" s="29"/>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="63"/>
-      <c r="B93" s="47"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="87"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="31"/>
-      <c r="J93" s="32"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="63"/>
-      <c r="B94" s="56" t="s">
+      <c r="J93" s="29"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="56"/>
+      <c r="B94" s="78"/>
+      <c r="C94" s="93"/>
+      <c r="J94" s="94"/>
+      <c r="K94" t="s">
+        <v>311</v>
+      </c>
+      <c r="M94" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="56"/>
+      <c r="B95" s="78"/>
+      <c r="C95" s="93"/>
+      <c r="J95" s="94"/>
+    </row>
+    <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="56"/>
+      <c r="B96" s="79"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="49"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="56"/>
+      <c r="B97" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C97" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D94" s="27"/>
-      <c r="E94" s="86"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="28"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="63"/>
-      <c r="B95" s="57"/>
-      <c r="C95" s="13" t="s">
+      <c r="D97" s="27"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="28"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="56"/>
+      <c r="B98" s="83"/>
+      <c r="C98" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J95" s="29"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="63"/>
-      <c r="B96" s="57"/>
-      <c r="C96" s="13" t="s">
+      <c r="J98" s="29"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="56"/>
+      <c r="B99" s="83"/>
+      <c r="C99" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J96" s="29"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="63"/>
-      <c r="B97" s="57"/>
-      <c r="C97" s="13" t="s">
+      <c r="J99" s="29"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="56"/>
+      <c r="B100" s="83"/>
+      <c r="C100" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="J97" s="29"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="63"/>
-      <c r="B98" s="57"/>
-      <c r="C98" s="13" t="s">
+      <c r="F100" t="s">
+        <v>313</v>
+      </c>
+      <c r="J100" s="29"/>
+      <c r="K100" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="56"/>
+      <c r="B101" s="83"/>
+      <c r="C101" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="J98" s="29"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="63"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="13" t="s">
+      <c r="E101" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="F101" t="s">
+        <v>230</v>
+      </c>
+      <c r="J101" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="K101">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="56"/>
+      <c r="B102" s="83"/>
+      <c r="C102" s="89"/>
+      <c r="F102" t="s">
+        <v>246</v>
+      </c>
+      <c r="J102" s="90" t="s">
+        <v>250</v>
+      </c>
+      <c r="K102" s="91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="56"/>
+      <c r="B103" s="83"/>
+      <c r="F103" t="s">
+        <v>246</v>
+      </c>
+      <c r="J103" t="s">
+        <v>245</v>
+      </c>
+      <c r="K103">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="56"/>
+      <c r="B104" s="83"/>
+      <c r="C104" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="J99" s="29"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="63"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="13" t="s">
+      <c r="F104" t="s">
+        <v>233</v>
+      </c>
+      <c r="J104" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="K104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" s="56"/>
+      <c r="B105" s="83"/>
+      <c r="C105" s="13"/>
+      <c r="F105" t="s">
+        <v>247</v>
+      </c>
+      <c r="J105" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K105">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" s="56"/>
+      <c r="B106" s="83"/>
+      <c r="C106" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J100" s="29"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="63"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="13" t="s">
+      <c r="F106" t="s">
+        <v>251</v>
+      </c>
+      <c r="J106" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K106" s="91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" s="56"/>
+      <c r="B107" s="83"/>
+      <c r="C107" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="J101" s="29"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="63"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="13" t="s">
+      <c r="J107" s="29"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" s="56"/>
+      <c r="B108" s="83"/>
+      <c r="C108" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J102" s="29"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="63"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="13" t="s">
+      <c r="F108" t="s">
+        <v>252</v>
+      </c>
+      <c r="J108" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K108" s="91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" s="56"/>
+      <c r="B109" s="83"/>
+      <c r="C109" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J103" s="29"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="63"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="13" t="s">
+      <c r="F109" t="s">
+        <v>253</v>
+      </c>
+      <c r="J109" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K109" s="91">
+        <v>18</v>
+      </c>
+      <c r="O109" t="str">
+        <f>UPPER(O113)</f>
+        <v>SASMT30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" s="56"/>
+      <c r="B110" s="83"/>
+      <c r="C110" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J104" s="29"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="63"/>
-      <c r="B105" s="57"/>
-      <c r="C105" s="13" t="s">
+      <c r="F110" t="s">
+        <v>249</v>
+      </c>
+      <c r="J110" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K110" s="91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" s="56"/>
+      <c r="B111" s="83"/>
+      <c r="C111" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="J105" s="29"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="63"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="13" t="s">
+      <c r="F111" t="s">
+        <v>238</v>
+      </c>
+      <c r="J111" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="K111">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" s="56"/>
+      <c r="B112" s="83"/>
+      <c r="C112" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J106" s="29"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="63"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="13" t="s">
+      <c r="J112" s="29"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" s="56"/>
+      <c r="B113" s="83"/>
+      <c r="C113" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="J107" s="29"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="63"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="13" t="s">
+      <c r="F113" t="s">
+        <v>254</v>
+      </c>
+      <c r="J113" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="K113" s="92">
+        <v>19</v>
+      </c>
+      <c r="O113" t="s">
+        <v>314</v>
+      </c>
+      <c r="P113" t="b">
+        <f>EXACT(O109,O114)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" s="56"/>
+      <c r="B114" s="83"/>
+      <c r="C114" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J108" s="29"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="63"/>
-      <c r="B109" s="57"/>
-      <c r="C109" s="13" t="s">
+      <c r="F114" t="s">
+        <v>256</v>
+      </c>
+      <c r="J114" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="K114" s="92">
+        <v>19</v>
+      </c>
+      <c r="O114" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" s="56"/>
+      <c r="B115" s="83"/>
+      <c r="C115" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J109" s="29"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="63"/>
-      <c r="B110" s="57"/>
-      <c r="C110" s="13" t="s">
+      <c r="F115" t="s">
+        <v>258</v>
+      </c>
+      <c r="J115" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="K115">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="150" x14ac:dyDescent="0.25">
+      <c r="A116" s="56"/>
+      <c r="B116" s="83"/>
+      <c r="C116" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="J110" s="29"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="63"/>
-      <c r="B111" s="57"/>
-      <c r="C111" s="13" t="s">
+      <c r="F116" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="J116" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="K116">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="A117" s="56"/>
+      <c r="B117" s="83"/>
+      <c r="C117" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="J111" s="29"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="63"/>
-      <c r="B112" s="57"/>
-      <c r="C112" s="13" t="s">
+      <c r="F117" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="J117" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="K117">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+      <c r="A118" s="56"/>
+      <c r="B118" s="83"/>
+      <c r="C118" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J112" s="29"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="63"/>
-      <c r="B113" s="57"/>
-      <c r="C113" s="13" t="s">
+      <c r="F118" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="J118" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="K118">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" s="56"/>
+      <c r="B119" s="83"/>
+      <c r="C119" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J113" s="29"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="63"/>
-      <c r="B114" s="57"/>
-      <c r="C114" s="13" t="s">
+      <c r="F119" t="s">
+        <v>265</v>
+      </c>
+      <c r="J119" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="K119">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" s="56"/>
+      <c r="B120" s="83"/>
+      <c r="C120" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="J114" s="29"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="63"/>
-      <c r="B115" s="57"/>
-      <c r="C115" s="13" t="s">
+      <c r="F120" t="s">
+        <v>267</v>
+      </c>
+      <c r="J120" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="K120">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" s="56"/>
+      <c r="B121" s="83"/>
+      <c r="C121" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="J115" s="29"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="63"/>
-      <c r="B116" s="57"/>
-      <c r="C116" s="13" t="s">
+      <c r="F121" t="s">
+        <v>269</v>
+      </c>
+      <c r="J121" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K121">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A122" s="56"/>
+      <c r="B122" s="83"/>
+      <c r="C122" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="J116" s="29"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="63"/>
-      <c r="B117" s="57"/>
-      <c r="C117" s="13" t="s">
+      <c r="F122" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="J122" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="K122">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123" s="56"/>
+      <c r="B123" s="83"/>
+      <c r="C123" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="J117" s="29"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="63"/>
-      <c r="B118" s="57"/>
-      <c r="C118" s="88" t="s">
+      <c r="F123" t="s">
+        <v>237</v>
+      </c>
+      <c r="J123" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="K123">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124" s="56"/>
+      <c r="B124" s="83"/>
+      <c r="C124" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="J118" s="29"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="63"/>
-      <c r="B119" s="57"/>
-      <c r="C119" s="13" t="s">
+      <c r="J124" s="29"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" s="56"/>
+      <c r="B125" s="83"/>
+      <c r="C125" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="J119" s="29"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="63"/>
-      <c r="B120" s="57"/>
-      <c r="C120" s="13" t="s">
+      <c r="J125" s="29"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" s="56"/>
+      <c r="B126" s="83"/>
+      <c r="C126" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J120" s="29"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="63"/>
-      <c r="B121" s="57"/>
-      <c r="C121" s="13" t="s">
+      <c r="J126" s="29"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127" s="56"/>
+      <c r="B127" s="83"/>
+      <c r="C127" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="J121" s="29"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="63"/>
-      <c r="B122" s="57"/>
-      <c r="C122" s="13" t="s">
+      <c r="J127" s="29"/>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128" s="56"/>
+      <c r="B128" s="83"/>
+      <c r="C128" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J122" s="29"/>
-    </row>
-    <row r="123" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="63"/>
-      <c r="B123" s="58"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="31"/>
-      <c r="E123" s="87"/>
-      <c r="F123" s="31"/>
-      <c r="G123" s="31"/>
-      <c r="H123" s="31"/>
-      <c r="I123" s="31"/>
-      <c r="J123" s="32"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="63"/>
-      <c r="B124" s="51" t="s">
+      <c r="J128" s="29"/>
+    </row>
+    <row r="129" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="56"/>
+      <c r="B129" s="84"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="31"/>
+      <c r="E129" s="49"/>
+      <c r="F129" s="31"/>
+      <c r="G129" s="31"/>
+      <c r="H129" s="31"/>
+      <c r="I129" s="31"/>
+      <c r="J129" s="32"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130" s="56"/>
+      <c r="B130" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C124" s="14" t="s">
+      <c r="C130" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D124" s="27"/>
-      <c r="E124" s="86"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27"/>
-      <c r="J124" s="28"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="63"/>
-      <c r="B125" s="52"/>
-      <c r="C125" s="15" t="s">
+      <c r="D130" s="27"/>
+      <c r="E130" s="48"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="28"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131" s="56"/>
+      <c r="B131" s="53"/>
+      <c r="C131" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="J125" s="29"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="63"/>
-      <c r="B126" s="52"/>
-      <c r="C126" s="15" t="s">
+      <c r="J131" s="29"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132" s="56"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="J126" s="29"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="63"/>
-      <c r="B127" s="52"/>
-      <c r="C127" s="15" t="s">
+      <c r="E132" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="J132" s="29"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133" s="56"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="J127" s="29"/>
-    </row>
-    <row r="128" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="63"/>
-      <c r="B128" s="53"/>
-      <c r="C128" s="16" t="s">
+      <c r="J133" s="29"/>
+    </row>
+    <row r="134" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="56"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D128" s="31"/>
-      <c r="E128" s="87"/>
-      <c r="F128" s="31"/>
-      <c r="G128" s="31"/>
-      <c r="H128" s="31"/>
-      <c r="I128" s="31"/>
-      <c r="J128" s="32"/>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A129" s="63"/>
-      <c r="B129" s="59" t="s">
+      <c r="D134" s="31"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="31"/>
+      <c r="G134" s="31"/>
+      <c r="H134" s="31"/>
+      <c r="I134" s="31"/>
+      <c r="J134" s="32"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A135" s="56"/>
+      <c r="B135" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="C135" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D129" s="27"/>
-      <c r="E129" s="86"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="27"/>
-      <c r="J129" s="28"/>
-      <c r="M129" t="s">
-        <v>231</v>
-      </c>
-      <c r="N129" t="s">
-        <v>226</v>
-      </c>
-      <c r="O129">
+      <c r="D135" s="27"/>
+      <c r="E135" s="48"/>
+      <c r="F135" s="27"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="27"/>
+      <c r="J135" s="28"/>
+      <c r="M135" t="s">
+        <v>100</v>
+      </c>
+      <c r="N135" t="s">
+        <v>225</v>
+      </c>
+      <c r="O135">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A130" s="63"/>
-      <c r="B130" s="60"/>
-      <c r="C130" s="13" t="s">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A136" s="56"/>
+      <c r="B136" s="86"/>
+      <c r="C136" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E130" s="85" t="s">
-        <v>214</v>
-      </c>
-      <c r="F130" t="s">
+      <c r="E136" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="F136" t="s">
+        <v>223</v>
+      </c>
+      <c r="G136" t="s">
+        <v>228</v>
+      </c>
+      <c r="H136" t="s">
+        <v>229</v>
+      </c>
+      <c r="J136" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="G130" t="s">
-        <v>229</v>
-      </c>
-      <c r="H130" t="s">
-        <v>230</v>
-      </c>
-      <c r="J130" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="K130">
+      <c r="K136">
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A131" s="63"/>
-      <c r="B131" s="60"/>
-      <c r="C131" s="13" t="s">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A137" s="56"/>
+      <c r="B137" s="86"/>
+      <c r="C137" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="J131" s="29"/>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A132" s="63"/>
-      <c r="B132" s="60"/>
-      <c r="C132" s="13" t="s">
+      <c r="J137" s="29"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A138" s="56"/>
+      <c r="B138" s="86"/>
+      <c r="C138" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J132" s="29"/>
-    </row>
-    <row r="133" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="63"/>
-      <c r="B133" s="61"/>
-      <c r="C133" s="19" t="s">
+      <c r="J138" s="29"/>
+    </row>
+    <row r="139" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="56"/>
+      <c r="B139" s="87"/>
+      <c r="C139" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D133" s="31"/>
-      <c r="E133" s="87"/>
-      <c r="F133" s="31"/>
-      <c r="G133" s="31"/>
-      <c r="H133" s="31"/>
-      <c r="I133" s="31"/>
-      <c r="J133" s="32"/>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A134" s="63"/>
-      <c r="B134" s="51" t="s">
+      <c r="D139" s="31"/>
+      <c r="E139" s="49"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="31"/>
+      <c r="H139" s="31"/>
+      <c r="I139" s="31"/>
+      <c r="J139" s="32"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A140" s="56"/>
+      <c r="B140" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C134" s="20" t="s">
+      <c r="C140" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D134" s="27"/>
-      <c r="E134" s="86"/>
-      <c r="F134" s="27"/>
-      <c r="G134" s="27"/>
-      <c r="H134" s="27"/>
-      <c r="I134" s="27"/>
-      <c r="J134" s="28"/>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A135" s="63"/>
-      <c r="B135" s="52"/>
-      <c r="C135" s="17" t="s">
+      <c r="D140" s="27"/>
+      <c r="E140" s="48"/>
+      <c r="F140" s="27"/>
+      <c r="G140" s="27"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
+      <c r="J140" s="28"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A141" s="56"/>
+      <c r="B141" s="53"/>
+      <c r="C141" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J135" s="29"/>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A136" s="63"/>
-      <c r="B136" s="52"/>
-      <c r="C136" s="17" t="s">
+      <c r="J141" s="29"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142" s="56"/>
+      <c r="B142" s="53"/>
+      <c r="C142" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J136" s="29"/>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A137" s="63"/>
-      <c r="B137" s="52"/>
-      <c r="C137" s="17" t="s">
+      <c r="E142" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="J142" s="29"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A143" s="56"/>
+      <c r="B143" s="53"/>
+      <c r="C143" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="J137" s="29"/>
-    </row>
-    <row r="138" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="63"/>
-      <c r="B138" s="53"/>
-      <c r="C138" s="18" t="s">
+      <c r="J143" s="29"/>
+    </row>
+    <row r="144" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="56"/>
+      <c r="B144" s="54"/>
+      <c r="C144" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D138" s="31"/>
-      <c r="E138" s="87"/>
-      <c r="F138" s="31"/>
-      <c r="G138" s="31"/>
-      <c r="H138" s="31"/>
-      <c r="I138" s="31"/>
-      <c r="J138" s="32"/>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A139" s="63"/>
-      <c r="B139" s="49" t="s">
+      <c r="D144" s="31"/>
+      <c r="E144" s="49"/>
+      <c r="F144" s="31"/>
+      <c r="G144" s="31"/>
+      <c r="H144" s="31"/>
+      <c r="I144" s="31"/>
+      <c r="J144" s="32"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A145" s="56"/>
+      <c r="B145" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C139" s="21" t="s">
+      <c r="C145" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="J139" s="42"/>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A140" s="63"/>
-      <c r="B140" s="49"/>
-      <c r="C140" s="13" t="s">
+      <c r="J145" s="42"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A146" s="56"/>
+      <c r="B146" s="75"/>
+      <c r="C146" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="J140" s="29"/>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A141" s="63"/>
-      <c r="B141" s="49"/>
-      <c r="C141" s="13" t="s">
+      <c r="J146" s="29"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A147" s="56"/>
+      <c r="B147" s="75"/>
+      <c r="C147" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="J141" s="29"/>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A142" s="63"/>
-      <c r="B142" s="49"/>
-      <c r="C142" s="13" t="s">
+      <c r="J147" s="29"/>
+    </row>
+    <row r="148" spans="1:15" ht="165" x14ac:dyDescent="0.25">
+      <c r="A148" s="56"/>
+      <c r="B148" s="75"/>
+      <c r="C148" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="J142" s="29"/>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A143" s="63"/>
-      <c r="B143" s="49"/>
-      <c r="C143" s="13" t="s">
+      <c r="E148" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="F148" t="s">
+        <v>291</v>
+      </c>
+      <c r="J148" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="K148">
+        <v>31</v>
+      </c>
+      <c r="M148" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="O148" s="95"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A149" s="56"/>
+      <c r="B149" s="75"/>
+      <c r="C149" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="J143" s="29"/>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A144" s="63"/>
-      <c r="B144" s="49"/>
-      <c r="C144" s="13" t="s">
+      <c r="J149" s="29"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A150" s="56"/>
+      <c r="B150" s="75"/>
+      <c r="C150" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J144" s="29"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="63"/>
-      <c r="B145" s="49"/>
-      <c r="C145" s="13" t="s">
+      <c r="J150" s="29"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A151" s="56"/>
+      <c r="B151" s="75"/>
+      <c r="C151" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J145" s="29"/>
-    </row>
-    <row r="146" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="63"/>
-      <c r="B146" s="49"/>
-      <c r="C146" s="19" t="s">
+      <c r="J151" s="29"/>
+    </row>
+    <row r="152" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="56"/>
+      <c r="B152" s="75"/>
+      <c r="C152" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J146" s="29"/>
-    </row>
-    <row r="147" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="63"/>
-      <c r="B147" s="50"/>
-      <c r="C147" s="41"/>
-      <c r="D147" s="31"/>
-      <c r="E147" s="87"/>
-      <c r="F147" s="31"/>
-      <c r="G147" s="31"/>
-      <c r="H147" s="31"/>
-      <c r="I147" s="31"/>
-      <c r="J147" s="32"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="63"/>
-      <c r="B148" s="45" t="s">
+      <c r="J152" s="29"/>
+    </row>
+    <row r="153" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="56"/>
+      <c r="B153" s="76"/>
+      <c r="C153" s="41"/>
+      <c r="D153" s="31"/>
+      <c r="E153" s="49"/>
+      <c r="F153" s="31"/>
+      <c r="G153" s="31"/>
+      <c r="H153" s="31"/>
+      <c r="I153" s="31"/>
+      <c r="J153" s="32"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A154" s="56"/>
+      <c r="B154" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C148" s="20" t="s">
+      <c r="C154" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D148" s="27"/>
-      <c r="E148" s="86"/>
-      <c r="F148" s="27"/>
-      <c r="G148" s="27"/>
-      <c r="H148" s="27"/>
-      <c r="I148" s="27"/>
-      <c r="J148" s="28"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="63"/>
-      <c r="B149" s="46"/>
-      <c r="C149" s="17" t="s">
+      <c r="D154" s="27"/>
+      <c r="E154" s="48"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="27"/>
+      <c r="J154" s="28"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A155" s="56"/>
+      <c r="B155" s="78"/>
+      <c r="C155" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J149" s="29"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="63"/>
-      <c r="B150" s="46"/>
-      <c r="C150" s="15" t="s">
+      <c r="J155" s="29"/>
+    </row>
+    <row r="156" spans="1:15" ht="150" x14ac:dyDescent="0.25">
+      <c r="A156" s="56"/>
+      <c r="B156" s="78"/>
+      <c r="C156" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J150" s="29"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="63"/>
-      <c r="B151" s="46"/>
-      <c r="C151" s="15" t="s">
+      <c r="E156" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="F156" t="s">
+        <v>289</v>
+      </c>
+      <c r="J156" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="K156">
+        <v>30</v>
+      </c>
+      <c r="M156" s="47" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A157" s="56"/>
+      <c r="B157" s="78"/>
+      <c r="C157" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="J151" s="29"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="63"/>
-      <c r="B152" s="46"/>
-      <c r="C152" s="17" t="s">
+      <c r="J157" s="29"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A158" s="56"/>
+      <c r="B158" s="78"/>
+      <c r="C158" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="J152" s="29"/>
-    </row>
-    <row r="153" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="63"/>
-      <c r="B153" s="46"/>
-      <c r="C153" s="18" t="s">
+      <c r="J158" s="29"/>
+    </row>
+    <row r="159" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="56"/>
+      <c r="B159" s="78"/>
+      <c r="C159" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J153" s="29"/>
-    </row>
-    <row r="154" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="63"/>
-      <c r="B154" s="47"/>
-      <c r="C154" s="39"/>
-      <c r="D154" s="31"/>
-      <c r="E154" s="87"/>
-      <c r="F154" s="31"/>
-      <c r="G154" s="31"/>
-      <c r="H154" s="31"/>
-      <c r="I154" s="31"/>
-      <c r="J154" s="32"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="63"/>
-      <c r="B155" s="48" t="s">
+      <c r="J159" s="29"/>
+    </row>
+    <row r="160" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="56"/>
+      <c r="B160" s="79"/>
+      <c r="C160" s="39"/>
+      <c r="D160" s="31"/>
+      <c r="E160" s="49"/>
+      <c r="F160" s="31"/>
+      <c r="G160" s="31"/>
+      <c r="H160" s="31"/>
+      <c r="I160" s="31"/>
+      <c r="J160" s="32"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" s="56"/>
+      <c r="B161" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C155" s="12" t="s">
+      <c r="C161" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D155" s="27"/>
-      <c r="E155" s="86"/>
-      <c r="F155" s="27"/>
-      <c r="G155" s="27"/>
-      <c r="H155" s="27"/>
-      <c r="I155" s="27"/>
-      <c r="J155" s="28"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="63"/>
-      <c r="B156" s="49"/>
-      <c r="C156" s="22" t="s">
+      <c r="D161" s="27"/>
+      <c r="E161" s="48"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="27"/>
+      <c r="I161" s="27"/>
+      <c r="J161" s="28"/>
+    </row>
+    <row r="162" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A162" s="56"/>
+      <c r="B162" s="75"/>
+      <c r="C162" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="J156" s="29"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="63"/>
-      <c r="B157" s="49"/>
-      <c r="C157" s="22" t="s">
+      <c r="F162" t="s">
+        <v>284</v>
+      </c>
+      <c r="J162" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="K162">
+        <v>29</v>
+      </c>
+      <c r="M162" s="47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" s="56"/>
+      <c r="B163" s="75"/>
+      <c r="C163" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="J157" s="29"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="63"/>
-      <c r="B158" s="49"/>
-      <c r="C158" s="22" t="s">
+      <c r="E163" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="J163" s="29"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" s="56"/>
+      <c r="B164" s="75"/>
+      <c r="C164" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="J158" s="29"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="63"/>
-      <c r="B159" s="49"/>
-      <c r="C159" s="13" t="s">
+      <c r="J164" s="29"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" s="56"/>
+      <c r="B165" s="75"/>
+      <c r="C165" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J159" s="29"/>
-    </row>
-    <row r="160" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="63"/>
-      <c r="B160" s="49"/>
-      <c r="C160" s="19" t="s">
+      <c r="J165" s="29"/>
+    </row>
+    <row r="166" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="56"/>
+      <c r="B166" s="75"/>
+      <c r="C166" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J160" s="29"/>
-    </row>
-    <row r="161" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="63"/>
-      <c r="B161" s="50"/>
-      <c r="C161" s="41"/>
-      <c r="D161" s="31"/>
-      <c r="E161" s="87"/>
-      <c r="F161" s="31"/>
-      <c r="G161" s="31"/>
-      <c r="H161" s="31"/>
-      <c r="I161" s="31"/>
-      <c r="J161" s="32"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="63"/>
-      <c r="B162" s="51" t="s">
+      <c r="J166" s="29"/>
+    </row>
+    <row r="167" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="56"/>
+      <c r="B167" s="76"/>
+      <c r="C167" s="41"/>
+      <c r="D167" s="31"/>
+      <c r="E167" s="49"/>
+      <c r="F167" s="31"/>
+      <c r="G167" s="31"/>
+      <c r="H167" s="31"/>
+      <c r="I167" s="31"/>
+      <c r="J167" s="32"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" s="56"/>
+      <c r="B168" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C162" s="14" t="s">
+      <c r="C168" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D162" s="27"/>
-      <c r="E162" s="86"/>
-      <c r="F162" s="27"/>
-      <c r="G162" s="27"/>
-      <c r="H162" s="27"/>
-      <c r="I162" s="27"/>
-      <c r="J162" s="28"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="63"/>
-      <c r="B163" s="52"/>
-      <c r="C163" s="15" t="s">
+      <c r="D168" s="27"/>
+      <c r="E168" s="48"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="27"/>
+      <c r="J168" s="28"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" s="56"/>
+      <c r="B169" s="53"/>
+      <c r="C169" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="J163" s="29"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="63"/>
-      <c r="B164" s="52"/>
-      <c r="C164" s="17" t="s">
+      <c r="E169" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="F169" t="s">
+        <v>239</v>
+      </c>
+      <c r="J169" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="K169">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" s="56"/>
+      <c r="B170" s="53"/>
+      <c r="C170" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="J164" s="29"/>
-    </row>
-    <row r="165" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="63"/>
-      <c r="B165" s="53"/>
-      <c r="C165" s="18" t="s">
+      <c r="J170" s="29"/>
+    </row>
+    <row r="171" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="56"/>
+      <c r="B171" s="54"/>
+      <c r="C171" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D165" s="31"/>
-      <c r="E165" s="87"/>
-      <c r="F165" s="31"/>
-      <c r="G165" s="31"/>
-      <c r="H165" s="31"/>
-      <c r="I165" s="31"/>
-      <c r="J165" s="32"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="63"/>
-      <c r="B166" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C166" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D166" s="27"/>
-      <c r="E166" s="86"/>
-      <c r="F166" s="27"/>
-      <c r="G166" s="27"/>
-      <c r="H166" s="27"/>
-      <c r="I166" s="27"/>
-      <c r="J166" s="28"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="63"/>
-      <c r="B167" s="49"/>
-      <c r="C167" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="J167" s="29"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="63"/>
-      <c r="B168" s="49"/>
-      <c r="C168" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="J168" s="29"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="63"/>
-      <c r="B169" s="49"/>
-      <c r="C169" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="J169" s="29"/>
-    </row>
-    <row r="170" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="63"/>
-      <c r="B170" s="49"/>
-      <c r="C170" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J170" s="29"/>
-    </row>
-    <row r="171" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="63"/>
-      <c r="B171" s="50"/>
-      <c r="C171" s="41"/>
       <c r="D171" s="31"/>
-      <c r="E171" s="87"/>
+      <c r="E171" s="49"/>
       <c r="F171" s="31"/>
       <c r="G171" s="31"/>
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
       <c r="J171" s="32"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="63"/>
-      <c r="B172" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C172" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="J172" s="42"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="63"/>
-      <c r="B173" s="46"/>
-      <c r="C173" s="17" t="s">
-        <v>120</v>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" s="56"/>
+      <c r="B172" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D172" s="27"/>
+      <c r="E172" s="48"/>
+      <c r="F172" s="27"/>
+      <c r="G172" s="27"/>
+      <c r="H172" s="27"/>
+      <c r="I172" s="27"/>
+      <c r="J172" s="28"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173" s="56"/>
+      <c r="B173" s="75"/>
+      <c r="C173" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="J173" s="29"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="63"/>
-      <c r="B174" s="46"/>
-      <c r="C174" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="J174" s="29"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="63"/>
-      <c r="B175" s="46"/>
-      <c r="C175" s="17" t="s">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174" s="56"/>
+      <c r="B174" s="75"/>
+      <c r="C174" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E174" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="F174" t="s">
+        <v>242</v>
+      </c>
+      <c r="J174" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="K174">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" s="56"/>
+      <c r="B175" s="75"/>
+      <c r="C175" s="13" t="s">
         <v>103</v>
       </c>
       <c r="J175" s="29"/>
     </row>
-    <row r="176" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="63"/>
-      <c r="B176" s="46"/>
-      <c r="C176" s="18" t="s">
+    <row r="176" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="56"/>
+      <c r="B176" s="75"/>
+      <c r="C176" s="19" t="s">
         <v>43</v>
       </c>
       <c r="J176" s="29"/>
     </row>
-    <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="64"/>
-      <c r="B177" s="47"/>
-      <c r="C177" s="39"/>
+    <row r="177" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="56"/>
+      <c r="B177" s="76"/>
+      <c r="C177" s="41"/>
       <c r="D177" s="31"/>
-      <c r="E177" s="87"/>
+      <c r="E177" s="49"/>
       <c r="F177" s="31"/>
       <c r="G177" s="31"/>
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
       <c r="J177" s="32"/>
     </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" s="56"/>
+      <c r="B178" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="J178" s="42"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" s="56"/>
+      <c r="B179" s="78"/>
+      <c r="C179" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J179" s="29"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180" s="56"/>
+      <c r="B180" s="78"/>
+      <c r="C180" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E180" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="F180" t="s">
+        <v>121</v>
+      </c>
+      <c r="J180" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="K180">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A181" s="56"/>
+      <c r="B181" s="78"/>
+      <c r="C181" s="17"/>
+      <c r="E181" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="F181" t="s">
+        <v>301</v>
+      </c>
+      <c r="J181" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K181">
+        <v>34</v>
+      </c>
+      <c r="M181" s="47" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" s="56"/>
+      <c r="B182" s="78"/>
+      <c r="C182" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="J182" s="29"/>
+    </row>
+    <row r="183" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="56"/>
+      <c r="B183" s="78"/>
+      <c r="C183" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J183" s="29"/>
+    </row>
+    <row r="184" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="57"/>
+      <c r="B184" s="79"/>
+      <c r="C184" s="39"/>
+      <c r="D184" s="31"/>
+      <c r="E184" s="49"/>
+      <c r="F184" s="31"/>
+      <c r="G184" s="31"/>
+      <c r="H184" s="31"/>
+      <c r="I184" s="31"/>
+      <c r="J184" s="32"/>
+    </row>
+    <row r="188" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="J188" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="K188">
+        <v>37</v>
+      </c>
+      <c r="M188" s="47" t="s">
+        <v>306</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B161:B167"/>
+    <mergeCell ref="B168:B171"/>
+    <mergeCell ref="B172:B177"/>
+    <mergeCell ref="B178:B184"/>
     <mergeCell ref="N72:N73"/>
-    <mergeCell ref="B134:B138"/>
-    <mergeCell ref="A71:A177"/>
+    <mergeCell ref="B140:B144"/>
+    <mergeCell ref="A71:A184"/>
     <mergeCell ref="B2:B29"/>
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="B37:B50"/>
     <mergeCell ref="B51:B58"/>
     <mergeCell ref="B59:B63"/>
     <mergeCell ref="B64:B70"/>
-    <mergeCell ref="B139:B147"/>
-    <mergeCell ref="B71:B93"/>
+    <mergeCell ref="B145:B153"/>
+    <mergeCell ref="B71:B96"/>
     <mergeCell ref="A2:A70"/>
-    <mergeCell ref="B94:B123"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="B129:B133"/>
-    <mergeCell ref="B148:B154"/>
-    <mergeCell ref="B155:B161"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="B166:B171"/>
-    <mergeCell ref="B172:B177"/>
+    <mergeCell ref="B97:B129"/>
+    <mergeCell ref="B130:B134"/>
+    <mergeCell ref="B135:B139"/>
+    <mergeCell ref="B154:B160"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/mapeo de tablas .xlsx
+++ b/mapeo de tablas .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BS_Jairo\req\BS_41_nucleo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83918992-7447-4EFF-B452-33C35278B12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF19AB20-63E2-4AA1-A1BD-0C1106338DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-6795" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="322">
   <si>
     <t>ODS_REF_REFERIDO</t>
   </si>
@@ -1027,6 +1027,21 @@
   </si>
   <si>
     <t>WEBRECLAMOS.SASSL00   A</t>
+  </si>
+  <si>
+    <t>r.personaid</t>
+  </si>
+  <si>
+    <t>u.ubigeoid</t>
+  </si>
+  <si>
+    <t>c.categoriaproductoid</t>
+  </si>
+  <si>
+    <t>k.productoid</t>
+  </si>
+  <si>
+    <t>f.fuenteid</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1749,8 +1764,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1760,6 +1787,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1821,19 +1857,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1860,16 +1884,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2152,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,10 +2206,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2209,10 +2223,13 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
-      <c r="B3" s="59"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>317</v>
       </c>
       <c r="G3" t="s">
         <v>127</v>
@@ -2226,8 +2243,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2239,8 +2256,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2255,8 +2272,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2268,8 +2285,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2281,8 +2298,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="59"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2294,8 +2311,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
@@ -2307,8 +2324,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
@@ -2320,8 +2337,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2350,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
@@ -2346,8 +2363,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
@@ -2359,8 +2376,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
@@ -2372,8 +2389,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
@@ -2385,8 +2402,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2398,8 +2415,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2411,8 +2428,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
@@ -2424,8 +2441,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
@@ -2437,8 +2454,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="2" t="s">
         <v>35</v>
       </c>
@@ -2450,8 +2467,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="2" t="s">
         <v>36</v>
       </c>
@@ -2463,8 +2480,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
@@ -2476,8 +2493,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
@@ -2489,8 +2506,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="2" t="s">
         <v>39</v>
       </c>
@@ -2502,8 +2519,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
@@ -2515,8 +2532,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
-      <c r="B26" s="59"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
@@ -2528,8 +2545,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
@@ -2541,22 +2558,22 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="81"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="3"/>
       <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="60" t="s">
+      <c r="A30" s="88"/>
+      <c r="B30" s="71" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="26" t="s">
@@ -2564,23 +2581,25 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="48"/>
-      <c r="F30" s="27"/>
+      <c r="F30" s="27" t="s">
+        <v>321</v>
+      </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="28"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="61"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="4" t="s">
         <v>44</v>
       </c>
       <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
-      <c r="B32" s="61"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="4" t="s">
         <v>45</v>
       </c>
@@ -2595,32 +2614,32 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
-      <c r="B33" s="61"/>
+      <c r="A33" s="88"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
-      <c r="B34" s="61"/>
+      <c r="A34" s="88"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
       <c r="J34" s="29"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="61"/>
+      <c r="A35" s="88"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="4" t="s">
         <v>43</v>
       </c>
       <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="81"/>
-      <c r="B36" s="62"/>
+      <c r="A36" s="88"/>
+      <c r="B36" s="73"/>
       <c r="C36" s="30"/>
       <c r="D36" s="31"/>
       <c r="E36" s="49"/>
@@ -2631,8 +2650,8 @@
       <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="63" t="s">
+      <c r="A37" s="88"/>
+      <c r="B37" s="74" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="33" t="s">
@@ -2651,8 +2670,8 @@
       <c r="J37" s="28"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="64"/>
+      <c r="A38" s="88"/>
+      <c r="B38" s="75"/>
       <c r="C38" s="5" t="s">
         <v>47</v>
       </c>
@@ -2667,8 +2686,8 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="64"/>
+      <c r="A39" s="88"/>
+      <c r="B39" s="75"/>
       <c r="C39" s="5" t="s">
         <v>48</v>
       </c>
@@ -2680,8 +2699,8 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="64"/>
+      <c r="A40" s="88"/>
+      <c r="B40" s="75"/>
       <c r="C40" s="5" t="s">
         <v>45</v>
       </c>
@@ -2705,8 +2724,8 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="64"/>
+      <c r="A41" s="88"/>
+      <c r="B41" s="75"/>
       <c r="C41" s="5" t="s">
         <v>49</v>
       </c>
@@ -2718,16 +2737,16 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
-      <c r="B42" s="64"/>
+      <c r="A42" s="88"/>
+      <c r="B42" s="75"/>
       <c r="C42" s="5" t="s">
         <v>50</v>
       </c>
       <c r="J42" s="29"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
-      <c r="B43" s="64"/>
+      <c r="A43" s="88"/>
+      <c r="B43" s="75"/>
       <c r="C43" s="5" t="s">
         <v>51</v>
       </c>
@@ -2739,8 +2758,8 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="81"/>
-      <c r="B44" s="64"/>
+      <c r="A44" s="88"/>
+      <c r="B44" s="75"/>
       <c r="C44" s="5" t="s">
         <v>52</v>
       </c>
@@ -2752,16 +2771,16 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="81"/>
-      <c r="B45" s="64"/>
+      <c r="A45" s="88"/>
+      <c r="B45" s="75"/>
       <c r="C45" s="5" t="s">
         <v>53</v>
       </c>
       <c r="J45" s="29"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="81"/>
-      <c r="B46" s="64"/>
+      <c r="A46" s="88"/>
+      <c r="B46" s="75"/>
       <c r="C46" s="5" t="s">
         <v>54</v>
       </c>
@@ -2773,32 +2792,32 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="81"/>
-      <c r="B47" s="64"/>
+      <c r="A47" s="88"/>
+      <c r="B47" s="75"/>
       <c r="C47" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J47" s="29"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="81"/>
-      <c r="B48" s="64"/>
+      <c r="A48" s="88"/>
+      <c r="B48" s="75"/>
       <c r="C48" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J48" s="29"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="81"/>
-      <c r="B49" s="64"/>
+      <c r="A49" s="88"/>
+      <c r="B49" s="75"/>
       <c r="C49" s="5" t="s">
         <v>43</v>
       </c>
       <c r="J49" s="29"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="81"/>
-      <c r="B50" s="65"/>
+      <c r="A50" s="88"/>
+      <c r="B50" s="76"/>
       <c r="C50" s="34" t="s">
         <v>55</v>
       </c>
@@ -2815,8 +2834,8 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="81"/>
-      <c r="B51" s="66" t="s">
+      <c r="A51" s="88"/>
+      <c r="B51" s="77" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="35" t="s">
@@ -2824,39 +2843,41 @@
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="48"/>
-      <c r="F51" s="27"/>
+      <c r="F51" s="27" t="s">
+        <v>318</v>
+      </c>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
       <c r="J51" s="28"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="81"/>
-      <c r="B52" s="67"/>
+      <c r="A52" s="88"/>
+      <c r="B52" s="78"/>
       <c r="C52" s="7" t="s">
         <v>56</v>
       </c>
       <c r="J52" s="29"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="81"/>
-      <c r="B53" s="67"/>
+      <c r="A53" s="88"/>
+      <c r="B53" s="78"/>
       <c r="C53" s="7" t="s">
         <v>57</v>
       </c>
       <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="81"/>
-      <c r="B54" s="67"/>
+      <c r="A54" s="88"/>
+      <c r="B54" s="78"/>
       <c r="C54" s="7" t="s">
         <v>58</v>
       </c>
       <c r="J54" s="29"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="81"/>
-      <c r="B55" s="67"/>
+      <c r="A55" s="88"/>
+      <c r="B55" s="78"/>
       <c r="C55" s="7" t="s">
         <v>45</v>
       </c>
@@ -2871,24 +2892,24 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="81"/>
-      <c r="B56" s="67"/>
+      <c r="A56" s="88"/>
+      <c r="B56" s="78"/>
       <c r="C56" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J56" s="29"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="81"/>
-      <c r="B57" s="67"/>
+      <c r="A57" s="88"/>
+      <c r="B57" s="78"/>
       <c r="C57" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J57" s="29"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="81"/>
-      <c r="B58" s="68"/>
+      <c r="A58" s="88"/>
+      <c r="B58" s="79"/>
       <c r="C58" s="36" t="s">
         <v>43</v>
       </c>
@@ -2901,8 +2922,8 @@
       <c r="J58" s="32"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="81"/>
-      <c r="B59" s="69" t="s">
+      <c r="A59" s="88"/>
+      <c r="B59" s="80" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="37" t="s">
@@ -2910,15 +2931,17 @@
       </c>
       <c r="D59" s="27"/>
       <c r="E59" s="48"/>
-      <c r="F59" s="27"/>
+      <c r="F59" s="27" t="s">
+        <v>319</v>
+      </c>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
       <c r="J59" s="28"/>
     </row>
-    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="81"/>
-      <c r="B60" s="70"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="88"/>
+      <c r="B60" s="81"/>
       <c r="C60" s="8" t="s">
         <v>45</v>
       </c>
@@ -2931,24 +2954,24 @@
       <c r="J60" s="29"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="81"/>
-      <c r="B61" s="70"/>
+      <c r="A61" s="88"/>
+      <c r="B61" s="81"/>
       <c r="C61" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J61" s="29"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="81"/>
-      <c r="B62" s="70"/>
+      <c r="A62" s="88"/>
+      <c r="B62" s="81"/>
       <c r="C62" s="8" t="s">
         <v>46</v>
       </c>
       <c r="J62" s="29"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="81"/>
-      <c r="B63" s="71"/>
+      <c r="A63" s="88"/>
+      <c r="B63" s="82"/>
       <c r="C63" s="38" t="s">
         <v>43</v>
       </c>
@@ -2961,8 +2984,8 @@
       <c r="J63" s="32"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="81"/>
-      <c r="B64" s="72" t="s">
+      <c r="A64" s="88"/>
+      <c r="B64" s="83" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="33" t="s">
@@ -2970,23 +2993,25 @@
       </c>
       <c r="D64" s="27"/>
       <c r="E64" s="48"/>
-      <c r="F64" s="27"/>
+      <c r="F64" s="27" t="s">
+        <v>320</v>
+      </c>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
       <c r="J64" s="28"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="81"/>
-      <c r="B65" s="73"/>
+      <c r="A65" s="88"/>
+      <c r="B65" s="84"/>
       <c r="C65" s="5" t="s">
         <v>59</v>
       </c>
       <c r="J65" s="29"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="81"/>
-      <c r="B66" s="73"/>
+      <c r="A66" s="88"/>
+      <c r="B66" s="84"/>
       <c r="C66" s="5" t="s">
         <v>45</v>
       </c>
@@ -3001,32 +3026,32 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="81"/>
-      <c r="B67" s="73"/>
+      <c r="A67" s="88"/>
+      <c r="B67" s="84"/>
       <c r="C67" s="5" t="s">
         <v>60</v>
       </c>
       <c r="J67" s="29"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="81"/>
-      <c r="B68" s="73"/>
+      <c r="A68" s="88"/>
+      <c r="B68" s="84"/>
       <c r="C68" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J68" s="29"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="81"/>
-      <c r="B69" s="73"/>
+      <c r="A69" s="88"/>
+      <c r="B69" s="84"/>
       <c r="C69" s="5" t="s">
         <v>46</v>
       </c>
       <c r="J69" s="29"/>
     </row>
     <row r="70" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="81"/>
-      <c r="B70" s="74"/>
+      <c r="A70" s="88"/>
+      <c r="B70" s="85"/>
       <c r="C70" s="34" t="s">
         <v>43</v>
       </c>
@@ -3039,10 +3064,10 @@
       <c r="J70" s="32"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="55" t="s">
+      <c r="A71" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="B71" s="77" t="s">
+      <c r="B71" s="86" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="43" t="s">
@@ -3067,8 +3092,8 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
-      <c r="B72" s="78"/>
+      <c r="A72" s="67"/>
+      <c r="B72" s="63"/>
       <c r="C72" s="9" t="s">
         <v>61</v>
       </c>
@@ -3084,14 +3109,14 @@
       <c r="M72" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="N72" s="51" t="s">
+      <c r="N72" s="65" t="s">
         <v>214</v>
       </c>
       <c r="O72" s="45"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="56"/>
-      <c r="B73" s="78"/>
+      <c r="A73" s="67"/>
+      <c r="B73" s="63"/>
       <c r="C73" s="9" t="s">
         <v>62</v>
       </c>
@@ -3107,14 +3132,14 @@
       <c r="M73" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="N73" s="51"/>
+      <c r="N73" s="65"/>
       <c r="O73" s="45">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
-      <c r="B74" s="78"/>
+      <c r="A74" s="67"/>
+      <c r="B74" s="63"/>
       <c r="C74" s="9" t="s">
         <v>63</v>
       </c>
@@ -3129,8 +3154,8 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="56"/>
-      <c r="B75" s="78"/>
+      <c r="A75" s="67"/>
+      <c r="B75" s="63"/>
       <c r="C75" s="9" t="s">
         <v>64</v>
       </c>
@@ -3151,8 +3176,8 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="56"/>
-      <c r="B76" s="78"/>
+      <c r="A76" s="67"/>
+      <c r="B76" s="63"/>
       <c r="C76" s="9" t="s">
         <v>65</v>
       </c>
@@ -3167,8 +3192,8 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A77" s="56"/>
-      <c r="B77" s="78"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="63"/>
       <c r="C77" s="9" t="s">
         <v>66</v>
       </c>
@@ -3186,8 +3211,8 @@
       </c>
     </row>
     <row r="78" spans="1:15" ht="255" x14ac:dyDescent="0.25">
-      <c r="A78" s="56"/>
-      <c r="B78" s="78"/>
+      <c r="A78" s="67"/>
+      <c r="B78" s="63"/>
       <c r="C78" s="9"/>
       <c r="F78" s="47" t="s">
         <v>273</v>
@@ -3200,8 +3225,8 @@
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="56"/>
-      <c r="B79" s="78"/>
+      <c r="A79" s="67"/>
+      <c r="B79" s="63"/>
       <c r="C79" s="9" t="s">
         <v>67</v>
       </c>
@@ -3217,24 +3242,24 @@
       <c r="L79" s="45"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="56"/>
-      <c r="B80" s="78"/>
+      <c r="A80" s="67"/>
+      <c r="B80" s="63"/>
       <c r="C80" s="9" t="s">
         <v>68</v>
       </c>
       <c r="J80" s="29"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="56"/>
-      <c r="B81" s="78"/>
+      <c r="A81" s="67"/>
+      <c r="B81" s="63"/>
       <c r="C81" s="9" t="s">
         <v>69</v>
       </c>
       <c r="J81" s="29"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
-      <c r="B82" s="78"/>
+      <c r="A82" s="67"/>
+      <c r="B82" s="63"/>
       <c r="C82" s="9" t="s">
         <v>70</v>
       </c>
@@ -3249,8 +3274,8 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
-      <c r="B83" s="78"/>
+      <c r="A83" s="67"/>
+      <c r="B83" s="63"/>
       <c r="C83" s="9" t="s">
         <v>71</v>
       </c>
@@ -3265,8 +3290,8 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
-      <c r="B84" s="78"/>
+      <c r="A84" s="67"/>
+      <c r="B84" s="63"/>
       <c r="C84" s="9" t="s">
         <v>72</v>
       </c>
@@ -3281,8 +3306,8 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="56"/>
-      <c r="B85" s="78"/>
+      <c r="A85" s="67"/>
+      <c r="B85" s="63"/>
       <c r="C85" s="9" t="s">
         <v>73</v>
       </c>
@@ -3297,8 +3322,8 @@
       </c>
     </row>
     <row r="86" spans="1:13" ht="225" x14ac:dyDescent="0.25">
-      <c r="A86" s="56"/>
-      <c r="B86" s="78"/>
+      <c r="A86" s="67"/>
+      <c r="B86" s="63"/>
       <c r="C86" s="9" t="s">
         <v>74</v>
       </c>
@@ -3316,16 +3341,16 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="56"/>
-      <c r="B87" s="78"/>
+      <c r="A87" s="67"/>
+      <c r="B87" s="63"/>
       <c r="C87" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J87" s="29"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="56"/>
-      <c r="B88" s="78"/>
+      <c r="A88" s="67"/>
+      <c r="B88" s="63"/>
       <c r="C88" s="9" t="s">
         <v>76</v>
       </c>
@@ -3343,8 +3368,8 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="56"/>
-      <c r="B89" s="78"/>
+      <c r="A89" s="67"/>
+      <c r="B89" s="63"/>
       <c r="C89" s="9" t="s">
         <v>77</v>
       </c>
@@ -3359,8 +3384,8 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="56"/>
-      <c r="B90" s="78"/>
+      <c r="A90" s="67"/>
+      <c r="B90" s="63"/>
       <c r="C90" s="9" t="s">
         <v>78</v>
       </c>
@@ -3375,8 +3400,8 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="56"/>
-      <c r="B91" s="78"/>
+      <c r="A91" s="67"/>
+      <c r="B91" s="63"/>
       <c r="C91" s="9" t="s">
         <v>79</v>
       </c>
@@ -3391,26 +3416,26 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="56"/>
-      <c r="B92" s="78"/>
+      <c r="A92" s="67"/>
+      <c r="B92" s="63"/>
       <c r="C92" s="10" t="s">
         <v>43</v>
       </c>
       <c r="J92" s="29"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
-      <c r="B93" s="78"/>
+      <c r="A93" s="67"/>
+      <c r="B93" s="63"/>
       <c r="C93" s="11" t="s">
         <v>80</v>
       </c>
       <c r="J93" s="29"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
-      <c r="B94" s="78"/>
-      <c r="C94" s="93"/>
-      <c r="J94" s="94"/>
+      <c r="A94" s="67"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="54"/>
+      <c r="J94" s="55"/>
       <c r="K94" t="s">
         <v>311</v>
       </c>
@@ -3419,14 +3444,14 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="56"/>
-      <c r="B95" s="78"/>
-      <c r="C95" s="93"/>
-      <c r="J95" s="94"/>
+      <c r="A95" s="67"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="54"/>
+      <c r="J95" s="55"/>
     </row>
     <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="56"/>
-      <c r="B96" s="79"/>
+      <c r="A96" s="67"/>
+      <c r="B96" s="64"/>
       <c r="C96" s="39"/>
       <c r="D96" s="31"/>
       <c r="E96" s="49"/>
@@ -3437,8 +3462,8 @@
       <c r="J96" s="32"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="56"/>
-      <c r="B97" s="82" t="s">
+      <c r="A97" s="67"/>
+      <c r="B97" s="89" t="s">
         <v>7</v>
       </c>
       <c r="C97" s="12" t="s">
@@ -3453,24 +3478,24 @@
       <c r="J97" s="28"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="56"/>
-      <c r="B98" s="83"/>
+      <c r="A98" s="67"/>
+      <c r="B98" s="90"/>
       <c r="C98" s="13" t="s">
         <v>67</v>
       </c>
       <c r="J98" s="29"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="56"/>
-      <c r="B99" s="83"/>
+      <c r="A99" s="67"/>
+      <c r="B99" s="90"/>
       <c r="C99" s="13" t="s">
         <v>65</v>
       </c>
       <c r="J99" s="29"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="56"/>
-      <c r="B100" s="83"/>
+      <c r="A100" s="67"/>
+      <c r="B100" s="90"/>
       <c r="C100" s="13" t="s">
         <v>81</v>
       </c>
@@ -3483,8 +3508,8 @@
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" s="56"/>
-      <c r="B101" s="83"/>
+      <c r="A101" s="67"/>
+      <c r="B101" s="90"/>
       <c r="C101" s="13" t="s">
         <v>82</v>
       </c>
@@ -3502,22 +3527,22 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" s="56"/>
-      <c r="B102" s="83"/>
-      <c r="C102" s="89"/>
+      <c r="A102" s="67"/>
+      <c r="B102" s="90"/>
+      <c r="C102" s="51"/>
       <c r="F102" t="s">
         <v>246</v>
       </c>
-      <c r="J102" s="90" t="s">
+      <c r="J102" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="K102" s="91">
+      <c r="K102" s="52">
         <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="56"/>
-      <c r="B103" s="83"/>
+      <c r="A103" s="67"/>
+      <c r="B103" s="90"/>
       <c r="F103" t="s">
         <v>246</v>
       </c>
@@ -3529,8 +3554,8 @@
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" s="56"/>
-      <c r="B104" s="83"/>
+      <c r="A104" s="67"/>
+      <c r="B104" s="90"/>
       <c r="C104" s="13" t="s">
         <v>83</v>
       </c>
@@ -3545,8 +3570,8 @@
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" s="56"/>
-      <c r="B105" s="83"/>
+      <c r="A105" s="67"/>
+      <c r="B105" s="90"/>
       <c r="C105" s="13"/>
       <c r="F105" t="s">
         <v>247</v>
@@ -3559,8 +3584,8 @@
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" s="56"/>
-      <c r="B106" s="83"/>
+      <c r="A106" s="67"/>
+      <c r="B106" s="90"/>
       <c r="C106" s="13" t="s">
         <v>84</v>
       </c>
@@ -3570,21 +3595,21 @@
       <c r="J106" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="K106" s="91">
+      <c r="K106" s="52">
         <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" s="56"/>
-      <c r="B107" s="83"/>
+      <c r="A107" s="67"/>
+      <c r="B107" s="90"/>
       <c r="C107" s="13" t="s">
         <v>85</v>
       </c>
       <c r="J107" s="29"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" s="56"/>
-      <c r="B108" s="83"/>
+      <c r="A108" s="67"/>
+      <c r="B108" s="90"/>
       <c r="C108" s="13" t="s">
         <v>86</v>
       </c>
@@ -3594,13 +3619,13 @@
       <c r="J108" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="K108" s="91">
+      <c r="K108" s="52">
         <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" s="56"/>
-      <c r="B109" s="83"/>
+      <c r="A109" s="67"/>
+      <c r="B109" s="90"/>
       <c r="C109" s="13" t="s">
         <v>87</v>
       </c>
@@ -3610,7 +3635,7 @@
       <c r="J109" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="K109" s="91">
+      <c r="K109" s="52">
         <v>18</v>
       </c>
       <c r="O109" t="str">
@@ -3619,8 +3644,8 @@
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="56"/>
-      <c r="B110" s="83"/>
+      <c r="A110" s="67"/>
+      <c r="B110" s="90"/>
       <c r="C110" s="13" t="s">
         <v>88</v>
       </c>
@@ -3630,13 +3655,13 @@
       <c r="J110" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="K110" s="91">
+      <c r="K110" s="52">
         <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" s="56"/>
-      <c r="B111" s="83"/>
+      <c r="A111" s="67"/>
+      <c r="B111" s="90"/>
       <c r="C111" s="13" t="s">
         <v>89</v>
       </c>
@@ -3651,16 +3676,16 @@
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" s="56"/>
-      <c r="B112" s="83"/>
+      <c r="A112" s="67"/>
+      <c r="B112" s="90"/>
       <c r="C112" s="13" t="s">
         <v>90</v>
       </c>
       <c r="J112" s="29"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="56"/>
-      <c r="B113" s="83"/>
+      <c r="A113" s="67"/>
+      <c r="B113" s="90"/>
       <c r="C113" s="13" t="s">
         <v>91</v>
       </c>
@@ -3670,7 +3695,7 @@
       <c r="J113" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="K113" s="92">
+      <c r="K113" s="53">
         <v>19</v>
       </c>
       <c r="O113" t="s">
@@ -3682,8 +3707,8 @@
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="56"/>
-      <c r="B114" s="83"/>
+      <c r="A114" s="67"/>
+      <c r="B114" s="90"/>
       <c r="C114" s="13" t="s">
         <v>92</v>
       </c>
@@ -3693,7 +3718,7 @@
       <c r="J114" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="K114" s="92">
+      <c r="K114" s="53">
         <v>19</v>
       </c>
       <c r="O114" t="s">
@@ -3701,8 +3726,8 @@
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115" s="56"/>
-      <c r="B115" s="83"/>
+      <c r="A115" s="67"/>
+      <c r="B115" s="90"/>
       <c r="C115" s="13" t="s">
         <v>93</v>
       </c>
@@ -3717,8 +3742,8 @@
       </c>
     </row>
     <row r="116" spans="1:16" ht="150" x14ac:dyDescent="0.25">
-      <c r="A116" s="56"/>
-      <c r="B116" s="83"/>
+      <c r="A116" s="67"/>
+      <c r="B116" s="90"/>
       <c r="C116" s="13" t="s">
         <v>94</v>
       </c>
@@ -3733,8 +3758,8 @@
       </c>
     </row>
     <row r="117" spans="1:16" ht="180" x14ac:dyDescent="0.25">
-      <c r="A117" s="56"/>
-      <c r="B117" s="83"/>
+      <c r="A117" s="67"/>
+      <c r="B117" s="90"/>
       <c r="C117" s="13" t="s">
         <v>95</v>
       </c>
@@ -3749,8 +3774,8 @@
       </c>
     </row>
     <row r="118" spans="1:16" ht="195" x14ac:dyDescent="0.25">
-      <c r="A118" s="56"/>
-      <c r="B118" s="83"/>
+      <c r="A118" s="67"/>
+      <c r="B118" s="90"/>
       <c r="C118" s="13" t="s">
         <v>96</v>
       </c>
@@ -3765,8 +3790,8 @@
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="56"/>
-      <c r="B119" s="83"/>
+      <c r="A119" s="67"/>
+      <c r="B119" s="90"/>
       <c r="C119" s="13" t="s">
         <v>97</v>
       </c>
@@ -3781,8 +3806,8 @@
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="56"/>
-      <c r="B120" s="83"/>
+      <c r="A120" s="67"/>
+      <c r="B120" s="90"/>
       <c r="C120" s="13" t="s">
         <v>98</v>
       </c>
@@ -3797,8 +3822,8 @@
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="56"/>
-      <c r="B121" s="83"/>
+      <c r="A121" s="67"/>
+      <c r="B121" s="90"/>
       <c r="C121" s="13" t="s">
         <v>99</v>
       </c>
@@ -3813,8 +3838,8 @@
       </c>
     </row>
     <row r="122" spans="1:16" ht="135" x14ac:dyDescent="0.25">
-      <c r="A122" s="56"/>
-      <c r="B122" s="83"/>
+      <c r="A122" s="67"/>
+      <c r="B122" s="90"/>
       <c r="C122" s="13" t="s">
         <v>100</v>
       </c>
@@ -3829,8 +3854,8 @@
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="56"/>
-      <c r="B123" s="83"/>
+      <c r="A123" s="67"/>
+      <c r="B123" s="90"/>
       <c r="C123" s="13" t="s">
         <v>101</v>
       </c>
@@ -3845,48 +3870,48 @@
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="56"/>
-      <c r="B124" s="83"/>
+      <c r="A124" s="67"/>
+      <c r="B124" s="90"/>
       <c r="C124" s="50" t="s">
         <v>110</v>
       </c>
       <c r="J124" s="29"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="56"/>
-      <c r="B125" s="83"/>
+      <c r="A125" s="67"/>
+      <c r="B125" s="90"/>
       <c r="C125" s="13" t="s">
         <v>102</v>
       </c>
       <c r="J125" s="29"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="56"/>
-      <c r="B126" s="83"/>
+      <c r="A126" s="67"/>
+      <c r="B126" s="90"/>
       <c r="C126" s="13" t="s">
         <v>103</v>
       </c>
       <c r="J126" s="29"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="56"/>
-      <c r="B127" s="83"/>
+      <c r="A127" s="67"/>
+      <c r="B127" s="90"/>
       <c r="C127" s="13" t="s">
         <v>104</v>
       </c>
       <c r="J127" s="29"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="56"/>
-      <c r="B128" s="83"/>
+      <c r="A128" s="67"/>
+      <c r="B128" s="90"/>
       <c r="C128" s="13" t="s">
         <v>43</v>
       </c>
       <c r="J128" s="29"/>
     </row>
     <row r="129" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="56"/>
-      <c r="B129" s="84"/>
+      <c r="A129" s="67"/>
+      <c r="B129" s="91"/>
       <c r="C129" s="19"/>
       <c r="D129" s="31"/>
       <c r="E129" s="49"/>
@@ -3897,8 +3922,8 @@
       <c r="J129" s="32"/>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A130" s="56"/>
-      <c r="B130" s="52" t="s">
+      <c r="A130" s="67"/>
+      <c r="B130" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C130" s="14" t="s">
@@ -3913,16 +3938,16 @@
       <c r="J130" s="28"/>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A131" s="56"/>
-      <c r="B131" s="53"/>
+      <c r="A131" s="67"/>
+      <c r="B131" s="61"/>
       <c r="C131" s="15" t="s">
         <v>105</v>
       </c>
       <c r="J131" s="29"/>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A132" s="56"/>
-      <c r="B132" s="53"/>
+      <c r="A132" s="67"/>
+      <c r="B132" s="61"/>
       <c r="C132" s="15" t="s">
         <v>102</v>
       </c>
@@ -3932,16 +3957,16 @@
       <c r="J132" s="29"/>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A133" s="56"/>
-      <c r="B133" s="53"/>
+      <c r="A133" s="67"/>
+      <c r="B133" s="61"/>
       <c r="C133" s="15" t="s">
         <v>103</v>
       </c>
       <c r="J133" s="29"/>
     </row>
     <row r="134" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="56"/>
-      <c r="B134" s="54"/>
+      <c r="A134" s="67"/>
+      <c r="B134" s="62"/>
       <c r="C134" s="16" t="s">
         <v>43</v>
       </c>
@@ -3954,8 +3979,8 @@
       <c r="J134" s="32"/>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A135" s="56"/>
-      <c r="B135" s="85" t="s">
+      <c r="A135" s="67"/>
+      <c r="B135" s="92" t="s">
         <v>9</v>
       </c>
       <c r="C135" s="12" t="s">
@@ -3979,8 +4004,8 @@
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A136" s="56"/>
-      <c r="B136" s="86"/>
+      <c r="A136" s="67"/>
+      <c r="B136" s="93"/>
       <c r="C136" s="13" t="s">
         <v>106</v>
       </c>
@@ -4004,24 +4029,24 @@
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A137" s="56"/>
-      <c r="B137" s="86"/>
+      <c r="A137" s="67"/>
+      <c r="B137" s="93"/>
       <c r="C137" s="13" t="s">
         <v>102</v>
       </c>
       <c r="J137" s="29"/>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A138" s="56"/>
-      <c r="B138" s="86"/>
+      <c r="A138" s="67"/>
+      <c r="B138" s="93"/>
       <c r="C138" s="13" t="s">
         <v>103</v>
       </c>
       <c r="J138" s="29"/>
     </row>
     <row r="139" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="56"/>
-      <c r="B139" s="87"/>
+      <c r="A139" s="67"/>
+      <c r="B139" s="94"/>
       <c r="C139" s="19" t="s">
         <v>43</v>
       </c>
@@ -4034,8 +4059,8 @@
       <c r="J139" s="32"/>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A140" s="56"/>
-      <c r="B140" s="52" t="s">
+      <c r="A140" s="67"/>
+      <c r="B140" s="60" t="s">
         <v>10</v>
       </c>
       <c r="C140" s="20" t="s">
@@ -4050,16 +4075,16 @@
       <c r="J140" s="28"/>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A141" s="56"/>
-      <c r="B141" s="53"/>
+      <c r="A141" s="67"/>
+      <c r="B141" s="61"/>
       <c r="C141" s="17" t="s">
         <v>107</v>
       </c>
       <c r="J141" s="29"/>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A142" s="56"/>
-      <c r="B142" s="53"/>
+      <c r="A142" s="67"/>
+      <c r="B142" s="61"/>
       <c r="C142" s="17" t="s">
         <v>108</v>
       </c>
@@ -4069,16 +4094,16 @@
       <c r="J142" s="29"/>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A143" s="56"/>
-      <c r="B143" s="53"/>
+      <c r="A143" s="67"/>
+      <c r="B143" s="61"/>
       <c r="C143" s="17" t="s">
         <v>103</v>
       </c>
       <c r="J143" s="29"/>
     </row>
     <row r="144" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="56"/>
-      <c r="B144" s="54"/>
+      <c r="A144" s="67"/>
+      <c r="B144" s="62"/>
       <c r="C144" s="18" t="s">
         <v>43</v>
       </c>
@@ -4091,8 +4116,8 @@
       <c r="J144" s="32"/>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A145" s="56"/>
-      <c r="B145" s="75" t="s">
+      <c r="A145" s="67"/>
+      <c r="B145" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C145" s="21" t="s">
@@ -4101,24 +4126,24 @@
       <c r="J145" s="42"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A146" s="56"/>
-      <c r="B146" s="75"/>
+      <c r="A146" s="67"/>
+      <c r="B146" s="58"/>
       <c r="C146" s="13" t="s">
         <v>110</v>
       </c>
       <c r="J146" s="29"/>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A147" s="56"/>
-      <c r="B147" s="75"/>
+      <c r="A147" s="67"/>
+      <c r="B147" s="58"/>
       <c r="C147" s="13" t="s">
         <v>74</v>
       </c>
       <c r="J147" s="29"/>
     </row>
     <row r="148" spans="1:15" ht="165" x14ac:dyDescent="0.25">
-      <c r="A148" s="56"/>
-      <c r="B148" s="75"/>
+      <c r="A148" s="67"/>
+      <c r="B148" s="58"/>
       <c r="C148" s="13" t="s">
         <v>111</v>
       </c>
@@ -4137,43 +4162,43 @@
       <c r="M148" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="O148" s="95"/>
+      <c r="O148" s="56"/>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A149" s="56"/>
-      <c r="B149" s="75"/>
+      <c r="A149" s="67"/>
+      <c r="B149" s="58"/>
       <c r="C149" s="13" t="s">
         <v>112</v>
       </c>
       <c r="J149" s="29"/>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A150" s="56"/>
-      <c r="B150" s="75"/>
+      <c r="A150" s="67"/>
+      <c r="B150" s="58"/>
       <c r="C150" s="13" t="s">
         <v>113</v>
       </c>
       <c r="J150" s="29"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A151" s="56"/>
-      <c r="B151" s="75"/>
+      <c r="A151" s="67"/>
+      <c r="B151" s="58"/>
       <c r="C151" s="13" t="s">
         <v>103</v>
       </c>
       <c r="J151" s="29"/>
     </row>
     <row r="152" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="56"/>
-      <c r="B152" s="75"/>
+      <c r="A152" s="67"/>
+      <c r="B152" s="58"/>
       <c r="C152" s="19" t="s">
         <v>43</v>
       </c>
       <c r="J152" s="29"/>
     </row>
     <row r="153" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="56"/>
-      <c r="B153" s="76"/>
+      <c r="A153" s="67"/>
+      <c r="B153" s="59"/>
       <c r="C153" s="41"/>
       <c r="D153" s="31"/>
       <c r="E153" s="49"/>
@@ -4184,8 +4209,8 @@
       <c r="J153" s="32"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A154" s="56"/>
-      <c r="B154" s="77" t="s">
+      <c r="A154" s="67"/>
+      <c r="B154" s="86" t="s">
         <v>12</v>
       </c>
       <c r="C154" s="20" t="s">
@@ -4200,16 +4225,16 @@
       <c r="J154" s="28"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A155" s="56"/>
-      <c r="B155" s="78"/>
+      <c r="A155" s="67"/>
+      <c r="B155" s="63"/>
       <c r="C155" s="17" t="s">
         <v>110</v>
       </c>
       <c r="J155" s="29"/>
     </row>
     <row r="156" spans="1:15" ht="150" x14ac:dyDescent="0.25">
-      <c r="A156" s="56"/>
-      <c r="B156" s="78"/>
+      <c r="A156" s="67"/>
+      <c r="B156" s="63"/>
       <c r="C156" s="15" t="s">
         <v>72</v>
       </c>
@@ -4230,32 +4255,32 @@
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A157" s="56"/>
-      <c r="B157" s="78"/>
+      <c r="A157" s="67"/>
+      <c r="B157" s="63"/>
       <c r="C157" s="15" t="s">
         <v>114</v>
       </c>
       <c r="J157" s="29"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A158" s="56"/>
-      <c r="B158" s="78"/>
+      <c r="A158" s="67"/>
+      <c r="B158" s="63"/>
       <c r="C158" s="17" t="s">
         <v>103</v>
       </c>
       <c r="J158" s="29"/>
     </row>
     <row r="159" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="56"/>
-      <c r="B159" s="78"/>
+      <c r="A159" s="67"/>
+      <c r="B159" s="63"/>
       <c r="C159" s="18" t="s">
         <v>43</v>
       </c>
       <c r="J159" s="29"/>
     </row>
     <row r="160" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="56"/>
-      <c r="B160" s="79"/>
+      <c r="A160" s="67"/>
+      <c r="B160" s="64"/>
       <c r="C160" s="39"/>
       <c r="D160" s="31"/>
       <c r="E160" s="49"/>
@@ -4266,8 +4291,8 @@
       <c r="J160" s="32"/>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" s="56"/>
-      <c r="B161" s="88" t="s">
+      <c r="A161" s="67"/>
+      <c r="B161" s="57" t="s">
         <v>13</v>
       </c>
       <c r="C161" s="12" t="s">
@@ -4282,8 +4307,8 @@
       <c r="J161" s="28"/>
     </row>
     <row r="162" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A162" s="56"/>
-      <c r="B162" s="75"/>
+      <c r="A162" s="67"/>
+      <c r="B162" s="58"/>
       <c r="C162" s="22" t="s">
         <v>70</v>
       </c>
@@ -4301,8 +4326,8 @@
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" s="56"/>
-      <c r="B163" s="75"/>
+      <c r="A163" s="67"/>
+      <c r="B163" s="58"/>
       <c r="C163" s="22" t="s">
         <v>115</v>
       </c>
@@ -4312,32 +4337,32 @@
       <c r="J163" s="29"/>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164" s="56"/>
-      <c r="B164" s="75"/>
+      <c r="A164" s="67"/>
+      <c r="B164" s="58"/>
       <c r="C164" s="22" t="s">
         <v>116</v>
       </c>
       <c r="J164" s="29"/>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" s="56"/>
-      <c r="B165" s="75"/>
+      <c r="A165" s="67"/>
+      <c r="B165" s="58"/>
       <c r="C165" s="13" t="s">
         <v>103</v>
       </c>
       <c r="J165" s="29"/>
     </row>
     <row r="166" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="56"/>
-      <c r="B166" s="75"/>
+      <c r="A166" s="67"/>
+      <c r="B166" s="58"/>
       <c r="C166" s="19" t="s">
         <v>43</v>
       </c>
       <c r="J166" s="29"/>
     </row>
     <row r="167" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="56"/>
-      <c r="B167" s="76"/>
+      <c r="A167" s="67"/>
+      <c r="B167" s="59"/>
       <c r="C167" s="41"/>
       <c r="D167" s="31"/>
       <c r="E167" s="49"/>
@@ -4348,8 +4373,8 @@
       <c r="J167" s="32"/>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" s="56"/>
-      <c r="B168" s="52" t="s">
+      <c r="A168" s="67"/>
+      <c r="B168" s="60" t="s">
         <v>14</v>
       </c>
       <c r="C168" s="14" t="s">
@@ -4364,8 +4389,8 @@
       <c r="J168" s="28"/>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" s="56"/>
-      <c r="B169" s="53"/>
+      <c r="A169" s="67"/>
+      <c r="B169" s="61"/>
       <c r="C169" s="15" t="s">
         <v>117</v>
       </c>
@@ -4383,16 +4408,16 @@
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170" s="56"/>
-      <c r="B170" s="53"/>
+      <c r="A170" s="67"/>
+      <c r="B170" s="61"/>
       <c r="C170" s="17" t="s">
         <v>103</v>
       </c>
       <c r="J170" s="29"/>
     </row>
     <row r="171" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="56"/>
-      <c r="B171" s="54"/>
+      <c r="A171" s="67"/>
+      <c r="B171" s="62"/>
       <c r="C171" s="18" t="s">
         <v>43</v>
       </c>
@@ -4405,8 +4430,8 @@
       <c r="J171" s="32"/>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" s="56"/>
-      <c r="B172" s="88" t="s">
+      <c r="A172" s="67"/>
+      <c r="B172" s="57" t="s">
         <v>15</v>
       </c>
       <c r="C172" s="12" t="s">
@@ -4421,16 +4446,16 @@
       <c r="J172" s="28"/>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173" s="56"/>
-      <c r="B173" s="75"/>
+      <c r="A173" s="67"/>
+      <c r="B173" s="58"/>
       <c r="C173" s="13" t="s">
         <v>90</v>
       </c>
       <c r="J173" s="29"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" s="56"/>
-      <c r="B174" s="75"/>
+      <c r="A174" s="67"/>
+      <c r="B174" s="58"/>
       <c r="C174" s="13" t="s">
         <v>118</v>
       </c>
@@ -4448,24 +4473,24 @@
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" s="56"/>
-      <c r="B175" s="75"/>
+      <c r="A175" s="67"/>
+      <c r="B175" s="58"/>
       <c r="C175" s="13" t="s">
         <v>103</v>
       </c>
       <c r="J175" s="29"/>
     </row>
     <row r="176" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="56"/>
-      <c r="B176" s="75"/>
+      <c r="A176" s="67"/>
+      <c r="B176" s="58"/>
       <c r="C176" s="19" t="s">
         <v>43</v>
       </c>
       <c r="J176" s="29"/>
     </row>
     <row r="177" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="56"/>
-      <c r="B177" s="76"/>
+      <c r="A177" s="67"/>
+      <c r="B177" s="59"/>
       <c r="C177" s="41"/>
       <c r="D177" s="31"/>
       <c r="E177" s="49"/>
@@ -4476,8 +4501,8 @@
       <c r="J177" s="32"/>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178" s="56"/>
-      <c r="B178" s="78" t="s">
+      <c r="A178" s="67"/>
+      <c r="B178" s="63" t="s">
         <v>16</v>
       </c>
       <c r="C178" s="40" t="s">
@@ -4486,16 +4511,16 @@
       <c r="J178" s="42"/>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179" s="56"/>
-      <c r="B179" s="78"/>
+      <c r="A179" s="67"/>
+      <c r="B179" s="63"/>
       <c r="C179" s="17" t="s">
         <v>120</v>
       </c>
       <c r="J179" s="29"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A180" s="56"/>
-      <c r="B180" s="78"/>
+      <c r="A180" s="67"/>
+      <c r="B180" s="63"/>
       <c r="C180" s="17" t="s">
         <v>121</v>
       </c>
@@ -4513,8 +4538,8 @@
       </c>
     </row>
     <row r="181" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A181" s="56"/>
-      <c r="B181" s="78"/>
+      <c r="A181" s="67"/>
+      <c r="B181" s="63"/>
       <c r="C181" s="17"/>
       <c r="E181" s="47" t="s">
         <v>302</v>
@@ -4533,24 +4558,24 @@
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182" s="56"/>
-      <c r="B182" s="78"/>
+      <c r="A182" s="67"/>
+      <c r="B182" s="63"/>
       <c r="C182" s="17" t="s">
         <v>103</v>
       </c>
       <c r="J182" s="29"/>
     </row>
     <row r="183" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="56"/>
-      <c r="B183" s="78"/>
+      <c r="A183" s="67"/>
+      <c r="B183" s="63"/>
       <c r="C183" s="18" t="s">
         <v>43</v>
       </c>
       <c r="J183" s="29"/>
     </row>
     <row r="184" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="57"/>
-      <c r="B184" s="79"/>
+      <c r="A184" s="68"/>
+      <c r="B184" s="64"/>
       <c r="C184" s="39"/>
       <c r="D184" s="31"/>
       <c r="E184" s="49"/>
@@ -4573,12 +4598,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B161:B167"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="B172:B177"/>
-    <mergeCell ref="B178:B184"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="B140:B144"/>
     <mergeCell ref="A71:A184"/>
     <mergeCell ref="B2:B29"/>
     <mergeCell ref="B30:B36"/>
@@ -4593,6 +4612,12 @@
     <mergeCell ref="B130:B134"/>
     <mergeCell ref="B135:B139"/>
     <mergeCell ref="B154:B160"/>
+    <mergeCell ref="B161:B167"/>
+    <mergeCell ref="B168:B171"/>
+    <mergeCell ref="B172:B177"/>
+    <mergeCell ref="B178:B184"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="B140:B144"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/mapeo de tablas .xlsx
+++ b/mapeo de tablas .xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BS_Jairo\req\BS_41_nucleo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REQ\41_140_Nucleo_BI\BS_41_nucleo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF19AB20-63E2-4AA1-A1BD-0C1106338DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-6795" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-6795" windowWidth="19440" windowHeight="14385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="405">
   <si>
     <t>ODS_REF_REFERIDO</t>
   </si>
@@ -1043,11 +1043,260 @@
   <si>
     <t>f.fuenteid</t>
   </si>
+  <si>
+    <t>SASMT09</t>
+  </si>
+  <si>
+    <t>SASMT14</t>
+  </si>
+  <si>
+    <t>SASMT15</t>
+  </si>
+  <si>
+    <t>SASMT16</t>
+  </si>
+  <si>
+    <t>SASSL03</t>
+  </si>
+  <si>
+    <t>SASSL00</t>
+  </si>
+  <si>
+    <t>SASMT22</t>
+  </si>
+  <si>
+    <t>SASMT24</t>
+  </si>
+  <si>
+    <t>referido</t>
+  </si>
+  <si>
+    <t>FUENTE</t>
+  </si>
+  <si>
+    <t>categoria_producto</t>
+  </si>
+  <si>
+    <t>VOLUMENPRIMANETA</t>
+  </si>
+  <si>
+    <t>VIDA</t>
+  </si>
+  <si>
+    <t>VARIANTE_VEHICULO</t>
+  </si>
+  <si>
+    <t>USUARIOIDMODIFICA</t>
+  </si>
+  <si>
+    <t>USO_VEHICULO</t>
+  </si>
+  <si>
+    <t>TIPOREFERIDO</t>
+  </si>
+  <si>
+    <t>TIPO_VOLANTE</t>
+  </si>
+  <si>
+    <t>TIPO_VEHICULO</t>
+  </si>
+  <si>
+    <t>TELEFONOFICINA</t>
+  </si>
+  <si>
+    <t>TELEFONO_PARTICULAR</t>
+  </si>
+  <si>
+    <t>SUB_MODELO_VEHICULO</t>
+  </si>
+  <si>
+    <t>SPAM</t>
+  </si>
+  <si>
+    <t>SOAT</t>
+  </si>
+  <si>
+    <t>SERIE_VEHICULO</t>
+  </si>
+  <si>
+    <t>SEGURO_PEDIR</t>
+  </si>
+  <si>
+    <t>SEGMENTOCOMERCIAL</t>
+  </si>
+  <si>
+    <t>SCTRSALUD</t>
+  </si>
+  <si>
+    <t>SCTR</t>
+  </si>
+  <si>
+    <t>SALUD</t>
+  </si>
+  <si>
+    <t>REFERIDOIDPADRE</t>
+  </si>
+  <si>
+    <t>PRIMA_VEHICULO</t>
+  </si>
+  <si>
+    <t>PREVIOUS_VISIT</t>
+  </si>
+  <si>
+    <t>PRECIO_VEHICULO</t>
+  </si>
+  <si>
+    <t>PLANTILLAID</t>
+  </si>
+  <si>
+    <t>PAGES_VIEWED</t>
+  </si>
+  <si>
+    <t>OFICINA</t>
+  </si>
+  <si>
+    <t>MULTIRIESGO</t>
+  </si>
+  <si>
+    <t>MOTOR_VEHICULO</t>
+  </si>
+  <si>
+    <t>MOTIVO_SUPLEMENTO</t>
+  </si>
+  <si>
+    <t>MODELO_VEHICULO</t>
+  </si>
+  <si>
+    <t>MODELO_ADICIONAL_VEHICULO</t>
+  </si>
+  <si>
+    <t>MARCA_VEHICULO</t>
+  </si>
+  <si>
+    <t>LANDINGID</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>HOGAR</t>
+  </si>
+  <si>
+    <t>GENERALES</t>
+  </si>
+  <si>
+    <t>GCLID</t>
+  </si>
+  <si>
+    <t>FECHAPROCESOJSON</t>
+  </si>
+  <si>
+    <t>FECHA_EFECTIVA</t>
+  </si>
+  <si>
+    <t>FAX</t>
+  </si>
+  <si>
+    <t>FABRICACION</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>EN_COLA</t>
+  </si>
+  <si>
+    <t>EMAIL_ENVIADO</t>
+  </si>
+  <si>
+    <t>DECESOS</t>
+  </si>
+  <si>
+    <t>CONSENTIMIENTO</t>
+  </si>
+  <si>
+    <t>COD_SUBSECTOR</t>
+  </si>
+  <si>
+    <t>COD_SECTOR</t>
+  </si>
+  <si>
+    <t>COD_RAMO</t>
+  </si>
+  <si>
+    <t>COD_PRODUCTOR</t>
+  </si>
+  <si>
+    <t>COD_MODALIDAD</t>
+  </si>
+  <si>
+    <t>COD_CIA</t>
+  </si>
+  <si>
+    <t>COD_AGT</t>
+  </si>
+  <si>
+    <t>CLIENTEMAPFRE</t>
+  </si>
+  <si>
+    <t>CARTERAID</t>
+  </si>
+  <si>
+    <t>CANTIDADPOLIZAS</t>
+  </si>
+  <si>
+    <t>CAMPAIGN_TERM</t>
+  </si>
+  <si>
+    <t>CAMPAIGN_CONTENT</t>
+  </si>
+  <si>
+    <t>AUTOS</t>
+  </si>
+  <si>
+    <t>ATTIPODOCUMENTO</t>
+  </si>
+  <si>
+    <t>ATNRODOCUMENTO</t>
+  </si>
+  <si>
+    <t>ATNOMBRE</t>
+  </si>
+  <si>
+    <t>ATEMAIL</t>
+  </si>
+  <si>
+    <t>ATCODAGT</t>
+  </si>
+  <si>
+    <t>ATAPELLIDOPATERNO</t>
+  </si>
+  <si>
+    <t>ATAPELLIDOMATERNO</t>
+  </si>
+  <si>
+    <t>ASIGAUTOMATICO</t>
+  </si>
+  <si>
+    <t>ANTIGUOAGENTE</t>
+  </si>
+  <si>
+    <t>ANIO_VEHICULO</t>
+  </si>
+  <si>
+    <t>AGENCIAMIENTO</t>
+  </si>
+  <si>
+    <t>ACCIDENTES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1704,7 +1953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1770,33 +2019,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1857,7 +2079,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1875,6 +2109,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1884,6 +2127,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2163,11 +2414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2206,10 +2457,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2223,8 +2474,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
-      <c r="B3" s="70"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
@@ -2243,8 +2494,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="70"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2256,8 +2507,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="70"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2272,11 +2523,14 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
-      <c r="B6" s="70"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E6" s="47" t="s">
+        <v>330</v>
+      </c>
       <c r="F6" t="s">
         <v>137</v>
       </c>
@@ -2285,8 +2539,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="88"/>
-      <c r="B7" s="70"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2298,8 +2552,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="70"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2311,8 +2565,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="88"/>
-      <c r="B9" s="70"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
@@ -2324,8 +2578,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
-      <c r="B10" s="70"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
@@ -2337,8 +2591,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="88"/>
-      <c r="B11" s="70"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
@@ -2350,8 +2604,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="70"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
@@ -2363,8 +2617,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
@@ -2376,8 +2630,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="70"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2643,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
-      <c r="B15" s="70"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
@@ -2402,8 +2656,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="70"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2415,8 +2669,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="70"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2428,8 +2682,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="B18" s="70"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
@@ -2441,8 +2695,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
-      <c r="B19" s="70"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
@@ -2454,8 +2708,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
-      <c r="B20" s="70"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="2" t="s">
         <v>35</v>
       </c>
@@ -2467,8 +2721,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
-      <c r="B21" s="70"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="2" t="s">
         <v>36</v>
       </c>
@@ -2480,8 +2734,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
-      <c r="B22" s="70"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
@@ -2493,8 +2747,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="88"/>
-      <c r="B23" s="70"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
@@ -2506,8 +2760,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="88"/>
-      <c r="B24" s="70"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="2" t="s">
         <v>39</v>
       </c>
@@ -2519,8 +2773,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="88"/>
-      <c r="B25" s="70"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
@@ -2532,8 +2786,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="88"/>
-      <c r="B26" s="70"/>
+      <c r="A26" s="83"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
@@ -2545,8 +2799,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="88"/>
-      <c r="B27" s="70"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
@@ -2558,22 +2812,22 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="88"/>
-      <c r="B28" s="70"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="88"/>
-      <c r="B29" s="70"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="3"/>
       <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="88"/>
-      <c r="B30" s="71" t="s">
+      <c r="A30" s="83"/>
+      <c r="B30" s="62" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="26" t="s">
@@ -2590,16 +2844,16 @@
       <c r="J30" s="28"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="88"/>
-      <c r="B31" s="72"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="4" t="s">
         <v>44</v>
       </c>
       <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="88"/>
-      <c r="B32" s="72"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="4" t="s">
         <v>45</v>
       </c>
@@ -2614,32 +2868,35 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="88"/>
-      <c r="B33" s="72"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="63"/>
       <c r="C33" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="E33" s="47" t="s">
+        <v>331</v>
+      </c>
       <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="88"/>
-      <c r="B34" s="72"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="63"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
       <c r="J34" s="29"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="88"/>
-      <c r="B35" s="72"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="63"/>
       <c r="C35" s="4" t="s">
         <v>43</v>
       </c>
       <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="88"/>
-      <c r="B36" s="73"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="30"/>
       <c r="D36" s="31"/>
       <c r="E36" s="49"/>
@@ -2650,8 +2907,8 @@
       <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="88"/>
-      <c r="B37" s="74" t="s">
+      <c r="A37" s="83"/>
+      <c r="B37" s="65" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="33" t="s">
@@ -2670,8 +2927,8 @@
       <c r="J37" s="28"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="88"/>
-      <c r="B38" s="75"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="66"/>
       <c r="C38" s="5" t="s">
         <v>47</v>
       </c>
@@ -2686,8 +2943,8 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="88"/>
-      <c r="B39" s="75"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="5" t="s">
         <v>48</v>
       </c>
@@ -2699,8 +2956,8 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="88"/>
-      <c r="B40" s="75"/>
+      <c r="A40" s="83"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="5" t="s">
         <v>45</v>
       </c>
@@ -2724,8 +2981,8 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="88"/>
-      <c r="B41" s="75"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="5" t="s">
         <v>49</v>
       </c>
@@ -2737,16 +2994,16 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="88"/>
-      <c r="B42" s="75"/>
+      <c r="A42" s="83"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="5" t="s">
         <v>50</v>
       </c>
       <c r="J42" s="29"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="88"/>
-      <c r="B43" s="75"/>
+      <c r="A43" s="83"/>
+      <c r="B43" s="66"/>
       <c r="C43" s="5" t="s">
         <v>51</v>
       </c>
@@ -2758,8 +3015,8 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="88"/>
-      <c r="B44" s="75"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="66"/>
       <c r="C44" s="5" t="s">
         <v>52</v>
       </c>
@@ -2771,16 +3028,16 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="88"/>
-      <c r="B45" s="75"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="5" t="s">
         <v>53</v>
       </c>
       <c r="J45" s="29"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="88"/>
-      <c r="B46" s="75"/>
+      <c r="A46" s="83"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="5" t="s">
         <v>54</v>
       </c>
@@ -2792,32 +3049,32 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="88"/>
-      <c r="B47" s="75"/>
+      <c r="A47" s="83"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J47" s="29"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="88"/>
-      <c r="B48" s="75"/>
+      <c r="A48" s="83"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J48" s="29"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="88"/>
-      <c r="B49" s="75"/>
+      <c r="A49" s="83"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="5" t="s">
         <v>43</v>
       </c>
       <c r="J49" s="29"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="88"/>
-      <c r="B50" s="76"/>
+      <c r="A50" s="83"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="34" t="s">
         <v>55</v>
       </c>
@@ -2834,8 +3091,8 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="88"/>
-      <c r="B51" s="77" t="s">
+      <c r="A51" s="83"/>
+      <c r="B51" s="68" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="35" t="s">
@@ -2852,32 +3109,32 @@
       <c r="J51" s="28"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="88"/>
-      <c r="B52" s="78"/>
+      <c r="A52" s="83"/>
+      <c r="B52" s="69"/>
       <c r="C52" s="7" t="s">
         <v>56</v>
       </c>
       <c r="J52" s="29"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="88"/>
-      <c r="B53" s="78"/>
+      <c r="A53" s="83"/>
+      <c r="B53" s="69"/>
       <c r="C53" s="7" t="s">
         <v>57</v>
       </c>
       <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="88"/>
-      <c r="B54" s="78"/>
+      <c r="A54" s="83"/>
+      <c r="B54" s="69"/>
       <c r="C54" s="7" t="s">
         <v>58</v>
       </c>
       <c r="J54" s="29"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="88"/>
-      <c r="B55" s="78"/>
+      <c r="A55" s="83"/>
+      <c r="B55" s="69"/>
       <c r="C55" s="7" t="s">
         <v>45</v>
       </c>
@@ -2892,24 +3149,24 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="88"/>
-      <c r="B56" s="78"/>
+      <c r="A56" s="83"/>
+      <c r="B56" s="69"/>
       <c r="C56" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J56" s="29"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="88"/>
-      <c r="B57" s="78"/>
+      <c r="A57" s="83"/>
+      <c r="B57" s="69"/>
       <c r="C57" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J57" s="29"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="88"/>
-      <c r="B58" s="79"/>
+      <c r="A58" s="83"/>
+      <c r="B58" s="70"/>
       <c r="C58" s="36" t="s">
         <v>43</v>
       </c>
@@ -2922,8 +3179,8 @@
       <c r="J58" s="32"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="88"/>
-      <c r="B59" s="80" t="s">
+      <c r="A59" s="83"/>
+      <c r="B59" s="71" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="37" t="s">
@@ -2940,8 +3197,8 @@
       <c r="J59" s="28"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="88"/>
-      <c r="B60" s="81"/>
+      <c r="A60" s="83"/>
+      <c r="B60" s="72"/>
       <c r="C60" s="8" t="s">
         <v>45</v>
       </c>
@@ -2954,24 +3211,27 @@
       <c r="J60" s="29"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="88"/>
-      <c r="B61" s="81"/>
+      <c r="A61" s="83"/>
+      <c r="B61" s="72"/>
       <c r="C61" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="E61" s="47" t="s">
+        <v>332</v>
+      </c>
       <c r="J61" s="29"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="88"/>
-      <c r="B62" s="81"/>
+      <c r="A62" s="83"/>
+      <c r="B62" s="72"/>
       <c r="C62" s="8" t="s">
         <v>46</v>
       </c>
       <c r="J62" s="29"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="88"/>
-      <c r="B63" s="82"/>
+      <c r="A63" s="83"/>
+      <c r="B63" s="73"/>
       <c r="C63" s="38" t="s">
         <v>43</v>
       </c>
@@ -2984,8 +3244,8 @@
       <c r="J63" s="32"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="88"/>
-      <c r="B64" s="83" t="s">
+      <c r="A64" s="83"/>
+      <c r="B64" s="74" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="33" t="s">
@@ -3002,16 +3262,16 @@
       <c r="J64" s="28"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="88"/>
-      <c r="B65" s="84"/>
+      <c r="A65" s="83"/>
+      <c r="B65" s="75"/>
       <c r="C65" s="5" t="s">
         <v>59</v>
       </c>
       <c r="J65" s="29"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="88"/>
-      <c r="B66" s="84"/>
+      <c r="A66" s="83"/>
+      <c r="B66" s="75"/>
       <c r="C66" s="5" t="s">
         <v>45</v>
       </c>
@@ -3026,32 +3286,32 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="88"/>
-      <c r="B67" s="84"/>
+      <c r="A67" s="83"/>
+      <c r="B67" s="75"/>
       <c r="C67" s="5" t="s">
         <v>60</v>
       </c>
       <c r="J67" s="29"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="88"/>
-      <c r="B68" s="84"/>
+      <c r="A68" s="83"/>
+      <c r="B68" s="75"/>
       <c r="C68" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J68" s="29"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="88"/>
-      <c r="B69" s="84"/>
+      <c r="A69" s="83"/>
+      <c r="B69" s="75"/>
       <c r="C69" s="5" t="s">
         <v>46</v>
       </c>
       <c r="J69" s="29"/>
     </row>
     <row r="70" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="88"/>
-      <c r="B70" s="85"/>
+      <c r="A70" s="83"/>
+      <c r="B70" s="76"/>
       <c r="C70" s="34" t="s">
         <v>43</v>
       </c>
@@ -3064,10 +3324,10 @@
       <c r="J70" s="32"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="66" t="s">
+      <c r="A71" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="B71" s="86" t="s">
+      <c r="B71" s="79" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="43" t="s">
@@ -3092,8 +3352,8 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="67"/>
-      <c r="B72" s="63"/>
+      <c r="A72" s="58"/>
+      <c r="B72" s="80"/>
       <c r="C72" s="9" t="s">
         <v>61</v>
       </c>
@@ -3109,14 +3369,14 @@
       <c r="M72" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="N72" s="65" t="s">
+      <c r="N72" s="94" t="s">
         <v>214</v>
       </c>
       <c r="O72" s="45"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="67"/>
-      <c r="B73" s="63"/>
+      <c r="A73" s="58"/>
+      <c r="B73" s="80"/>
       <c r="C73" s="9" t="s">
         <v>62</v>
       </c>
@@ -3132,14 +3392,14 @@
       <c r="M73" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="N73" s="65"/>
+      <c r="N73" s="94"/>
       <c r="O73" s="45">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="67"/>
-      <c r="B74" s="63"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="80"/>
       <c r="C74" s="9" t="s">
         <v>63</v>
       </c>
@@ -3154,8 +3414,8 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="67"/>
-      <c r="B75" s="63"/>
+      <c r="A75" s="58"/>
+      <c r="B75" s="80"/>
       <c r="C75" s="9" t="s">
         <v>64</v>
       </c>
@@ -3176,8 +3436,8 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="67"/>
-      <c r="B76" s="63"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="80"/>
       <c r="C76" s="9" t="s">
         <v>65</v>
       </c>
@@ -3192,8 +3452,8 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
-      <c r="B77" s="63"/>
+      <c r="A77" s="58"/>
+      <c r="B77" s="80"/>
       <c r="C77" s="9" t="s">
         <v>66</v>
       </c>
@@ -3211,9 +3471,12 @@
       </c>
     </row>
     <row r="78" spans="1:15" ht="255" x14ac:dyDescent="0.25">
-      <c r="A78" s="67"/>
-      <c r="B78" s="63"/>
+      <c r="A78" s="58"/>
+      <c r="B78" s="80"/>
       <c r="C78" s="9"/>
+      <c r="E78" s="47" t="s">
+        <v>327</v>
+      </c>
       <c r="F78" s="47" t="s">
         <v>273</v>
       </c>
@@ -3225,8 +3488,8 @@
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="67"/>
-      <c r="B79" s="63"/>
+      <c r="A79" s="58"/>
+      <c r="B79" s="80"/>
       <c r="C79" s="9" t="s">
         <v>67</v>
       </c>
@@ -3242,24 +3505,24 @@
       <c r="L79" s="45"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="67"/>
-      <c r="B80" s="63"/>
+      <c r="A80" s="58"/>
+      <c r="B80" s="80"/>
       <c r="C80" s="9" t="s">
         <v>68</v>
       </c>
       <c r="J80" s="29"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="67"/>
-      <c r="B81" s="63"/>
+      <c r="A81" s="58"/>
+      <c r="B81" s="80"/>
       <c r="C81" s="9" t="s">
         <v>69</v>
       </c>
       <c r="J81" s="29"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="67"/>
-      <c r="B82" s="63"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="80"/>
       <c r="C82" s="9" t="s">
         <v>70</v>
       </c>
@@ -3274,8 +3537,8 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="67"/>
-      <c r="B83" s="63"/>
+      <c r="A83" s="58"/>
+      <c r="B83" s="80"/>
       <c r="C83" s="9" t="s">
         <v>71</v>
       </c>
@@ -3290,8 +3553,8 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="67"/>
-      <c r="B84" s="63"/>
+      <c r="A84" s="58"/>
+      <c r="B84" s="80"/>
       <c r="C84" s="9" t="s">
         <v>72</v>
       </c>
@@ -3306,8 +3569,8 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="67"/>
-      <c r="B85" s="63"/>
+      <c r="A85" s="58"/>
+      <c r="B85" s="80"/>
       <c r="C85" s="9" t="s">
         <v>73</v>
       </c>
@@ -3322,8 +3585,8 @@
       </c>
     </row>
     <row r="86" spans="1:13" ht="225" x14ac:dyDescent="0.25">
-      <c r="A86" s="67"/>
-      <c r="B86" s="63"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="80"/>
       <c r="C86" s="9" t="s">
         <v>74</v>
       </c>
@@ -3341,16 +3604,16 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="67"/>
-      <c r="B87" s="63"/>
+      <c r="A87" s="58"/>
+      <c r="B87" s="80"/>
       <c r="C87" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J87" s="29"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="67"/>
-      <c r="B88" s="63"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="80"/>
       <c r="C88" s="9" t="s">
         <v>76</v>
       </c>
@@ -3368,8 +3631,8 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="67"/>
-      <c r="B89" s="63"/>
+      <c r="A89" s="58"/>
+      <c r="B89" s="80"/>
       <c r="C89" s="9" t="s">
         <v>77</v>
       </c>
@@ -3384,8 +3647,8 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="67"/>
-      <c r="B90" s="63"/>
+      <c r="A90" s="58"/>
+      <c r="B90" s="80"/>
       <c r="C90" s="9" t="s">
         <v>78</v>
       </c>
@@ -3400,8 +3663,8 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="67"/>
-      <c r="B91" s="63"/>
+      <c r="A91" s="58"/>
+      <c r="B91" s="80"/>
       <c r="C91" s="9" t="s">
         <v>79</v>
       </c>
@@ -3416,24 +3679,24 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="67"/>
-      <c r="B92" s="63"/>
+      <c r="A92" s="58"/>
+      <c r="B92" s="80"/>
       <c r="C92" s="10" t="s">
         <v>43</v>
       </c>
       <c r="J92" s="29"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="67"/>
-      <c r="B93" s="63"/>
+      <c r="A93" s="58"/>
+      <c r="B93" s="80"/>
       <c r="C93" s="11" t="s">
         <v>80</v>
       </c>
       <c r="J93" s="29"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="67"/>
-      <c r="B94" s="63"/>
+      <c r="A94" s="58"/>
+      <c r="B94" s="80"/>
       <c r="C94" s="54"/>
       <c r="J94" s="55"/>
       <c r="K94" t="s">
@@ -3444,14 +3707,14 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="67"/>
-      <c r="B95" s="63"/>
+      <c r="A95" s="58"/>
+      <c r="B95" s="80"/>
       <c r="C95" s="54"/>
       <c r="J95" s="55"/>
     </row>
     <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="67"/>
-      <c r="B96" s="64"/>
+      <c r="A96" s="58"/>
+      <c r="B96" s="81"/>
       <c r="C96" s="39"/>
       <c r="D96" s="31"/>
       <c r="E96" s="49"/>
@@ -3462,8 +3725,8 @@
       <c r="J96" s="32"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="67"/>
-      <c r="B97" s="89" t="s">
+      <c r="A97" s="58"/>
+      <c r="B97" s="84" t="s">
         <v>7</v>
       </c>
       <c r="C97" s="12" t="s">
@@ -3478,24 +3741,24 @@
       <c r="J97" s="28"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="67"/>
-      <c r="B98" s="90"/>
+      <c r="A98" s="58"/>
+      <c r="B98" s="85"/>
       <c r="C98" s="13" t="s">
         <v>67</v>
       </c>
       <c r="J98" s="29"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="67"/>
-      <c r="B99" s="90"/>
+      <c r="A99" s="58"/>
+      <c r="B99" s="85"/>
       <c r="C99" s="13" t="s">
         <v>65</v>
       </c>
       <c r="J99" s="29"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="67"/>
-      <c r="B100" s="90"/>
+      <c r="A100" s="58"/>
+      <c r="B100" s="85"/>
       <c r="C100" s="13" t="s">
         <v>81</v>
       </c>
@@ -3508,8 +3771,8 @@
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" s="67"/>
-      <c r="B101" s="90"/>
+      <c r="A101" s="58"/>
+      <c r="B101" s="85"/>
       <c r="C101" s="13" t="s">
         <v>82</v>
       </c>
@@ -3527,9 +3790,12 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" s="67"/>
-      <c r="B102" s="90"/>
+      <c r="A102" s="58"/>
+      <c r="B102" s="85"/>
       <c r="C102" s="51"/>
+      <c r="E102" s="47" t="s">
+        <v>326</v>
+      </c>
       <c r="F102" t="s">
         <v>246</v>
       </c>
@@ -3541,8 +3807,8 @@
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="67"/>
-      <c r="B103" s="90"/>
+      <c r="A103" s="58"/>
+      <c r="B103" s="85"/>
       <c r="F103" t="s">
         <v>246</v>
       </c>
@@ -3554,8 +3820,8 @@
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" s="67"/>
-      <c r="B104" s="90"/>
+      <c r="A104" s="58"/>
+      <c r="B104" s="85"/>
       <c r="C104" s="13" t="s">
         <v>83</v>
       </c>
@@ -3570,8 +3836,8 @@
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" s="67"/>
-      <c r="B105" s="90"/>
+      <c r="A105" s="58"/>
+      <c r="B105" s="85"/>
       <c r="C105" s="13"/>
       <c r="F105" t="s">
         <v>247</v>
@@ -3584,8 +3850,8 @@
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" s="67"/>
-      <c r="B106" s="90"/>
+      <c r="A106" s="58"/>
+      <c r="B106" s="85"/>
       <c r="C106" s="13" t="s">
         <v>84</v>
       </c>
@@ -3600,16 +3866,16 @@
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" s="67"/>
-      <c r="B107" s="90"/>
+      <c r="A107" s="58"/>
+      <c r="B107" s="85"/>
       <c r="C107" s="13" t="s">
         <v>85</v>
       </c>
       <c r="J107" s="29"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" s="67"/>
-      <c r="B108" s="90"/>
+      <c r="A108" s="58"/>
+      <c r="B108" s="85"/>
       <c r="C108" s="13" t="s">
         <v>86</v>
       </c>
@@ -3624,8 +3890,8 @@
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" s="67"/>
-      <c r="B109" s="90"/>
+      <c r="A109" s="58"/>
+      <c r="B109" s="85"/>
       <c r="C109" s="13" t="s">
         <v>87</v>
       </c>
@@ -3644,8 +3910,8 @@
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="67"/>
-      <c r="B110" s="90"/>
+      <c r="A110" s="58"/>
+      <c r="B110" s="85"/>
       <c r="C110" s="13" t="s">
         <v>88</v>
       </c>
@@ -3660,8 +3926,8 @@
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" s="67"/>
-      <c r="B111" s="90"/>
+      <c r="A111" s="58"/>
+      <c r="B111" s="85"/>
       <c r="C111" s="13" t="s">
         <v>89</v>
       </c>
@@ -3676,16 +3942,16 @@
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" s="67"/>
-      <c r="B112" s="90"/>
+      <c r="A112" s="58"/>
+      <c r="B112" s="85"/>
       <c r="C112" s="13" t="s">
         <v>90</v>
       </c>
       <c r="J112" s="29"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="67"/>
-      <c r="B113" s="90"/>
+      <c r="A113" s="58"/>
+      <c r="B113" s="85"/>
       <c r="C113" s="13" t="s">
         <v>91</v>
       </c>
@@ -3707,8 +3973,8 @@
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="67"/>
-      <c r="B114" s="90"/>
+      <c r="A114" s="58"/>
+      <c r="B114" s="85"/>
       <c r="C114" s="13" t="s">
         <v>92</v>
       </c>
@@ -3726,8 +3992,8 @@
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115" s="67"/>
-      <c r="B115" s="90"/>
+      <c r="A115" s="58"/>
+      <c r="B115" s="85"/>
       <c r="C115" s="13" t="s">
         <v>93</v>
       </c>
@@ -3742,8 +4008,8 @@
       </c>
     </row>
     <row r="116" spans="1:16" ht="150" x14ac:dyDescent="0.25">
-      <c r="A116" s="67"/>
-      <c r="B116" s="90"/>
+      <c r="A116" s="58"/>
+      <c r="B116" s="85"/>
       <c r="C116" s="13" t="s">
         <v>94</v>
       </c>
@@ -3758,8 +4024,8 @@
       </c>
     </row>
     <row r="117" spans="1:16" ht="180" x14ac:dyDescent="0.25">
-      <c r="A117" s="67"/>
-      <c r="B117" s="90"/>
+      <c r="A117" s="58"/>
+      <c r="B117" s="85"/>
       <c r="C117" s="13" t="s">
         <v>95</v>
       </c>
@@ -3774,8 +4040,8 @@
       </c>
     </row>
     <row r="118" spans="1:16" ht="195" x14ac:dyDescent="0.25">
-      <c r="A118" s="67"/>
-      <c r="B118" s="90"/>
+      <c r="A118" s="58"/>
+      <c r="B118" s="85"/>
       <c r="C118" s="13" t="s">
         <v>96</v>
       </c>
@@ -3790,8 +4056,8 @@
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="67"/>
-      <c r="B119" s="90"/>
+      <c r="A119" s="58"/>
+      <c r="B119" s="85"/>
       <c r="C119" s="13" t="s">
         <v>97</v>
       </c>
@@ -3806,8 +4072,8 @@
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="67"/>
-      <c r="B120" s="90"/>
+      <c r="A120" s="58"/>
+      <c r="B120" s="85"/>
       <c r="C120" s="13" t="s">
         <v>98</v>
       </c>
@@ -3822,8 +4088,8 @@
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="67"/>
-      <c r="B121" s="90"/>
+      <c r="A121" s="58"/>
+      <c r="B121" s="85"/>
       <c r="C121" s="13" t="s">
         <v>99</v>
       </c>
@@ -3838,8 +4104,8 @@
       </c>
     </row>
     <row r="122" spans="1:16" ht="135" x14ac:dyDescent="0.25">
-      <c r="A122" s="67"/>
-      <c r="B122" s="90"/>
+      <c r="A122" s="58"/>
+      <c r="B122" s="85"/>
       <c r="C122" s="13" t="s">
         <v>100</v>
       </c>
@@ -3854,8 +4120,8 @@
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="67"/>
-      <c r="B123" s="90"/>
+      <c r="A123" s="58"/>
+      <c r="B123" s="85"/>
       <c r="C123" s="13" t="s">
         <v>101</v>
       </c>
@@ -3870,48 +4136,48 @@
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="67"/>
-      <c r="B124" s="90"/>
+      <c r="A124" s="58"/>
+      <c r="B124" s="85"/>
       <c r="C124" s="50" t="s">
         <v>110</v>
       </c>
       <c r="J124" s="29"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="67"/>
-      <c r="B125" s="90"/>
+      <c r="A125" s="58"/>
+      <c r="B125" s="85"/>
       <c r="C125" s="13" t="s">
         <v>102</v>
       </c>
       <c r="J125" s="29"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="67"/>
-      <c r="B126" s="90"/>
+      <c r="A126" s="58"/>
+      <c r="B126" s="85"/>
       <c r="C126" s="13" t="s">
         <v>103</v>
       </c>
       <c r="J126" s="29"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="67"/>
-      <c r="B127" s="90"/>
+      <c r="A127" s="58"/>
+      <c r="B127" s="85"/>
       <c r="C127" s="13" t="s">
         <v>104</v>
       </c>
       <c r="J127" s="29"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="67"/>
-      <c r="B128" s="90"/>
+      <c r="A128" s="58"/>
+      <c r="B128" s="85"/>
       <c r="C128" s="13" t="s">
         <v>43</v>
       </c>
       <c r="J128" s="29"/>
     </row>
     <row r="129" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="67"/>
-      <c r="B129" s="91"/>
+      <c r="A129" s="58"/>
+      <c r="B129" s="86"/>
       <c r="C129" s="19"/>
       <c r="D129" s="31"/>
       <c r="E129" s="49"/>
@@ -3922,8 +4188,8 @@
       <c r="J129" s="32"/>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A130" s="67"/>
-      <c r="B130" s="60" t="s">
+      <c r="A130" s="58"/>
+      <c r="B130" s="87" t="s">
         <v>8</v>
       </c>
       <c r="C130" s="14" t="s">
@@ -3938,16 +4204,16 @@
       <c r="J130" s="28"/>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A131" s="67"/>
-      <c r="B131" s="61"/>
+      <c r="A131" s="58"/>
+      <c r="B131" s="88"/>
       <c r="C131" s="15" t="s">
         <v>105</v>
       </c>
       <c r="J131" s="29"/>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A132" s="67"/>
-      <c r="B132" s="61"/>
+      <c r="A132" s="58"/>
+      <c r="B132" s="88"/>
       <c r="C132" s="15" t="s">
         <v>102</v>
       </c>
@@ -3957,16 +4223,16 @@
       <c r="J132" s="29"/>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A133" s="67"/>
-      <c r="B133" s="61"/>
+      <c r="A133" s="58"/>
+      <c r="B133" s="88"/>
       <c r="C133" s="15" t="s">
         <v>103</v>
       </c>
       <c r="J133" s="29"/>
     </row>
     <row r="134" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="67"/>
-      <c r="B134" s="62"/>
+      <c r="A134" s="58"/>
+      <c r="B134" s="89"/>
       <c r="C134" s="16" t="s">
         <v>43</v>
       </c>
@@ -3979,8 +4245,8 @@
       <c r="J134" s="32"/>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A135" s="67"/>
-      <c r="B135" s="92" t="s">
+      <c r="A135" s="58"/>
+      <c r="B135" s="90" t="s">
         <v>9</v>
       </c>
       <c r="C135" s="12" t="s">
@@ -4004,8 +4270,8 @@
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A136" s="67"/>
-      <c r="B136" s="93"/>
+      <c r="A136" s="58"/>
+      <c r="B136" s="91"/>
       <c r="C136" s="13" t="s">
         <v>106</v>
       </c>
@@ -4029,24 +4295,24 @@
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A137" s="67"/>
-      <c r="B137" s="93"/>
+      <c r="A137" s="58"/>
+      <c r="B137" s="91"/>
       <c r="C137" s="13" t="s">
         <v>102</v>
       </c>
       <c r="J137" s="29"/>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A138" s="67"/>
-      <c r="B138" s="93"/>
+      <c r="A138" s="58"/>
+      <c r="B138" s="91"/>
       <c r="C138" s="13" t="s">
         <v>103</v>
       </c>
       <c r="J138" s="29"/>
     </row>
     <row r="139" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="67"/>
-      <c r="B139" s="94"/>
+      <c r="A139" s="58"/>
+      <c r="B139" s="92"/>
       <c r="C139" s="19" t="s">
         <v>43</v>
       </c>
@@ -4059,8 +4325,8 @@
       <c r="J139" s="32"/>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A140" s="67"/>
-      <c r="B140" s="60" t="s">
+      <c r="A140" s="58"/>
+      <c r="B140" s="87" t="s">
         <v>10</v>
       </c>
       <c r="C140" s="20" t="s">
@@ -4075,16 +4341,16 @@
       <c r="J140" s="28"/>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A141" s="67"/>
-      <c r="B141" s="61"/>
+      <c r="A141" s="58"/>
+      <c r="B141" s="88"/>
       <c r="C141" s="17" t="s">
         <v>107</v>
       </c>
       <c r="J141" s="29"/>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A142" s="67"/>
-      <c r="B142" s="61"/>
+      <c r="A142" s="58"/>
+      <c r="B142" s="88"/>
       <c r="C142" s="17" t="s">
         <v>108</v>
       </c>
@@ -4094,16 +4360,19 @@
       <c r="J142" s="29"/>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A143" s="67"/>
-      <c r="B143" s="61"/>
+      <c r="A143" s="58"/>
+      <c r="B143" s="88"/>
       <c r="C143" s="17" t="s">
         <v>103</v>
       </c>
+      <c r="E143" s="47" t="s">
+        <v>322</v>
+      </c>
       <c r="J143" s="29"/>
     </row>
     <row r="144" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="67"/>
-      <c r="B144" s="62"/>
+      <c r="A144" s="58"/>
+      <c r="B144" s="89"/>
       <c r="C144" s="18" t="s">
         <v>43</v>
       </c>
@@ -4116,8 +4385,8 @@
       <c r="J144" s="32"/>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A145" s="67"/>
-      <c r="B145" s="58" t="s">
+      <c r="A145" s="58"/>
+      <c r="B145" s="77" t="s">
         <v>11</v>
       </c>
       <c r="C145" s="21" t="s">
@@ -4126,24 +4395,24 @@
       <c r="J145" s="42"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A146" s="67"/>
-      <c r="B146" s="58"/>
+      <c r="A146" s="58"/>
+      <c r="B146" s="77"/>
       <c r="C146" s="13" t="s">
         <v>110</v>
       </c>
       <c r="J146" s="29"/>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A147" s="67"/>
-      <c r="B147" s="58"/>
+      <c r="A147" s="58"/>
+      <c r="B147" s="77"/>
       <c r="C147" s="13" t="s">
         <v>74</v>
       </c>
       <c r="J147" s="29"/>
     </row>
     <row r="148" spans="1:15" ht="165" x14ac:dyDescent="0.25">
-      <c r="A148" s="67"/>
-      <c r="B148" s="58"/>
+      <c r="A148" s="58"/>
+      <c r="B148" s="77"/>
       <c r="C148" s="13" t="s">
         <v>111</v>
       </c>
@@ -4165,40 +4434,43 @@
       <c r="O148" s="56"/>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A149" s="67"/>
-      <c r="B149" s="58"/>
+      <c r="A149" s="58"/>
+      <c r="B149" s="77"/>
       <c r="C149" s="13" t="s">
         <v>112</v>
       </c>
+      <c r="E149" s="47" t="s">
+        <v>323</v>
+      </c>
       <c r="J149" s="29"/>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A150" s="67"/>
-      <c r="B150" s="58"/>
+      <c r="A150" s="58"/>
+      <c r="B150" s="77"/>
       <c r="C150" s="13" t="s">
         <v>113</v>
       </c>
       <c r="J150" s="29"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A151" s="67"/>
-      <c r="B151" s="58"/>
+      <c r="A151" s="58"/>
+      <c r="B151" s="77"/>
       <c r="C151" s="13" t="s">
         <v>103</v>
       </c>
       <c r="J151" s="29"/>
     </row>
     <row r="152" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="67"/>
-      <c r="B152" s="58"/>
+      <c r="A152" s="58"/>
+      <c r="B152" s="77"/>
       <c r="C152" s="19" t="s">
         <v>43</v>
       </c>
       <c r="J152" s="29"/>
     </row>
     <row r="153" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="67"/>
-      <c r="B153" s="59"/>
+      <c r="A153" s="58"/>
+      <c r="B153" s="78"/>
       <c r="C153" s="41"/>
       <c r="D153" s="31"/>
       <c r="E153" s="49"/>
@@ -4209,8 +4481,8 @@
       <c r="J153" s="32"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A154" s="67"/>
-      <c r="B154" s="86" t="s">
+      <c r="A154" s="58"/>
+      <c r="B154" s="79" t="s">
         <v>12</v>
       </c>
       <c r="C154" s="20" t="s">
@@ -4225,16 +4497,16 @@
       <c r="J154" s="28"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A155" s="67"/>
-      <c r="B155" s="63"/>
+      <c r="A155" s="58"/>
+      <c r="B155" s="80"/>
       <c r="C155" s="17" t="s">
         <v>110</v>
       </c>
       <c r="J155" s="29"/>
     </row>
     <row r="156" spans="1:15" ht="150" x14ac:dyDescent="0.25">
-      <c r="A156" s="67"/>
-      <c r="B156" s="63"/>
+      <c r="A156" s="58"/>
+      <c r="B156" s="80"/>
       <c r="C156" s="15" t="s">
         <v>72</v>
       </c>
@@ -4255,32 +4527,35 @@
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A157" s="67"/>
-      <c r="B157" s="63"/>
+      <c r="A157" s="58"/>
+      <c r="B157" s="80"/>
       <c r="C157" s="15" t="s">
         <v>114</v>
       </c>
+      <c r="E157" s="47" t="s">
+        <v>324</v>
+      </c>
       <c r="J157" s="29"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A158" s="67"/>
-      <c r="B158" s="63"/>
+      <c r="A158" s="58"/>
+      <c r="B158" s="80"/>
       <c r="C158" s="17" t="s">
         <v>103</v>
       </c>
       <c r="J158" s="29"/>
     </row>
     <row r="159" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="67"/>
-      <c r="B159" s="63"/>
+      <c r="A159" s="58"/>
+      <c r="B159" s="80"/>
       <c r="C159" s="18" t="s">
         <v>43</v>
       </c>
       <c r="J159" s="29"/>
     </row>
     <row r="160" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="67"/>
-      <c r="B160" s="64"/>
+      <c r="A160" s="58"/>
+      <c r="B160" s="81"/>
       <c r="C160" s="39"/>
       <c r="D160" s="31"/>
       <c r="E160" s="49"/>
@@ -4291,8 +4566,8 @@
       <c r="J160" s="32"/>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" s="67"/>
-      <c r="B161" s="57" t="s">
+      <c r="A161" s="58"/>
+      <c r="B161" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C161" s="12" t="s">
@@ -4307,8 +4582,8 @@
       <c r="J161" s="28"/>
     </row>
     <row r="162" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A162" s="67"/>
-      <c r="B162" s="58"/>
+      <c r="A162" s="58"/>
+      <c r="B162" s="77"/>
       <c r="C162" s="22" t="s">
         <v>70</v>
       </c>
@@ -4326,8 +4601,8 @@
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" s="67"/>
-      <c r="B163" s="58"/>
+      <c r="A163" s="58"/>
+      <c r="B163" s="77"/>
       <c r="C163" s="22" t="s">
         <v>115</v>
       </c>
@@ -4337,32 +4612,35 @@
       <c r="J163" s="29"/>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164" s="67"/>
-      <c r="B164" s="58"/>
+      <c r="A164" s="58"/>
+      <c r="B164" s="77"/>
       <c r="C164" s="22" t="s">
         <v>116</v>
       </c>
+      <c r="E164" s="47" t="s">
+        <v>325</v>
+      </c>
       <c r="J164" s="29"/>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" s="67"/>
-      <c r="B165" s="58"/>
+      <c r="A165" s="58"/>
+      <c r="B165" s="77"/>
       <c r="C165" s="13" t="s">
         <v>103</v>
       </c>
       <c r="J165" s="29"/>
     </row>
     <row r="166" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="67"/>
-      <c r="B166" s="58"/>
+      <c r="A166" s="58"/>
+      <c r="B166" s="77"/>
       <c r="C166" s="19" t="s">
         <v>43</v>
       </c>
       <c r="J166" s="29"/>
     </row>
     <row r="167" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="67"/>
-      <c r="B167" s="59"/>
+      <c r="A167" s="58"/>
+      <c r="B167" s="78"/>
       <c r="C167" s="41"/>
       <c r="D167" s="31"/>
       <c r="E167" s="49"/>
@@ -4373,8 +4651,8 @@
       <c r="J167" s="32"/>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" s="67"/>
-      <c r="B168" s="60" t="s">
+      <c r="A168" s="58"/>
+      <c r="B168" s="87" t="s">
         <v>14</v>
       </c>
       <c r="C168" s="14" t="s">
@@ -4389,8 +4667,8 @@
       <c r="J168" s="28"/>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" s="67"/>
-      <c r="B169" s="61"/>
+      <c r="A169" s="58"/>
+      <c r="B169" s="88"/>
       <c r="C169" s="15" t="s">
         <v>117</v>
       </c>
@@ -4408,16 +4686,19 @@
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170" s="67"/>
-      <c r="B170" s="61"/>
+      <c r="A170" s="58"/>
+      <c r="B170" s="88"/>
       <c r="C170" s="17" t="s">
         <v>103</v>
       </c>
+      <c r="E170" s="47" t="s">
+        <v>328</v>
+      </c>
       <c r="J170" s="29"/>
     </row>
     <row r="171" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="67"/>
-      <c r="B171" s="62"/>
+      <c r="A171" s="58"/>
+      <c r="B171" s="89"/>
       <c r="C171" s="18" t="s">
         <v>43</v>
       </c>
@@ -4430,8 +4711,8 @@
       <c r="J171" s="32"/>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" s="67"/>
-      <c r="B172" s="57" t="s">
+      <c r="A172" s="58"/>
+      <c r="B172" s="93" t="s">
         <v>15</v>
       </c>
       <c r="C172" s="12" t="s">
@@ -4446,16 +4727,16 @@
       <c r="J172" s="28"/>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173" s="67"/>
-      <c r="B173" s="58"/>
+      <c r="A173" s="58"/>
+      <c r="B173" s="77"/>
       <c r="C173" s="13" t="s">
         <v>90</v>
       </c>
       <c r="J173" s="29"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" s="67"/>
-      <c r="B174" s="58"/>
+      <c r="A174" s="58"/>
+      <c r="B174" s="77"/>
       <c r="C174" s="13" t="s">
         <v>118</v>
       </c>
@@ -4473,24 +4754,27 @@
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" s="67"/>
-      <c r="B175" s="58"/>
+      <c r="A175" s="58"/>
+      <c r="B175" s="77"/>
       <c r="C175" s="13" t="s">
         <v>103</v>
       </c>
+      <c r="E175" s="47" t="s">
+        <v>329</v>
+      </c>
       <c r="J175" s="29"/>
     </row>
     <row r="176" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="67"/>
-      <c r="B176" s="58"/>
+      <c r="A176" s="58"/>
+      <c r="B176" s="77"/>
       <c r="C176" s="19" t="s">
         <v>43</v>
       </c>
       <c r="J176" s="29"/>
     </row>
     <row r="177" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="67"/>
-      <c r="B177" s="59"/>
+      <c r="A177" s="58"/>
+      <c r="B177" s="78"/>
       <c r="C177" s="41"/>
       <c r="D177" s="31"/>
       <c r="E177" s="49"/>
@@ -4501,8 +4785,8 @@
       <c r="J177" s="32"/>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178" s="67"/>
-      <c r="B178" s="63" t="s">
+      <c r="A178" s="58"/>
+      <c r="B178" s="80" t="s">
         <v>16</v>
       </c>
       <c r="C178" s="40" t="s">
@@ -4511,16 +4795,16 @@
       <c r="J178" s="42"/>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179" s="67"/>
-      <c r="B179" s="63"/>
+      <c r="A179" s="58"/>
+      <c r="B179" s="80"/>
       <c r="C179" s="17" t="s">
         <v>120</v>
       </c>
       <c r="J179" s="29"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A180" s="67"/>
-      <c r="B180" s="63"/>
+      <c r="A180" s="58"/>
+      <c r="B180" s="80"/>
       <c r="C180" s="17" t="s">
         <v>121</v>
       </c>
@@ -4538,8 +4822,8 @@
       </c>
     </row>
     <row r="181" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A181" s="67"/>
-      <c r="B181" s="63"/>
+      <c r="A181" s="58"/>
+      <c r="B181" s="80"/>
       <c r="C181" s="17"/>
       <c r="E181" s="47" t="s">
         <v>302</v>
@@ -4558,24 +4842,27 @@
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182" s="67"/>
-      <c r="B182" s="63"/>
+      <c r="A182" s="58"/>
+      <c r="B182" s="80"/>
       <c r="C182" s="17" t="s">
         <v>103</v>
       </c>
+      <c r="E182" s="47" t="s">
+        <v>315</v>
+      </c>
       <c r="J182" s="29"/>
     </row>
     <row r="183" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="67"/>
-      <c r="B183" s="63"/>
+      <c r="A183" s="58"/>
+      <c r="B183" s="80"/>
       <c r="C183" s="18" t="s">
         <v>43</v>
       </c>
       <c r="J183" s="29"/>
     </row>
     <row r="184" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="68"/>
-      <c r="B184" s="64"/>
+      <c r="A184" s="59"/>
+      <c r="B184" s="81"/>
       <c r="C184" s="39"/>
       <c r="D184" s="31"/>
       <c r="E184" s="49"/>
@@ -4598,6 +4885,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B172:B177"/>
+    <mergeCell ref="B178:B184"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="B140:B144"/>
     <mergeCell ref="A71:A184"/>
     <mergeCell ref="B2:B29"/>
     <mergeCell ref="B30:B36"/>
@@ -4614,12 +4905,884 @@
     <mergeCell ref="B154:B160"/>
     <mergeCell ref="B161:B167"/>
     <mergeCell ref="B168:B171"/>
-    <mergeCell ref="B172:B177"/>
-    <mergeCell ref="B178:B184"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="B140:B144"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="95"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="95"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="95"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="95"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="95"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="95"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="95"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="95"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="95"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="95"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="95"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="95"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="95"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="95"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="95"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="95"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="95"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="95"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="95"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="95" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="95"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="95"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="95"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="95"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="95" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="95"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="95" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="95"/>
+      <c r="B54" s="95"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="95" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="95"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="95"/>
+      <c r="B56" s="95"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="95" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="95"/>
+      <c r="B57" s="95"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="95" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="95"/>
+      <c r="B58" s="95"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="95" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="95"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="95" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="95"/>
+      <c r="B60" s="95"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="95" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="95"/>
+      <c r="B61" s="95"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="95" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="95"/>
+      <c r="B62" s="95"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="95" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="95"/>
+      <c r="B63" s="95"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="95" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="95"/>
+      <c r="B64" s="95"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="95" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="95"/>
+      <c r="B65" s="95"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="95" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="95"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="95"/>
+      <c r="B67" s="95"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="95"/>
+      <c r="B68" s="95"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="95" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="95"/>
+      <c r="B69" s="95"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="95" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="95"/>
+      <c r="B70" s="95"/>
+      <c r="C70" s="95"/>
+      <c r="D70" s="95" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="95"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="95" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="95"/>
+      <c r="B72" s="95"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="95"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="95" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="95"/>
+      <c r="B74" s="95"/>
+      <c r="C74" s="95"/>
+      <c r="D74" s="95" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="95"/>
+      <c r="B75" s="95"/>
+      <c r="C75" s="95"/>
+      <c r="D75" s="95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="95"/>
+      <c r="B76" s="95"/>
+      <c r="C76" s="95"/>
+      <c r="D76" s="95" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="95"/>
+      <c r="B77" s="95"/>
+      <c r="C77" s="95"/>
+      <c r="D77" s="95" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="95"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="95"/>
+      <c r="D78" s="95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="95"/>
+      <c r="B79" s="95"/>
+      <c r="C79" s="95"/>
+      <c r="D79" s="95" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="95"/>
+      <c r="B80" s="95"/>
+      <c r="C80" s="95"/>
+      <c r="D80" s="95" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="95"/>
+      <c r="B81" s="95"/>
+      <c r="C81" s="95"/>
+      <c r="D81" s="95" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="95"/>
+      <c r="B82" s="95"/>
+      <c r="C82" s="95"/>
+      <c r="D82" s="95" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="95"/>
+      <c r="B83" s="95"/>
+      <c r="C83" s="95"/>
+      <c r="D83" s="95" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="95"/>
+      <c r="B84" s="95"/>
+      <c r="C84" s="95"/>
+      <c r="D84" s="95" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="95"/>
+      <c r="B85" s="95"/>
+      <c r="C85" s="95"/>
+      <c r="D85" s="95" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="95"/>
+      <c r="B86" s="95"/>
+      <c r="C86" s="95"/>
+      <c r="D86" s="95" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="95"/>
+      <c r="B87" s="95"/>
+      <c r="C87" s="95"/>
+      <c r="D87" s="95" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="95"/>
+      <c r="B88" s="95"/>
+      <c r="C88" s="95"/>
+      <c r="D88" s="95" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="95"/>
+      <c r="B89" s="95"/>
+      <c r="C89" s="95"/>
+      <c r="D89" s="95" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="95"/>
+      <c r="B90" s="95"/>
+      <c r="C90" s="95"/>
+      <c r="D90" s="95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="95"/>
+      <c r="B91" s="95"/>
+      <c r="C91" s="95"/>
+      <c r="D91" s="95" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="95"/>
+      <c r="B92" s="95"/>
+      <c r="C92" s="95"/>
+      <c r="D92" s="95" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="95"/>
+      <c r="B93" s="95"/>
+      <c r="C93" s="95"/>
+      <c r="D93" s="95" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="95"/>
+      <c r="B94" s="95"/>
+      <c r="C94" s="95"/>
+      <c r="D94" s="95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="95"/>
+      <c r="B95" s="95"/>
+      <c r="C95" s="95"/>
+      <c r="D95" s="95" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="95"/>
+      <c r="B96" s="95"/>
+      <c r="C96" s="95"/>
+      <c r="D96" s="95" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="95"/>
+      <c r="B97" s="95"/>
+      <c r="C97" s="95"/>
+      <c r="D97" s="95" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="95"/>
+      <c r="B98" s="95"/>
+      <c r="C98" s="95"/>
+      <c r="D98" s="95" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="95"/>
+      <c r="B99" s="95"/>
+      <c r="C99" s="95"/>
+      <c r="D99" s="95" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="95"/>
+      <c r="B100" s="95"/>
+      <c r="C100" s="95"/>
+      <c r="D100" s="95" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="95"/>
+      <c r="B101" s="95"/>
+      <c r="C101" s="95"/>
+      <c r="D101" s="95" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>